--- a/ACTIVOS - EQUIPOS DE COMPUTOS Y OTROS - CAMINOS- PIDICSA  (AG).xlsx
+++ b/ACTIVOS - EQUIPOS DE COMPUTOS Y OTROS - CAMINOS- PIDICSA  (AG).xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Analista de datos\Guías del trabajo\César Bracamonte\Proyecto inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6976AD-E260-4D1F-B3E0-D5F820B761F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA74D483-B42B-4152-BCBB-4CCC689B3B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-48" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Activos fijos" sheetId="1" r:id="rId1"/>
     <sheet name="Base de Datos" sheetId="4" r:id="rId2"/>
-    <sheet name="Facturas de compras de equipo" sheetId="2" r:id="rId3"/>
-    <sheet name="RESUMEN" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId3"/>
+    <sheet name="Facturas de compras de equipo" sheetId="2" r:id="rId4"/>
+    <sheet name="RESUMEN" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Activos fijos'!$A$2:$N$263</definedName>
@@ -693,8 +694,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2575" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="938">
   <si>
     <t>p0</t>
   </si>
@@ -4787,7 +4810,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4803,6 +4826,16 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4C7C3"/>
           <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4929,25 +4962,25 @@
   </dxfs>
   <tableStyles count="4">
     <tableStyle name="Activos fijos-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="Activos fijos-style 2" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="Facturas de compras de equipo-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
     <tableStyle name="RESUMEN-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -5246,9 +5279,9 @@
   </sheetPr>
   <dimension ref="A1:O305"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3:M260"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13660,7 +13693,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F23 C18 E18:E22 G18:G22 G24 F25:F305 G155:G161">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>"CONTAR.SI(F:F,F1)&gt;1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13681,8 +13714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961BF3DA-A19A-46A2-9EA9-24694047B144}">
   <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -14134,7 +14167,7 @@
       <c r="F25" s="226"/>
       <c r="G25" s="237"/>
     </row>
-    <row r="26" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -18536,13 +18569,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B21 C16:C20 C22 C153:C157 B23:B256">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B1:B21 B23:B256 C16:C20 C22 C153:C157">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>"CONTAR.SI(F:F,F1)&gt;1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showDropDown="1" sqref="D1:D256" xr:uid="{01F2A893-0C41-4239-8333-794EA6B61E0F}"/>
@@ -18553,13 +18586,2436 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A1D41E-EC9A-45C8-8946-B10C8F6A6AA1}">
+  <dimension ref="B1:D256"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="str">
+        <f>LEFT(B1,3)</f>
+        <v>AIR</v>
+      </c>
+      <c r="D1" t="str" cm="1">
+        <f t="array" ref="D1:D31">_xlfn.UNIQUE(C1:C256)</f>
+        <v>AIR</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="227" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">LEFT(B2,3)</f>
+        <v>AIR</v>
+      </c>
+      <c r="D2" t="str">
+        <v>ALF</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="223" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>AIR</v>
+      </c>
+      <c r="D3" t="str">
+        <v>ARC</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="227" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>AIR</v>
+      </c>
+      <c r="D4" t="str">
+        <v>BAL</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="223" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>AIR</v>
+      </c>
+      <c r="D5" t="str">
+        <v>BAS</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="227" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>AIR</v>
+      </c>
+      <c r="D6" t="str">
+        <v>BIP</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="223" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>AIR</v>
+      </c>
+      <c r="D7" t="str">
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="227" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>AIR</v>
+      </c>
+      <c r="D8" t="str">
+        <v>CAF</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="223" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>AIR</v>
+      </c>
+      <c r="D9" t="str">
+        <v>CAR</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="227" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>AIR</v>
+      </c>
+      <c r="D10" t="str">
+        <v>DRN</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="223" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>AIR</v>
+      </c>
+      <c r="D11" t="str">
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="227" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>ALF</v>
+      </c>
+      <c r="D12" t="str">
+        <v>ENF</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="232" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>ARC</v>
+      </c>
+      <c r="D13" t="str">
+        <v>GPS</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="234" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>BAL</v>
+      </c>
+      <c r="D14" t="str">
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="232" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>BAL</v>
+      </c>
+      <c r="D15" t="str">
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="234" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>BAL</v>
+      </c>
+      <c r="D16" t="str">
+        <v>MES</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="232" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>BAS</v>
+      </c>
+      <c r="D17" t="str">
+        <v>MIC</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="234" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>BIP</v>
+      </c>
+      <c r="D18" t="str">
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="232" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+      <c r="D19" t="str">
+        <v>NEV</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="234" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>CAF</v>
+      </c>
+      <c r="D20" t="str">
+        <v>NIV</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="232" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>CAF</v>
+      </c>
+      <c r="D21" t="str">
+        <v>PAP</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="234" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>CAR</v>
+      </c>
+      <c r="D22" t="str">
+        <v>SSD</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="232" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>DRN</v>
+      </c>
+      <c r="D23" t="str">
+        <v>PRI</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="234" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>DRN</v>
+      </c>
+      <c r="D24" t="str">
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="232" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>DRN</v>
+      </c>
+      <c r="D25" t="str">
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="234" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+      <c r="D26" t="str">
+        <v>SOF</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="232" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+      <c r="D27" t="str">
+        <v>TEV</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="234" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+      <c r="D28" t="str">
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="232" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+      <c r="D29" t="str">
+        <v>TRI</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="227" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+      <c r="D30" t="str">
+        <v>VEN</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="223" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+      <c r="D31" t="str">
+        <v>TEL</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="227" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="223" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="227" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="223" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="227" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="223" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="227" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="223" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="227" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="223" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="227" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="223" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="227" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="223" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="227" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="223" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="227" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="223" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>DSK</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="227" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>ENF</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>GPS</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="227" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>GPS</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="223" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>GPS</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="227" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>GPS</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="223" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>GPS</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="227" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="223" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="227" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="223" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="227" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="223" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="227" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="223" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="227" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="223" t="s">
+        <v>937</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="227" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C129" si="1">LEFT(B66,3)</f>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="223" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="227" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="223" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="227" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="223" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>IMP</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="227" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="223" t="s">
+        <v>250</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="227" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="223" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="227" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="223" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="227" t="s">
+        <v>271</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="223" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="227" t="s">
+        <v>276</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="223" t="s">
+        <v>279</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="227" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="223" t="s">
+        <v>285</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="227" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="223" t="s">
+        <v>292</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="227" t="s">
+        <v>295</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="223" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="227" t="s">
+        <v>302</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="223" t="s">
+        <v>307</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="227" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="223" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="227" t="s">
+        <v>320</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="223" t="s">
+        <v>323</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>LAP</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="227" t="s">
+        <v>326</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>MES</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="223" t="s">
+        <v>329</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>MES</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="227" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>MES</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="223" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>MES</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="227" t="s">
+        <v>336</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v>MES</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="223" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v>MES</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="227" t="s">
+        <v>340</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v>MIC</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="223" t="s">
+        <v>342</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v>MIC</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="227" t="s">
+        <v>344</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v>MIC</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="223" t="s">
+        <v>347</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="227" t="s">
+        <v>350</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="223" t="s">
+        <v>352</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="227" t="s">
+        <v>355</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="223" t="s">
+        <v>357</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="227" t="s">
+        <v>359</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="223" t="s">
+        <v>361</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="227" t="s">
+        <v>363</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="223" t="s">
+        <v>366</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="227" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="223" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="227" t="s">
+        <v>373</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="223" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="227" t="s">
+        <v>377</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="223" t="s">
+        <v>379</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="227" t="s">
+        <v>381</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="223" t="s">
+        <v>383</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="227" t="s">
+        <v>385</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="223" t="s">
+        <v>387</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="227" t="s">
+        <v>389</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="223" t="s">
+        <v>392</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="227" t="s">
+        <v>394</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="223" t="s">
+        <v>397</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="227" t="s">
+        <v>399</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="223" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="227" t="s">
+        <v>401</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="223" t="s">
+        <v>404</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v>MON</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="227" t="s">
+        <v>407</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" ref="C130:C193" si="2">LEFT(B130,3)</f>
+        <v>NEV</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="223" t="s">
+        <v>409</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" si="2"/>
+        <v>NEV</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="227" t="s">
+        <v>411</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="2"/>
+        <v>NEV</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="223" t="s">
+        <v>414</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="2"/>
+        <v>NIV</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="227" t="s">
+        <v>417</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="2"/>
+        <v>NIV</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="223" t="s">
+        <v>419</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="2"/>
+        <v>PAP</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="227" t="s">
+        <v>421</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="2"/>
+        <v>SSD</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="223" t="s">
+        <v>424</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="2"/>
+        <v>SSD</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="227" t="s">
+        <v>425</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="2"/>
+        <v>SSD</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="223" t="s">
+        <v>426</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="2"/>
+        <v>SSD</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B140" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="2"/>
+        <v>PRI</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="223" t="s">
+        <v>431</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="2"/>
+        <v>PRI</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="227" t="s">
+        <v>432</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="2"/>
+        <v>PRI</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="227" t="s">
+        <v>437</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="223" t="s">
+        <v>438</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B146" s="227" t="s">
+        <v>439</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" s="223" t="s">
+        <v>441</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" s="227" t="s">
+        <v>442</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B149" s="223" t="s">
+        <v>444</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B150" s="227" t="s">
+        <v>445</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="223" t="s">
+        <v>447</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="227" t="s">
+        <v>448</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="223" t="s">
+        <v>449</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="227" t="s">
+        <v>450</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="223" t="s">
+        <v>451</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="227" t="s">
+        <v>452</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="232" t="s">
+        <v>453</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="2"/>
+        <v>RAD</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="227" t="s">
+        <v>459</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B159" s="223" t="s">
+        <v>461</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B160" s="227" t="s">
+        <v>462</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="223" t="s">
+        <v>463</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="227" t="s">
+        <v>466</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="223" t="s">
+        <v>468</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="227" t="s">
+        <v>470</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="223" t="s">
+        <v>472</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="227" t="s">
+        <v>474</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="223" t="s">
+        <v>475</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" s="227" t="s">
+        <v>476</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B169" s="223" t="s">
+        <v>477</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B170" s="227" t="s">
+        <v>478</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B171" s="223" t="s">
+        <v>479</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B172" s="227" t="s">
+        <v>480</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B173" s="223" t="s">
+        <v>481</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B174" s="227" t="s">
+        <v>482</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B175" s="223" t="s">
+        <v>483</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B176" s="227" t="s">
+        <v>485</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="223" t="s">
+        <v>486</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B178" s="227" t="s">
+        <v>487</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B179" s="223" t="s">
+        <v>488</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="227" t="s">
+        <v>489</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B181" s="223" t="s">
+        <v>490</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B182" s="227" t="s">
+        <v>492</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B183" s="223" t="s">
+        <v>493</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B184" s="227" t="s">
+        <v>494</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B185" s="223" t="s">
+        <v>495</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B186" s="227" t="s">
+        <v>498</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B187" s="223" t="s">
+        <v>499</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B188" s="227" t="s">
+        <v>501</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B189" s="223" t="s">
+        <v>502</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B190" s="227" t="s">
+        <v>504</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B191" s="223" t="s">
+        <v>507</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B192" s="227" t="s">
+        <v>508</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B193" s="223" t="s">
+        <v>509</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="2"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B194" s="227" t="s">
+        <v>510</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" ref="C194:C257" si="3">LEFT(B194,3)</f>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="223" t="s">
+        <v>511</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B196" s="227" t="s">
+        <v>512</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B197" s="223" t="s">
+        <v>514</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B198" s="227" t="s">
+        <v>517</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B199" s="223" t="s">
+        <v>520</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B200" s="227" t="s">
+        <v>522</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B201" s="223" t="s">
+        <v>524</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B202" s="227" t="s">
+        <v>525</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B203" s="223" t="s">
+        <v>526</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B204" s="227" t="s">
+        <v>527</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B205" s="223" t="s">
+        <v>528</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B206" s="227" t="s">
+        <v>530</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B207" s="223" t="s">
+        <v>532</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B208" s="227" t="s">
+        <v>533</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B209" s="223" t="s">
+        <v>535</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B210" s="227" t="s">
+        <v>536</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B211" s="223" t="s">
+        <v>538</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="227" t="s">
+        <v>541</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B213" s="223" t="s">
+        <v>543</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B214" s="227" t="s">
+        <v>544</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="223" t="s">
+        <v>547</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B216" s="227" t="s">
+        <v>549</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B217" s="223" t="s">
+        <v>551</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B218" s="227" t="s">
+        <v>552</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B219" s="223" t="s">
+        <v>553</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="227" t="s">
+        <v>554</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B221" s="223" t="s">
+        <v>555</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B222" s="227" t="s">
+        <v>556</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B223" s="223" t="s">
+        <v>557</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B224" s="227" t="s">
+        <v>558</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B225" s="223" t="s">
+        <v>559</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B226" s="227" t="s">
+        <v>560</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B227" s="223" t="s">
+        <v>561</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B228" s="227" t="s">
+        <v>563</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B229" s="223" t="s">
+        <v>564</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B230" s="227" t="s">
+        <v>565</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B231" s="223" t="s">
+        <v>566</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="227" t="s">
+        <v>567</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="223" t="s">
+        <v>569</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B234" s="227" t="s">
+        <v>571</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B235" s="223" t="s">
+        <v>572</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="227" t="s">
+        <v>574</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="3"/>
+        <v>SIL</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="223" t="s">
+        <v>575</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="3"/>
+        <v>SOF</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B238" s="227" t="s">
+        <v>577</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="3"/>
+        <v>TEV</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B239" s="223" t="s">
+        <v>581</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="3"/>
+        <v>TEV</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B240" s="227" t="s">
+        <v>583</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="3"/>
+        <v>TEV</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B241" s="223" t="s">
+        <v>585</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="3"/>
+        <v>TEV</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B242" s="227" t="s">
+        <v>586</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="3"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="223" t="s">
+        <v>590</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="3"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B244" s="227" t="s">
+        <v>593</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="3"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B245" s="223" t="s">
+        <v>595</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="3"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B246" s="227" t="s">
+        <v>598</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="3"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B247" s="223" t="s">
+        <v>601</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="3"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B248" s="227" t="s">
+        <v>603</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="3"/>
+        <v>TOP</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="223" t="s">
+        <v>606</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="3"/>
+        <v>TRI</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B250" s="227" t="s">
+        <v>609</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="3"/>
+        <v>TRI</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B251" s="223" t="s">
+        <v>611</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="3"/>
+        <v>TRI</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B252" s="227" t="s">
+        <v>612</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="3"/>
+        <v>TRI</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="223" t="s">
+        <v>614</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="3"/>
+        <v>VEN</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" s="227" t="s">
+        <v>616</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="3"/>
+        <v>VEN</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="223" t="s">
+        <v>618</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="3"/>
+        <v>TEL</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" s="227" t="s">
+        <v>622</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="3"/>
+        <v>TEL</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B21 B23:B256">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>"CONTAR.SI(F:F,F1)&gt;1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18946,7 +21402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:H1000"/>
   <sheetViews>

--- a/ACTIVOS - EQUIPOS DE COMPUTOS Y OTROS - CAMINOS- PIDICSA  (AG).xlsx
+++ b/ACTIVOS - EQUIPOS DE COMPUTOS Y OTROS - CAMINOS- PIDICSA  (AG).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Analista de datos\Guías del trabajo\César Bracamonte\Proyecto inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF24ED2-BE4D-4B2F-A1E0-5DCBE9D5F63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3514A75D-0735-4284-92D8-3503D3964596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,52 +396,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{EA4B29F0-431B-4C5C-8E8D-88690F1CA1D1}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>antiguamente ADRIANA GONZALEZ
-reparada el 12/01/2024
-	-HP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{42E54A4C-8829-4AFF-9441-611C1A0EE834}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>entregado el 15 ene 2025
-	-HP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{198B8D33-9D92-43D6-9559-C808014877DF}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>anteriormente de (ING.OCHOA)
-	-HP</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D38" authorId="0" shapeId="0" xr:uid="{72CF8C11-FFD1-468E-AF2C-C4F30311E236}">
       <text>
         <r>
@@ -457,21 +411,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{044C27B3-9B9E-4E40-B93B-1344C08D8E3C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ANTIGUAMENTE DE LORENA
-	-HP</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D43" authorId="0" shapeId="0" xr:uid="{015BCB32-C77E-4C52-A42C-FD6436B61317}">
       <text>
         <r>
@@ -484,21 +423,6 @@
           </rPr>
           <t>SE ENVIO A REPARACION EL 5/03
 LA TRAJERON REPARADA EL 6/03</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E73" authorId="0" shapeId="0" xr:uid="{464B4348-3BB1-4CBF-AF45-7D191A0D9A3B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ENTREGADA EL 15 ENERO 2025
-	-HP</t>
         </r>
       </text>
     </comment>
@@ -534,162 +458,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E77" authorId="0" shapeId="0" xr:uid="{9399C359-8BAA-46CB-8DE7-C245DC0DAB70}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Era del Alberto Soto. Hay que reparar laptop, no carga
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E79" authorId="0" shapeId="0" xr:uid="{E18358EA-E257-43E5-AC48-C6D91C996DBA}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>USUARIO ANTERIOR GERARDO ALVARO
-	-HP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E83" authorId="0" shapeId="0" xr:uid="{75B61DE9-70C1-43FD-8D95-EA107246462C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>RECIBIDO DE BRUNO FIGUEROA EL 
-(9/04/2025)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E86" authorId="0" shapeId="0" xr:uid="{D4492DC3-15FD-46E2-861D-DA454178C505}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Se robaron la laptop de la camioneta de Vidales  el día 18/06/2025</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E88" authorId="0" shapeId="0" xr:uid="{D3182FFA-6C32-4CE2-A0C5-A914C0EF70D8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Recibida 23 de Junio por José Miguel Lopez Cepeda</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E110" authorId="0" shapeId="0" xr:uid="{512C6C3C-EA1D-4FA3-AE05-8CA251D56B3E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>desde el 12/04/2025
-----
-desde 12/04/2025
-	-Analista de datos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E119" authorId="0" shapeId="0" xr:uid="{110FDC91-38E9-45AB-957C-113609E1B2E9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>ANTIGUOS USUARIOS:
-ALFREDO OCHOA
-FERNANDO
-	-HP
-ING. JAIME GARCIA LOBATO hasta el 12/04/2025
-	-Adriana Gonzalez</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E121" authorId="0" shapeId="0" xr:uid="{28169B80-B86E-4A0B-AA86-DBBEA6219C51}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Antiguo usuario: Javier Paulino Patiño
-----
-Antiguo Usuario: Javier Paulino Patiño
-	-Analista de datos</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E124" authorId="0" shapeId="0" xr:uid="{29ECAE16-D569-4B60-8CB8-858D70DD4C8E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>entregado el 15 ene 2025
-	-HP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E133" authorId="0" shapeId="0" xr:uid="{9A1EEEF8-7F51-46A0-A11A-FCFB31C463DD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="14"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>La bodega ya no existe, buscar la nueva ubicación
-	-Analista de datos</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -717,7 +485,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="1219">
   <si>
     <t>p0</t>
   </si>
@@ -3542,9 +3310,6 @@
     <t>Vidales</t>
   </si>
   <si>
-    <t>loca</t>
-  </si>
-  <si>
     <t>IMP010</t>
   </si>
   <si>
@@ -3564,6 +3329,834 @@
   </si>
   <si>
     <t>TEL003 TELÉFONO CELULAR MOTOROLA G15 USUARIO: RAUL VALLEJO REFACCIONES</t>
+  </si>
+  <si>
+    <t>Raúl Vallejo</t>
+  </si>
+  <si>
+    <t>Oficina Planta Alta</t>
+  </si>
+  <si>
+    <t>Diana Pineda</t>
+  </si>
+  <si>
+    <t>Citlaly Ramirez</t>
+  </si>
+  <si>
+    <t>Berenice Perez</t>
+  </si>
+  <si>
+    <t>Sala De Juntas Planta Alta</t>
+  </si>
+  <si>
+    <t>Oficina Juan Padilla</t>
+  </si>
+  <si>
+    <t>Oficina Gildardo Padilla</t>
+  </si>
+  <si>
+    <t>Bodega Máquinas</t>
+  </si>
+  <si>
+    <t>Planta Baja</t>
+  </si>
+  <si>
+    <t>Alma Esparza</t>
+  </si>
+  <si>
+    <t>Sin Asignar</t>
+  </si>
+  <si>
+    <t>Jose Ivan Romero</t>
+  </si>
+  <si>
+    <t>Juan Jose Vila Jhony</t>
+  </si>
+  <si>
+    <t>Cocina Planta Alta</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Oficina De Juntas</t>
+  </si>
+  <si>
+    <t>Obra Tzitzio</t>
+  </si>
+  <si>
+    <t>Segmento 4</t>
+  </si>
+  <si>
+    <t>Jaime Garcia Lobato</t>
+  </si>
+  <si>
+    <t>Artemio</t>
+  </si>
+  <si>
+    <t>Efrain Morales Gutierrez</t>
+  </si>
+  <si>
+    <t>Yamileth</t>
+  </si>
+  <si>
+    <t>Cesar Bracamonte</t>
+  </si>
+  <si>
+    <t>Indra Rodriguez Garcia</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Alan Frias</t>
+  </si>
+  <si>
+    <t>Servidor De Contabilidad</t>
+  </si>
+  <si>
+    <t>Adriana Gonzalez</t>
+  </si>
+  <si>
+    <t>Dante Garcia</t>
+  </si>
+  <si>
+    <t>Silvia Mata</t>
+  </si>
+  <si>
+    <t>Jose Eduardo Gordillo</t>
+  </si>
+  <si>
+    <t>En Oficina</t>
+  </si>
+  <si>
+    <t>Oficina De Ingenieros</t>
+  </si>
+  <si>
+    <t>Ricardo Saucedo</t>
+  </si>
+  <si>
+    <t>Ingenieros Planta Baja</t>
+  </si>
+  <si>
+    <t>Uso General Planta Alta</t>
+  </si>
+  <si>
+    <t>Daniela Andrea Arreola Mendoza</t>
+  </si>
+  <si>
+    <t>Netzalhualcotl Francisco</t>
+  </si>
+  <si>
+    <t>Arq. Alberto Soto</t>
+  </si>
+  <si>
+    <t>Arq. Pepe</t>
+  </si>
+  <si>
+    <t>Gerardo Alvaro - Robaron Con La Camioneta</t>
+  </si>
+  <si>
+    <t>Bruno Figueroa</t>
+  </si>
+  <si>
+    <t>No Disponible</t>
+  </si>
+  <si>
+    <t>Carolina Monse Vargas</t>
+  </si>
+  <si>
+    <t>Erasmo Ysaguirre Lopez</t>
+  </si>
+  <si>
+    <t>Sala De Juntas Planta Baja</t>
+  </si>
+  <si>
+    <t>Juan Padilla</t>
+  </si>
+  <si>
+    <t>Fernando Gonzalez</t>
+  </si>
+  <si>
+    <t>Cocina Planta Baja</t>
+  </si>
+  <si>
+    <t>Bodega De Ingenieros Planta Baja</t>
+  </si>
+  <si>
+    <t>Luis - El Zarco</t>
+  </si>
+  <si>
+    <t>En Obra Tocumo</t>
+  </si>
+  <si>
+    <t>Octavio Vidales</t>
+  </si>
+  <si>
+    <t>Diana En Resguardo</t>
+  </si>
+  <si>
+    <t>Citlaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citlaly Ramirez </t>
+  </si>
+  <si>
+    <t>Ingenieros</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Indra Rodriguez</t>
+  </si>
+  <si>
+    <t>Yamileth Barajas</t>
+  </si>
+  <si>
+    <t>Mariana Pérez</t>
+  </si>
+  <si>
+    <t>Jhony</t>
+  </si>
+  <si>
+    <t>Eduardo Gordillo</t>
+  </si>
+  <si>
+    <t>Efrain Morales</t>
+  </si>
+  <si>
+    <t>Gildardo Padilla</t>
+  </si>
+  <si>
+    <t>Dante García</t>
+  </si>
+  <si>
+    <t>Andrea Arreola</t>
+  </si>
+  <si>
+    <t>Rifado</t>
+  </si>
+  <si>
+    <t>Daniel Torres</t>
+  </si>
+  <si>
+    <t>Jaime Mendoza</t>
+  </si>
+  <si>
+    <t>En Calibracion Con Eco Topografica</t>
+  </si>
+  <si>
+    <t>Ivan Romero</t>
+  </si>
+  <si>
+    <t>Myriam Hernandez</t>
+  </si>
+  <si>
+    <t>Topografos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contabilidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recepcion </t>
+  </si>
+  <si>
+    <t>Administracion</t>
+  </si>
+  <si>
+    <t>Oficina Ingenieros Planta Alta</t>
+  </si>
+  <si>
+    <t>Jair Firmo Hoja De Información Que Estan En Tocumbo</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Auxiliar De Administración Planta Baja</t>
+  </si>
+  <si>
+    <t>Auxiliar De Administración</t>
+  </si>
+  <si>
+    <t>Jefe De Ingenieros Planta Baja</t>
+  </si>
+  <si>
+    <t>Jair Los Entrego El 08/4/2025</t>
+  </si>
+  <si>
+    <t>Tzitzio</t>
+  </si>
+  <si>
+    <t>Bodega Maquinas</t>
+  </si>
+  <si>
+    <t>Oficina Vidales</t>
+  </si>
+  <si>
+    <t>Auxiliar Juan Eduardo</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>Administración</t>
+  </si>
+  <si>
+    <t>En Obra</t>
+  </si>
+  <si>
+    <t>Auxiliar Administracion Planta Baja</t>
+  </si>
+  <si>
+    <t>Jefe De Ingenieros</t>
+  </si>
+  <si>
+    <t>Jair Firmo Hoja De Información Donde Están</t>
+  </si>
+  <si>
+    <t>Estimaciones</t>
+  </si>
+  <si>
+    <t>Oficina Juan Padilla Visita 1</t>
+  </si>
+  <si>
+    <t>Oficina Juan Padilla Visita 2</t>
+  </si>
+  <si>
+    <t>Oficina Gildardo Padilla Visita 1</t>
+  </si>
+  <si>
+    <t>Oficina Gildardo Padilla Visita 2</t>
+  </si>
+  <si>
+    <t>Sala De Juntas Planta Alta - Rifado - (Yamilet)</t>
+  </si>
+  <si>
+    <t>En Campo</t>
+  </si>
+  <si>
+    <t>Anteriomente ing. Ochoa</t>
+  </si>
+  <si>
+    <t>CARGADOR AC ADAPTERM56421DA6513. Era de Alberto Soto, hay que repararla, no carga</t>
+  </si>
+  <si>
+    <t>Usuario anterior: Gerardo Álvaro</t>
+  </si>
+  <si>
+    <t>Se robaron la laptop de la camioneta de Octavio Vidales el día 18/06/2025</t>
+  </si>
+  <si>
+    <t>CARGADOR DP/NDV2T17 65,0 W AC. Entregada el 23 de junio por José Miguel Lopez</t>
+  </si>
+  <si>
+    <t>Buscar nueva ubicación</t>
+  </si>
+  <si>
+    <t>Ingeniero Jaime hasta el 12/04/2025</t>
+  </si>
+  <si>
+    <t>Antiguamente de Adriana González, reparada</t>
+  </si>
+  <si>
+    <t>Aire acondicionado mirage life 12+</t>
+  </si>
+  <si>
+    <t>Aire acondicionado mirage v32</t>
+  </si>
+  <si>
+    <t>Aire acondicionado mirage nex</t>
+  </si>
+  <si>
+    <t>Aire acondicionado mirage magnun platino 21</t>
+  </si>
+  <si>
+    <t>Aire acondicionado nex</t>
+  </si>
+  <si>
+    <t>Calentador thermostatica delonghi hifi</t>
+  </si>
+  <si>
+    <t>Calentador thermostatica delonghi hifi 2</t>
+  </si>
+  <si>
+    <t>Enfriador pequeño blanco con negro</t>
+  </si>
+  <si>
+    <t>Calentador thermostatica delonghi hifi 3</t>
+  </si>
+  <si>
+    <t>Alfombra negra</t>
+  </si>
+  <si>
+    <t>Archivador metalico con 4 cajones</t>
+  </si>
+  <si>
+    <t>Baliza de metal</t>
+  </si>
+  <si>
+    <t>Baliza de metal con forro amarillo</t>
+  </si>
+  <si>
+    <t>Baliza de metal con forro rojo apexsurvey</t>
+  </si>
+  <si>
+    <t>Base para 3 botellones de agua potable</t>
+  </si>
+  <si>
+    <t>Bipode apexsurvey forro rojo</t>
+  </si>
+  <si>
+    <t>Bomba de agua navistar #p935c1</t>
+  </si>
+  <si>
+    <t>Cafetera delonghi</t>
+  </si>
+  <si>
+    <t>Cafetera chefman</t>
+  </si>
+  <si>
+    <t>Cargador de baterias geminis 1 carga lenta</t>
+  </si>
+  <si>
+    <t>Pack dji mini 4k vuela más dron con cámara 4k uhd menos 249 g estabilización en 3 ejes transmisión vídeo a 10 km regreso automático 3 baterías para un tiempo máx vuelo 93 min quickshots *</t>
+  </si>
+  <si>
+    <t>Dji mini 4k dron ultra light 249g</t>
+  </si>
+  <si>
+    <t>Computador de escritorio ghr desktop-uc41406 interl r core tm i5 -2310 cpu 290 ghz 8 gb ram instalada</t>
+  </si>
+  <si>
+    <t>True basic - intel r core tm i5-4440 cpu 3.10 ghz 3.10 ghz</t>
+  </si>
+  <si>
+    <t>Computador de escritorio elitedesk hp intel r core tm i5-7500 cpu 3.40 ghz 3.41 ghz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computador de escritorio hp - intel r core tm i5-8500 cpu 3.00 ghz 16. gb </t>
+  </si>
+  <si>
+    <t>Computador de escritorio hp  - intel r core tm i7-6700 cpu 3.40 ghz 3.40 ghz</t>
+  </si>
+  <si>
+    <t>Thinkcentre vpro intel ® core i7-14700t 1.30 ghz</t>
+  </si>
+  <si>
+    <t>Computadora de escritorio asus truebasix - intel r core tm i7-4790 cpu 3.60 ghz 3.60 ghz</t>
+  </si>
+  <si>
+    <t>Computador de escritorio asus truebasix - intel r core tm i5-4440 cpu 3.10 ghz 3.10 ghz</t>
+  </si>
+  <si>
+    <t>Computador de escritorio elitedesk hp - desktop-eueru2b intel core i5 7500 cpu 3.40 ghz 3.41 ghz 16.0 bg windows 10pro</t>
+  </si>
+  <si>
+    <t>Computador de escritorio acteck -   13th gen intel r core tm i7-13700 cpu 2.10 ghz 32.0 gb</t>
+  </si>
+  <si>
+    <t>Equipo de escritorio hp z240 tower workstation intel i7-6700 3,4 ghz</t>
+  </si>
+  <si>
+    <t>Equipo de escritorio hp elitedesk i5-7500 3,4 ghz</t>
+  </si>
+  <si>
+    <t>Computador de escritorio hp - elitedesk destop-ildml4p intel core i5-8500 cpu 3.00 ghz 3.00 ghz 16.0 gb serial nro. mxl9132ycf</t>
+  </si>
+  <si>
+    <t>Computadora de escritorio - lenovo thinkcentre kminos 13th gen intel core i7 -13700t 1.4 ghz 32. gb 31.6 gb</t>
+  </si>
+  <si>
+    <t>Computador de escritorio hp - elitedesk i5 vpro 7gen</t>
+  </si>
+  <si>
+    <t>Thinkcentre vpro desktop-6kbklfs intel core i7-14700t 1.30 ghz 16 gb</t>
+  </si>
+  <si>
+    <t>Computador de escritorio hp desktop-32ddbi9 intel core i7-4790 cpu 3.600 ghz 3.60 ghz 16 gb</t>
+  </si>
+  <si>
+    <t>Computador de escritorio lenovo i3 thinkcentre desktop-bh4ivdq intel core i3-6100t cpu3.20 ghz 3.19ghz 8 gb</t>
+  </si>
+  <si>
+    <t>Computador de escritorio lenovo  thinkcentre amd ryzen 7 pro 8700ge w/radeon 780m grapichs 3,65 ghz 16, gb</t>
+  </si>
+  <si>
+    <t>Computador de escritorio dell precision 3431 intel</t>
+  </si>
+  <si>
+    <t>Computador dell optiplex 7070 intel i5 vpro 9th gen</t>
+  </si>
+  <si>
+    <t>Computador hp z240 tower workstatiion intel i7-6700 3,4 ghz</t>
+  </si>
+  <si>
+    <t>Computador optiplex dell 7050 k3e0q2b</t>
+  </si>
+  <si>
+    <t>Enfriador de agua marca imbera</t>
+  </si>
+  <si>
+    <t>Gpsmap modelo 65s - marca garmin</t>
+  </si>
+  <si>
+    <t>Gpsmap modelo 65s - marca garmin multiband</t>
+  </si>
+  <si>
+    <t>Impresora multifuncional brother lw25400</t>
+  </si>
+  <si>
+    <t>Impresora epson modelo l300</t>
+  </si>
+  <si>
+    <t>Impresora epson modelo l5590</t>
+  </si>
+  <si>
+    <t>Impresora fotocopiadora aficio mp 5000 ricoh</t>
+  </si>
+  <si>
+    <t>Impresora hp laser jet m1132 mpf</t>
+  </si>
+  <si>
+    <t>Impresora epson l300 planta baja 2</t>
+  </si>
+  <si>
+    <t>Epson l5590 planta baja 2</t>
+  </si>
+  <si>
+    <t>Impresora fotocopiadora sharp mx5070 planta baja 1</t>
+  </si>
+  <si>
+    <t>Impresora hp designjet t120 planta baja 1</t>
+  </si>
+  <si>
+    <t>Impresora ricoh aficio mp161</t>
+  </si>
+  <si>
+    <t>Handheld inkjet printer (impresora manual)</t>
+  </si>
+  <si>
+    <t>Multifuncional sharp para color mx5070v</t>
+  </si>
+  <si>
+    <t>Impresora brother mfc-l310cw</t>
+  </si>
+  <si>
+    <t>Impresora hp officejet 200 mobile printer</t>
+  </si>
+  <si>
+    <t>Laptop dell 12 th gen intel (r) core ™ i3-1215u 16. gb</t>
+  </si>
+  <si>
+    <t>Laptop - lenovo desktop-q2ov32j - intel core ™ i5 10310u cpu 1.70 ghz 2.21 ghz 16 gb</t>
+  </si>
+  <si>
+    <t>Laptop - thinkpad negra desktop - gbnmr53 11th gen intel core ™ i7 1165g7 2.80 ghz 2.80 ghz</t>
+  </si>
+  <si>
+    <t>Laptop - 11th gen intel core i7 - 1165g7 2.8 ghz 2.80 ghz</t>
+  </si>
+  <si>
+    <t>Dell intel core ™ i7 6700 cpu 2.80 ghz 2.90 ghz</t>
+  </si>
+  <si>
+    <t>Laptop  dell negra latitude 7389</t>
+  </si>
+  <si>
+    <t>Linkpad negra</t>
+  </si>
+  <si>
+    <t>Dell latitude 5580 core i7 7ma 16ram/480ssd cargador</t>
+  </si>
+  <si>
+    <t>Thinkpad negra</t>
+  </si>
+  <si>
+    <t>Sin información del modelo</t>
+  </si>
+  <si>
+    <t>Laptop dell negra intel latitude 5400</t>
+  </si>
+  <si>
+    <t>Laptop lenovo ryzen radeon serie 7 (color arena) nueva lapto-073n8i38 amd ryzen 7 5700 u with radeon graphics 1.80 ghz 16 gg</t>
+  </si>
+  <si>
+    <t>Laptop mack book pro</t>
+  </si>
+  <si>
+    <t>Laptop- 11th intel r core tm i7-1165g7 cpu 2.80 ghz 2.80 ghz (descompuesta)</t>
+  </si>
+  <si>
+    <t>Falta informacion de la laptop</t>
+  </si>
+  <si>
+    <t>Adaptador ugreen 90568 7 en 1 usb c a 2usb 3.0 hdmi rj45 sd-tf pd * macbook pro 14&amp;quot; mw2u3e/a chip m4 cpu10 gpu10 16gb 512gb negro espacial *</t>
+  </si>
+  <si>
+    <t>Laptop latitude 5330 dell pantalla 13 " ex: 4123906455  12th gen i7-1265u 32 gb</t>
+  </si>
+  <si>
+    <t>Laptop latitude 5330 dell pantalla 13 " ex 16954803863 12th gen i7-1265u 32 gb</t>
+  </si>
+  <si>
+    <t>Laptop latitude 5330 dell pantalla 13 " ex 21538165143  12th gen i7-1265u 32 gb</t>
+  </si>
+  <si>
+    <t>Laptop latitude 7400 dell 1mcj3ql  intel core i7 -8665u 1,90 ghz 2,11 ghz 16 gb con lector de huella windows 11 pro 23h2</t>
+  </si>
+  <si>
+    <t>Laptop latitude 7400 dell kqv6o0d intel core i7-8665u cpu 1,90 ghz 2,11 ghz 16, gb windows 11 pro 24h2</t>
+  </si>
+  <si>
+    <t>Laptop latitude 3320 dell desktop-jt1v71c</t>
+  </si>
+  <si>
+    <t>Mesa redonda</t>
+  </si>
+  <si>
+    <t>Mesa rectangular</t>
+  </si>
+  <si>
+    <t>Mesa redonda comedor</t>
+  </si>
+  <si>
+    <t>Mesa de plástico plegable negra</t>
+  </si>
+  <si>
+    <t>Mesa de madera plegable blanca pequeña</t>
+  </si>
+  <si>
+    <t>Mesa de madera negra grande sala de juntas</t>
+  </si>
+  <si>
+    <t>Microondas marca eco gris</t>
+  </si>
+  <si>
+    <t>Microondas marca lg blanco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microondas marca midea </t>
+  </si>
+  <si>
+    <t>Monitor thinkvision  22" (57cm) base de vidrio conector display port</t>
+  </si>
+  <si>
+    <t>Monitor samsung</t>
+  </si>
+  <si>
+    <t>Monitor viewsonyc vg2427 conector vga</t>
+  </si>
+  <si>
+    <t>Monitor hp marco negro</t>
+  </si>
+  <si>
+    <t>Monitor hp marco gris</t>
+  </si>
+  <si>
+    <t>Monitor hp elite display e241i base en vidrio cuadrada</t>
+  </si>
+  <si>
+    <t>Monitor hp elite display e24</t>
+  </si>
+  <si>
+    <t>Monitor samsung s22e310</t>
+  </si>
+  <si>
+    <t>Monitor z24i</t>
+  </si>
+  <si>
+    <t>Monitor acteck</t>
+  </si>
+  <si>
+    <t>Monitor prosistema curvo 32"</t>
+  </si>
+  <si>
+    <t>Monitor marca vedd 24" cpa01</t>
+  </si>
+  <si>
+    <t>Monitor marca fyhxele curvo 32"</t>
+  </si>
+  <si>
+    <t>Monitor hp compaq la 2405x</t>
+  </si>
+  <si>
+    <t>Monitor marca 10c color crema</t>
+  </si>
+  <si>
+    <t>Monitor hp pro display p221</t>
+  </si>
+  <si>
+    <t>Monitor hp elite displaye222 27"</t>
+  </si>
+  <si>
+    <t>Monitor hp elite display e222 -  22" (57 cm) base en vidrio lit122</t>
+  </si>
+  <si>
+    <t>Monitor curvo led iotwe 32 pulgadas base de metal en v</t>
+  </si>
+  <si>
+    <t>Monitor 32" led iotwe oled negro</t>
+  </si>
+  <si>
+    <t>Monitor vedd negro 23" (58 cm) base en v metalica conector hdmi</t>
+  </si>
+  <si>
+    <t>Monitor thinkvision  27" lenovo base de vidrio</t>
+  </si>
+  <si>
+    <t>Monitor thinkvision  27" p27h-20  lenovo base de vidrio</t>
+  </si>
+  <si>
+    <t>Nevera lg 315 lt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevera minibar </t>
+  </si>
+  <si>
+    <t>Nevera 366 l marca midea</t>
+  </si>
+  <si>
+    <t>Nivel fijo marca leica modelo na324</t>
+  </si>
+  <si>
+    <t>Papelera</t>
+  </si>
+  <si>
+    <t>Disco duro portatil</t>
+  </si>
+  <si>
+    <t>Prismas en bolso amarillo</t>
+  </si>
+  <si>
+    <t>Prismas en bolso rojo</t>
+  </si>
+  <si>
+    <t>Radios baofeng bf-888h 2  unidades</t>
+  </si>
+  <si>
+    <t>Radios baofeng bf-888s 2  unidades</t>
+  </si>
+  <si>
+    <t>Silla negro con blanco</t>
+  </si>
+  <si>
+    <t>Silla gris con blanco</t>
+  </si>
+  <si>
+    <t>Silla gris con ruedas</t>
+  </si>
+  <si>
+    <t>Silla gris con blanco con ruedas</t>
+  </si>
+  <si>
+    <t>Silla negra con ruedas</t>
+  </si>
+  <si>
+    <t>Bancada 3 sillas juntas  sin ruedas</t>
+  </si>
+  <si>
+    <t>Silla negra fija</t>
+  </si>
+  <si>
+    <t>Silla negra acolchada con ruedas</t>
+  </si>
+  <si>
+    <t>Silla negra acolchada</t>
+  </si>
+  <si>
+    <t>Silla negra con blanco con ruedas</t>
+  </si>
+  <si>
+    <t>Silla gris fija</t>
+  </si>
+  <si>
+    <t>Silla negro con blanco con ruedas</t>
+  </si>
+  <si>
+    <t>Silla negra con ruedas acolchada</t>
+  </si>
+  <si>
+    <t>Silla negra con ruedas con cabecera</t>
+  </si>
+  <si>
+    <t>Silla negra alta con ruedas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silla gris con blanco con ruedas </t>
+  </si>
+  <si>
+    <t>Silla gris con ruedas con reposa cabeza</t>
+  </si>
+  <si>
+    <t>Taburete  negro alto</t>
+  </si>
+  <si>
+    <t>Sofa gris dos puestos</t>
+  </si>
+  <si>
+    <t>Televisor smart sharp</t>
+  </si>
+  <si>
+    <t>Tev000002 - lg uhd 70ur87 ai thinq hdr10 pro 70 pulgadas 177 cm</t>
+  </si>
+  <si>
+    <t>Lg 43ur7800psb</t>
+  </si>
+  <si>
+    <t>Equipo topografico estación total sokkia im 50 serial: 1z018297</t>
+  </si>
+  <si>
+    <t>Equipo topografico estación total kolida cts 632r10</t>
+  </si>
+  <si>
+    <t>Equipo topografico estación total topcon  topbasic modelo gm50 1y 017925</t>
+  </si>
+  <si>
+    <t>Equipo topografico estación total bosh</t>
+  </si>
+  <si>
+    <t>Equipo topografico estación total sokkia im 50 series 1n005815</t>
+  </si>
+  <si>
+    <t>Equipo topografico estación total sokkia im 50 series 1n002206</t>
+  </si>
+  <si>
+    <t>Equipo topografico estación total sokkia cx-52  serial tz2185</t>
+  </si>
+  <si>
+    <t>5 tripies de aluminio - 2 tripies de metal</t>
+  </si>
+  <si>
+    <t>1 tripie de madera</t>
+  </si>
+  <si>
+    <t>1 tripie apexsurvey</t>
+  </si>
+  <si>
+    <t>Ventilador de pedestal 1</t>
+  </si>
+  <si>
+    <t>Ventilador de pedestal 2</t>
+  </si>
+  <si>
+    <t>Telefono  celular oppo cph2385</t>
+  </si>
+  <si>
+    <t>Teléfono celular xiaomi redmi 14c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dji mini 4k dron </t>
+  </si>
+  <si>
+    <t>con cámara 4k uhd menos de 249 g estabilización en 3 ejes transmisión de vídeo a 10 km regreso automático resistencia al viento 1 batería para un tiempo máx. de vuelo de 31 min vuelo inteligente *</t>
   </si>
 </sst>
 </file>
@@ -4217,7 +4810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="253">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4903,6 +5496,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13393,25 +13992,25 @@
         <v>1</v>
       </c>
       <c r="F261" s="249" t="s">
+        <v>937</v>
+      </c>
+      <c r="G261" s="250" t="s">
         <v>938</v>
       </c>
-      <c r="G261" s="250" t="s">
+      <c r="H261" s="250" t="s">
         <v>939</v>
-      </c>
-      <c r="H261" s="250" t="s">
-        <v>940</v>
       </c>
       <c r="I261" s="247"/>
       <c r="J261" s="250" t="s">
+        <v>940</v>
+      </c>
+      <c r="K261" s="250" t="s">
         <v>941</v>
-      </c>
-      <c r="K261" s="250" t="s">
-        <v>942</v>
       </c>
       <c r="L261" s="247"/>
       <c r="M261" s="247"/>
       <c r="N261" s="251" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="O261" s="252"/>
     </row>
@@ -13840,10 +14439,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961BF3DA-A19A-46A2-9EA9-24694047B144}">
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -13851,9 +14450,10 @@
     <col min="3" max="3" width="34.19921875" customWidth="1"/>
     <col min="4" max="4" width="36.09765625" customWidth="1"/>
     <col min="5" max="5" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="23.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -13861,24 +14461,21 @@
         <v>15</v>
       </c>
       <c r="C1" s="223" t="s">
-        <v>16</v>
+        <v>1055</v>
       </c>
       <c r="D1" s="224"/>
-      <c r="E1" s="223" t="str">
-        <f>PROPER('Activos fijos'!J3)</f>
-        <v>Oficina Planta Alta</v>
-      </c>
-      <c r="F1" s="223" t="str">
-        <f>PROPER('Activos fijos'!K3)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E1" t="s">
+        <v>944</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1020</v>
       </c>
       <c r="G1" s="225"/>
-      <c r="I1" t="e" cm="1">
-        <f t="array" aca="1" ref="I1" ca="1">REPLACE(LOWER(B1),1,1,UPPER(_xludf.LEFT(B1,1)))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -13886,24 +14483,18 @@
         <v>19</v>
       </c>
       <c r="C2" s="227" t="s">
-        <v>20</v>
+        <v>1056</v>
       </c>
       <c r="D2" s="228"/>
-      <c r="E2" s="223" t="str">
-        <f>PROPER('Activos fijos'!J4)</f>
-        <v>Diana Pineda</v>
-      </c>
-      <c r="F2" s="223" t="str">
-        <f>PROPER('Activos fijos'!K4)</f>
-        <v xml:space="preserve">Recepcion </v>
+      <c r="E2" t="s">
+        <v>945</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1021</v>
       </c>
       <c r="G2" s="41"/>
-      <c r="I2" t="e" cm="1">
-        <f t="array" aca="1" ref="I2" ca="1">UPPER(_xludf.LEFT(C1,1))</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -13911,20 +14502,18 @@
         <v>23</v>
       </c>
       <c r="C3" s="223" t="s">
-        <v>24</v>
+        <v>1057</v>
       </c>
       <c r="D3" s="224"/>
-      <c r="E3" s="223" t="str">
-        <f>PROPER('Activos fijos'!J5)</f>
-        <v>Citlaly Ramirez</v>
-      </c>
-      <c r="F3" s="223" t="str">
-        <f>PROPER('Activos fijos'!K5)</f>
-        <v>Administracion</v>
+      <c r="E3" t="s">
+        <v>946</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1022</v>
       </c>
       <c r="G3" s="225"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13932,20 +14521,18 @@
         <v>27</v>
       </c>
       <c r="C4" s="227" t="s">
-        <v>20</v>
+        <v>1056</v>
       </c>
       <c r="D4" s="228"/>
-      <c r="E4" s="223" t="str">
-        <f>PROPER('Activos fijos'!J6)</f>
-        <v>Berenice Perez</v>
-      </c>
-      <c r="F4" s="223" t="str">
-        <f>PROPER('Activos fijos'!K6)</f>
-        <v>Oficina Ingenieros Planta Alta</v>
+      <c r="E4" t="s">
+        <v>947</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1023</v>
       </c>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -13953,20 +14540,18 @@
         <v>30</v>
       </c>
       <c r="C5" s="223" t="s">
-        <v>31</v>
+        <v>1058</v>
       </c>
       <c r="D5" s="224"/>
-      <c r="E5" s="223" t="str">
-        <f>PROPER('Activos fijos'!J7)</f>
-        <v>Sala De Juntas Planta Alta</v>
-      </c>
-      <c r="F5" s="223" t="str">
-        <f>PROPER('Activos fijos'!K7)</f>
-        <v/>
+      <c r="E5" t="s">
+        <v>948</v>
+      </c>
+      <c r="F5" t="s">
+        <v>958</v>
       </c>
       <c r="G5" s="225"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13974,20 +14559,18 @@
         <v>33</v>
       </c>
       <c r="C6" s="227" t="s">
-        <v>16</v>
+        <v>1055</v>
       </c>
       <c r="D6" s="228"/>
-      <c r="E6" s="223" t="str">
-        <f>PROPER('Activos fijos'!J8)</f>
-        <v>Oficina Juan Padilla</v>
-      </c>
-      <c r="F6" s="223" t="str">
-        <f>PROPER('Activos fijos'!K8)</f>
-        <v/>
+      <c r="E6" t="s">
+        <v>949</v>
+      </c>
+      <c r="F6" t="s">
+        <v>958</v>
       </c>
       <c r="G6" s="41"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -13995,20 +14578,18 @@
         <v>35</v>
       </c>
       <c r="C7" s="223" t="s">
-        <v>36</v>
+        <v>1059</v>
       </c>
       <c r="D7" s="224"/>
-      <c r="E7" s="223" t="str">
-        <f>PROPER('Activos fijos'!J9)</f>
-        <v>Oficina Gildardo Padilla</v>
-      </c>
-      <c r="F7" s="223" t="str">
-        <f>PROPER('Activos fijos'!K9)</f>
-        <v/>
+      <c r="E7" t="s">
+        <v>950</v>
+      </c>
+      <c r="F7" t="s">
+        <v>958</v>
       </c>
       <c r="G7" s="225"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -14016,20 +14597,18 @@
         <v>38</v>
       </c>
       <c r="C8" s="227" t="s">
-        <v>39</v>
+        <v>1060</v>
       </c>
       <c r="D8" s="228"/>
-      <c r="E8" s="223" t="str">
-        <f>PROPER('Activos fijos'!J10)</f>
-        <v>Bodega Máquinas</v>
-      </c>
-      <c r="F8" s="223" t="str">
-        <f>PROPER('Activos fijos'!K10)</f>
-        <v/>
+      <c r="E8" t="s">
+        <v>951</v>
+      </c>
+      <c r="F8" t="s">
+        <v>958</v>
       </c>
       <c r="G8" s="41"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -14037,20 +14616,18 @@
         <v>41</v>
       </c>
       <c r="C9" s="223" t="s">
-        <v>42</v>
+        <v>1061</v>
       </c>
       <c r="D9" s="224"/>
-      <c r="E9" s="223" t="str">
-        <f>PROPER('Activos fijos'!J11)</f>
-        <v>Planta Baja</v>
-      </c>
-      <c r="F9" s="223" t="str">
-        <f>PROPER('Activos fijos'!K11)</f>
-        <v/>
+      <c r="E9" t="s">
+        <v>952</v>
+      </c>
+      <c r="F9" t="s">
+        <v>958</v>
       </c>
       <c r="G9" s="229"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -14058,20 +14635,18 @@
         <v>44</v>
       </c>
       <c r="C10" s="227" t="s">
-        <v>45</v>
+        <v>1062</v>
       </c>
       <c r="D10" s="228"/>
-      <c r="E10" s="223" t="str">
-        <f>PROPER('Activos fijos'!J12)</f>
-        <v>Planta Baja</v>
-      </c>
-      <c r="F10" s="223" t="str">
-        <f>PROPER('Activos fijos'!K12)</f>
-        <v/>
+      <c r="E10" t="s">
+        <v>952</v>
+      </c>
+      <c r="F10" t="s">
+        <v>958</v>
       </c>
       <c r="G10" s="230"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -14079,20 +14654,18 @@
         <v>46</v>
       </c>
       <c r="C11" s="223" t="s">
-        <v>47</v>
+        <v>1063</v>
       </c>
       <c r="D11" s="224"/>
-      <c r="E11" s="223" t="str">
-        <f>PROPER('Activos fijos'!J13)</f>
-        <v>Planta Baja</v>
-      </c>
-      <c r="F11" s="223" t="str">
-        <f>PROPER('Activos fijos'!K13)</f>
-        <v/>
+      <c r="E11" t="s">
+        <v>952</v>
+      </c>
+      <c r="F11" t="s">
+        <v>958</v>
       </c>
       <c r="G11" s="229"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -14100,20 +14673,18 @@
         <v>48</v>
       </c>
       <c r="C12" s="227" t="s">
-        <v>49</v>
+        <v>1064</v>
       </c>
       <c r="D12" s="228"/>
-      <c r="E12" s="223" t="str">
-        <f>PROPER('Activos fijos'!J14)</f>
-        <v>Oficina Juan Padilla</v>
-      </c>
-      <c r="F12" s="223" t="str">
-        <f>PROPER('Activos fijos'!K14)</f>
-        <v/>
+      <c r="E12" t="s">
+        <v>949</v>
+      </c>
+      <c r="F12" t="s">
+        <v>958</v>
       </c>
       <c r="G12" s="230"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -14121,20 +14692,18 @@
         <v>50</v>
       </c>
       <c r="C13" s="232" t="s">
-        <v>51</v>
+        <v>1065</v>
       </c>
       <c r="D13" s="224"/>
-      <c r="E13" s="223" t="str">
-        <f>PROPER('Activos fijos'!J15)</f>
-        <v>Alma Esparza</v>
-      </c>
-      <c r="F13" s="223" t="str">
-        <f>PROPER('Activos fijos'!K15)</f>
-        <v/>
+      <c r="E13" t="s">
+        <v>953</v>
+      </c>
+      <c r="F13" t="s">
+        <v>958</v>
       </c>
       <c r="G13" s="229"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -14142,22 +14711,18 @@
         <v>53</v>
       </c>
       <c r="C14" s="234" t="s">
-        <v>54</v>
+        <v>1066</v>
       </c>
       <c r="D14" s="228"/>
-      <c r="E14" s="223" t="str">
-        <f>PROPER('Activos fijos'!J16)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F14" s="223" t="str">
-        <f>PROPER('Activos fijos'!K16)</f>
-        <v>Jair Firmo Hoja De Información Que Estan En Tocumbo</v>
-      </c>
-      <c r="G14" s="235">
-        <v>45736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>954</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G14" s="235"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -14165,22 +14730,18 @@
         <v>57</v>
       </c>
       <c r="C15" s="232" t="s">
-        <v>58</v>
+        <v>1067</v>
       </c>
       <c r="D15" s="224"/>
-      <c r="E15" s="223" t="str">
-        <f>PROPER('Activos fijos'!J17)</f>
-        <v>Jose Ivan Romero</v>
-      </c>
-      <c r="F15" s="223" t="str">
-        <f>PROPER('Activos fijos'!K17)</f>
-        <v/>
-      </c>
-      <c r="G15" s="236">
-        <v>45736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>955</v>
+      </c>
+      <c r="F15" t="s">
+        <v>958</v>
+      </c>
+      <c r="G15" s="236"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -14188,16 +14749,14 @@
         <v>60</v>
       </c>
       <c r="C16" s="234" t="s">
-        <v>61</v>
+        <v>1068</v>
       </c>
       <c r="D16" s="228"/>
-      <c r="E16" s="223" t="str">
-        <f>PROPER('Activos fijos'!J18)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F16" s="223" t="str">
-        <f>PROPER('Activos fijos'!K18)</f>
-        <v>Campo</v>
+      <c r="E16" t="s">
+        <v>956</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1025</v>
       </c>
       <c r="G16" s="235"/>
     </row>
@@ -14209,16 +14768,14 @@
         <v>64</v>
       </c>
       <c r="C17" s="232" t="s">
-        <v>65</v>
+        <v>1069</v>
       </c>
       <c r="D17" s="224"/>
-      <c r="E17" s="223" t="str">
-        <f>PROPER('Activos fijos'!J19)</f>
-        <v>Cocina Planta Alta</v>
-      </c>
-      <c r="F17" s="223" t="str">
-        <f>PROPER('Activos fijos'!K19)</f>
-        <v/>
+      <c r="E17" t="s">
+        <v>957</v>
+      </c>
+      <c r="F17" t="s">
+        <v>958</v>
       </c>
       <c r="G17" s="229"/>
     </row>
@@ -14230,20 +14787,16 @@
         <v>67</v>
       </c>
       <c r="C18" s="234" t="s">
-        <v>68</v>
+        <v>1070</v>
       </c>
       <c r="D18" s="228"/>
-      <c r="E18" s="223" t="str">
-        <f>PROPER('Activos fijos'!J20)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F18" s="223" t="str">
-        <f>PROPER('Activos fijos'!K20)</f>
-        <v>Campo</v>
-      </c>
-      <c r="G18" s="237">
-        <v>45762</v>
-      </c>
+      <c r="E18" t="s">
+        <v>956</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G18" s="237"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -14253,18 +14806,16 @@
         <v>71</v>
       </c>
       <c r="C19" s="232" t="s">
-        <v>72</v>
+        <v>1071</v>
       </c>
       <c r="D19" s="224" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="223" t="str">
-        <f>PROPER('Activos fijos'!J21)</f>
-        <v/>
-      </c>
-      <c r="F19" s="223" t="str">
-        <f>PROPER('Activos fijos'!K21)</f>
-        <v/>
+      <c r="E19" t="s">
+        <v>958</v>
+      </c>
+      <c r="F19" t="s">
+        <v>958</v>
       </c>
       <c r="G19" s="225"/>
     </row>
@@ -14276,16 +14827,14 @@
         <v>74</v>
       </c>
       <c r="C20" s="234" t="s">
-        <v>75</v>
+        <v>1072</v>
       </c>
       <c r="D20" s="228"/>
-      <c r="E20" s="223" t="str">
-        <f>PROPER('Activos fijos'!J22)</f>
-        <v>Oficina De Juntas</v>
-      </c>
-      <c r="F20" s="223" t="str">
-        <f>PROPER('Activos fijos'!K22)</f>
-        <v/>
+      <c r="E20" t="s">
+        <v>959</v>
+      </c>
+      <c r="F20" t="s">
+        <v>958</v>
       </c>
       <c r="G20" s="41"/>
     </row>
@@ -14297,16 +14846,14 @@
         <v>77</v>
       </c>
       <c r="C21" s="232" t="s">
-        <v>78</v>
+        <v>1073</v>
       </c>
       <c r="D21" s="224"/>
-      <c r="E21" s="223" t="str">
-        <f>PROPER('Activos fijos'!J23)</f>
-        <v>Cocina Planta Alta</v>
-      </c>
-      <c r="F21" s="223" t="str">
-        <f>PROPER('Activos fijos'!K23)</f>
-        <v/>
+      <c r="E21" t="s">
+        <v>957</v>
+      </c>
+      <c r="F21" t="s">
+        <v>958</v>
       </c>
       <c r="G21" s="229"/>
     </row>
@@ -14318,18 +14865,16 @@
         <v>80</v>
       </c>
       <c r="C22" s="234" t="s">
-        <v>81</v>
+        <v>1074</v>
       </c>
       <c r="D22" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="223" t="str">
-        <f>PROPER('Activos fijos'!J24)</f>
-        <v/>
-      </c>
-      <c r="F22" s="223" t="str">
-        <f>PROPER('Activos fijos'!K24)</f>
-        <v/>
+      <c r="E22" t="s">
+        <v>958</v>
+      </c>
+      <c r="F22" t="s">
+        <v>958</v>
       </c>
       <c r="G22" s="41"/>
     </row>
@@ -14341,18 +14886,18 @@
         <v>86</v>
       </c>
       <c r="C23" s="238" t="s">
-        <v>87</v>
+        <v>1217</v>
       </c>
       <c r="D23" s="224"/>
-      <c r="E23" s="223" t="str">
-        <f>PROPER('Activos fijos'!J25)</f>
-        <v>Obra Tzitzio</v>
-      </c>
-      <c r="F23" s="223" t="str">
-        <f>PROPER('Activos fijos'!K25)</f>
-        <v/>
-      </c>
-      <c r="G23" s="225"/>
+      <c r="E23" t="s">
+        <v>960</v>
+      </c>
+      <c r="F23" t="s">
+        <v>958</v>
+      </c>
+      <c r="G23" s="225" t="s">
+        <v>1218</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -14362,16 +14907,14 @@
         <v>90</v>
       </c>
       <c r="C24" s="234" t="s">
-        <v>91</v>
+        <v>1075</v>
       </c>
       <c r="D24" s="228"/>
-      <c r="E24" s="223" t="str">
-        <f>PROPER('Activos fijos'!J26)</f>
-        <v>Segmento 4</v>
-      </c>
-      <c r="F24" s="223" t="str">
-        <f>PROPER('Activos fijos'!K26)</f>
-        <v/>
+      <c r="E24" t="s">
+        <v>961</v>
+      </c>
+      <c r="F24" t="s">
+        <v>958</v>
       </c>
       <c r="G24" s="235"/>
     </row>
@@ -14383,20 +14926,18 @@
         <v>93</v>
       </c>
       <c r="C25" s="232" t="s">
-        <v>94</v>
+        <v>1076</v>
       </c>
       <c r="D25" s="224"/>
-      <c r="E25" s="223" t="str">
-        <f>PROPER('Activos fijos'!J27)</f>
-        <v/>
-      </c>
-      <c r="F25" s="223" t="str">
-        <f>PROPER('Activos fijos'!K27)</f>
-        <v/>
+      <c r="E25" t="s">
+        <v>958</v>
+      </c>
+      <c r="F25" t="s">
+        <v>958</v>
       </c>
       <c r="G25" s="236"/>
     </row>
-    <row r="26" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -14404,21 +14945,19 @@
         <v>95</v>
       </c>
       <c r="C26" s="234" t="s">
-        <v>96</v>
+        <v>1077</v>
       </c>
       <c r="D26" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="223" t="str">
-        <f>PROPER('Activos fijos'!J28)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F26" s="223" t="str">
-        <f>PROPER('Activos fijos'!K28)</f>
-        <v/>
+      <c r="E26" t="s">
+        <v>954</v>
+      </c>
+      <c r="F26" t="s">
+        <v>958</v>
       </c>
       <c r="G26" s="230" t="s">
-        <v>98</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
@@ -14429,18 +14968,16 @@
         <v>99</v>
       </c>
       <c r="C27" s="232" t="s">
-        <v>100</v>
+        <v>1078</v>
       </c>
       <c r="D27" s="225" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="223" t="str">
-        <f>PROPER('Activos fijos'!J29)</f>
-        <v>Diana Pineda</v>
-      </c>
-      <c r="F27" s="223" t="str">
-        <f>PROPER('Activos fijos'!K29)</f>
-        <v xml:space="preserve">Recepcion </v>
+      <c r="E27" t="s">
+        <v>945</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1021</v>
       </c>
       <c r="G27" s="229" t="s">
         <v>102</v>
@@ -14454,18 +14991,16 @@
         <v>103</v>
       </c>
       <c r="C28" s="234" t="s">
-        <v>104</v>
+        <v>1079</v>
       </c>
       <c r="D28" s="239" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="223" t="str">
-        <f>PROPER('Activos fijos'!J30)</f>
-        <v>Alma Esparza</v>
-      </c>
-      <c r="F28" s="223" t="str">
-        <f>PROPER('Activos fijos'!K30)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E28" t="s">
+        <v>953</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1020</v>
       </c>
       <c r="G28" s="230" t="s">
         <v>106</v>
@@ -14479,18 +15014,16 @@
         <v>107</v>
       </c>
       <c r="C29" s="232" t="s">
-        <v>108</v>
+        <v>1080</v>
       </c>
       <c r="D29" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="223" t="str">
-        <f>PROPER('Activos fijos'!J31)</f>
-        <v>Jaime Garcia Lobato</v>
-      </c>
-      <c r="F29" s="223" t="str">
-        <f>PROPER('Activos fijos'!K31)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E29" t="s">
+        <v>962</v>
+      </c>
+      <c r="F29" t="s">
+        <v>980</v>
       </c>
       <c r="G29" s="229"/>
     </row>
@@ -14502,18 +15035,16 @@
         <v>112</v>
       </c>
       <c r="C30" s="227" t="s">
-        <v>113</v>
+        <v>1081</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="223" t="str">
-        <f>PROPER('Activos fijos'!J32)</f>
-        <v>Artemio</v>
-      </c>
-      <c r="F30" s="223" t="str">
-        <f>PROPER('Activos fijos'!K32)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E30" t="s">
+        <v>963</v>
+      </c>
+      <c r="F30" t="s">
+        <v>980</v>
       </c>
       <c r="G30" s="230"/>
     </row>
@@ -14525,18 +15056,16 @@
         <v>116</v>
       </c>
       <c r="C31" s="223" t="s">
-        <v>117</v>
+        <v>1082</v>
       </c>
       <c r="D31" s="225" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="223" t="str">
-        <f>PROPER('Activos fijos'!J33)</f>
-        <v>Berenice Perez</v>
-      </c>
-      <c r="F31" s="223" t="str">
-        <f>PROPER('Activos fijos'!K33)</f>
-        <v>Oficina Ingenieros Planta Alta</v>
+      <c r="E31" t="s">
+        <v>947</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1023</v>
       </c>
       <c r="G31" s="229" t="s">
         <v>119</v>
@@ -14550,18 +15079,16 @@
         <v>120</v>
       </c>
       <c r="C32" s="227" t="s">
-        <v>121</v>
+        <v>1083</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="223" t="str">
-        <f>PROPER('Activos fijos'!J34)</f>
-        <v>Efrain Morales Gutierrez</v>
-      </c>
-      <c r="F32" s="223" t="str">
-        <f>PROPER('Activos fijos'!K34)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E32" t="s">
+        <v>964</v>
+      </c>
+      <c r="F32" t="s">
+        <v>980</v>
       </c>
       <c r="G32" s="230" t="s">
         <v>124</v>
@@ -14575,18 +15102,16 @@
         <v>125</v>
       </c>
       <c r="C33" s="223" t="s">
-        <v>126</v>
+        <v>1084</v>
       </c>
       <c r="D33" s="225" t="s">
         <v>127</v>
       </c>
-      <c r="E33" s="223" t="str">
-        <f>PROPER('Activos fijos'!J35)</f>
-        <v>Yamileth</v>
-      </c>
-      <c r="F33" s="223" t="str">
-        <f>PROPER('Activos fijos'!K35)</f>
-        <v>Auxiliar De Administración Planta Baja</v>
+      <c r="E33" t="s">
+        <v>965</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1026</v>
       </c>
       <c r="G33" s="229"/>
     </row>
@@ -14598,18 +15123,16 @@
         <v>130</v>
       </c>
       <c r="C34" s="227" t="s">
-        <v>131</v>
+        <v>1085</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="223" t="str">
-        <f>PROPER('Activos fijos'!J36)</f>
-        <v>Cesar Bracamonte</v>
-      </c>
-      <c r="F34" s="223" t="str">
-        <f>PROPER('Activos fijos'!K36)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E34" t="s">
+        <v>966</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1020</v>
       </c>
       <c r="G34" s="230" t="s">
         <v>134</v>
@@ -14623,18 +15146,16 @@
         <v>135</v>
       </c>
       <c r="C35" s="223" t="s">
-        <v>136</v>
+        <v>1086</v>
       </c>
       <c r="D35" s="225" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="223" t="str">
-        <f>PROPER('Activos fijos'!J37)</f>
-        <v>Indra Rodriguez Garcia</v>
-      </c>
-      <c r="F35" s="223" t="str">
-        <f>PROPER('Activos fijos'!K37)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E35" t="s">
+        <v>967</v>
+      </c>
+      <c r="F35" t="s">
+        <v>980</v>
       </c>
       <c r="G35" s="229" t="s">
         <v>139</v>
@@ -14648,21 +15169,19 @@
         <v>140</v>
       </c>
       <c r="C36" s="227" t="s">
-        <v>141</v>
+        <v>1087</v>
       </c>
       <c r="D36" s="239" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="223" t="str">
-        <f>PROPER('Activos fijos'!J38)</f>
-        <v>Fernando</v>
-      </c>
-      <c r="F36" s="223" t="str">
-        <f>PROPER('Activos fijos'!K38)</f>
-        <v>Ingenieros Planta Baja</v>
-      </c>
-      <c r="G36" s="230" t="s">
-        <v>144</v>
+      <c r="E36" t="s">
+        <v>968</v>
+      </c>
+      <c r="F36" t="s">
+        <v>980</v>
+      </c>
+      <c r="G36" s="253" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -14673,16 +15192,14 @@
         <v>145</v>
       </c>
       <c r="C37" s="223" t="s">
-        <v>146</v>
+        <v>1088</v>
       </c>
       <c r="D37" s="224"/>
-      <c r="E37" s="223" t="str">
-        <f>PROPER('Activos fijos'!J39)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F37" s="223" t="str">
-        <f>PROPER('Activos fijos'!K39)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E37" t="s">
+        <v>954</v>
+      </c>
+      <c r="F37" t="s">
+        <v>980</v>
       </c>
       <c r="G37" s="229"/>
     </row>
@@ -14694,18 +15211,16 @@
         <v>147</v>
       </c>
       <c r="C38" s="227" t="s">
-        <v>148</v>
+        <v>1089</v>
       </c>
       <c r="D38" s="239" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="223" t="str">
-        <f>PROPER('Activos fijos'!J40)</f>
-        <v>Alejandro</v>
-      </c>
-      <c r="F38" s="223" t="str">
-        <f>PROPER('Activos fijos'!K40)</f>
-        <v>Auxiliar De Administración</v>
+      <c r="E38" t="s">
+        <v>969</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1027</v>
       </c>
       <c r="G38" s="230"/>
     </row>
@@ -14717,18 +15232,16 @@
         <v>152</v>
       </c>
       <c r="C39" s="223" t="s">
-        <v>153</v>
+        <v>1090</v>
       </c>
       <c r="D39" s="243" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="223" t="str">
-        <f>PROPER('Activos fijos'!J41)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F39" s="223" t="str">
-        <f>PROPER('Activos fijos'!K41)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E39" t="s">
+        <v>956</v>
+      </c>
+      <c r="F39" t="s">
+        <v>980</v>
       </c>
       <c r="G39" s="241"/>
     </row>
@@ -14740,16 +15253,14 @@
         <v>155</v>
       </c>
       <c r="C40" s="227" t="s">
-        <v>156</v>
+        <v>1091</v>
       </c>
       <c r="D40" s="228"/>
-      <c r="E40" s="223" t="str">
-        <f>PROPER('Activos fijos'!J42)</f>
-        <v>Raul</v>
-      </c>
-      <c r="F40" s="223" t="str">
-        <f>PROPER('Activos fijos'!K42)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E40" t="s">
+        <v>970</v>
+      </c>
+      <c r="F40" t="s">
+        <v>980</v>
       </c>
       <c r="G40" s="242"/>
     </row>
@@ -14761,18 +15272,16 @@
         <v>158</v>
       </c>
       <c r="C41" s="223" t="s">
-        <v>159</v>
+        <v>1092</v>
       </c>
       <c r="D41" s="225" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="223" t="str">
-        <f>PROPER('Activos fijos'!J43)</f>
-        <v>Alan Frias</v>
-      </c>
-      <c r="F41" s="223" t="str">
-        <f>PROPER('Activos fijos'!K43)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E41" t="s">
+        <v>971</v>
+      </c>
+      <c r="F41" t="s">
+        <v>980</v>
       </c>
       <c r="G41" s="229" t="s">
         <v>162</v>
@@ -14786,18 +15295,16 @@
         <v>163</v>
       </c>
       <c r="C42" s="227" t="s">
-        <v>164</v>
+        <v>1093</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="E42" s="223" t="str">
-        <f>PROPER('Activos fijos'!J44)</f>
-        <v>Servidor De Contabilidad</v>
-      </c>
-      <c r="F42" s="223" t="str">
-        <f>PROPER('Activos fijos'!K44)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E42" t="s">
+        <v>972</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1020</v>
       </c>
       <c r="G42" s="230" t="s">
         <v>167</v>
@@ -14811,18 +15318,16 @@
         <v>168</v>
       </c>
       <c r="C43" s="223" t="s">
-        <v>169</v>
+        <v>1094</v>
       </c>
       <c r="D43" s="225" t="s">
         <v>170</v>
       </c>
-      <c r="E43" s="223" t="str">
-        <f>PROPER('Activos fijos'!J45)</f>
-        <v/>
-      </c>
-      <c r="F43" s="223" t="str">
-        <f>PROPER('Activos fijos'!K45)</f>
-        <v/>
+      <c r="E43" t="s">
+        <v>958</v>
+      </c>
+      <c r="F43" t="s">
+        <v>958</v>
       </c>
       <c r="G43" s="229" t="s">
         <v>171</v>
@@ -14836,18 +15341,16 @@
         <v>173</v>
       </c>
       <c r="C44" s="227" t="s">
-        <v>174</v>
+        <v>1095</v>
       </c>
       <c r="D44" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="223" t="str">
-        <f>PROPER('Activos fijos'!J46)</f>
-        <v>Adriana Gonzalez</v>
-      </c>
-      <c r="F44" s="223" t="str">
-        <f>PROPER('Activos fijos'!K46)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E44" t="s">
+        <v>973</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1020</v>
       </c>
       <c r="G44" s="230" t="s">
         <v>177</v>
@@ -14861,16 +15364,14 @@
         <v>178</v>
       </c>
       <c r="C45" s="223" t="s">
-        <v>179</v>
+        <v>1096</v>
       </c>
       <c r="D45" s="224"/>
-      <c r="E45" s="223" t="str">
-        <f>PROPER('Activos fijos'!J47)</f>
-        <v>Citlaly Ramirez</v>
-      </c>
-      <c r="F45" s="223" t="str">
-        <f>PROPER('Activos fijos'!K47)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E45" t="s">
+        <v>946</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1020</v>
       </c>
       <c r="G45" s="229" t="s">
         <v>167</v>
@@ -14884,16 +15385,14 @@
         <v>180</v>
       </c>
       <c r="C46" s="227" t="s">
-        <v>181</v>
+        <v>1097</v>
       </c>
       <c r="D46" s="228"/>
-      <c r="E46" s="223" t="str">
-        <f>PROPER('Activos fijos'!J48)</f>
-        <v>Dante Garcia</v>
-      </c>
-      <c r="F46" s="223" t="str">
-        <f>PROPER('Activos fijos'!K48)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E46" t="s">
+        <v>974</v>
+      </c>
+      <c r="F46" t="s">
+        <v>980</v>
       </c>
       <c r="G46" s="230" t="s">
         <v>183</v>
@@ -14907,16 +15406,14 @@
         <v>184</v>
       </c>
       <c r="C47" s="223" t="s">
-        <v>181</v>
+        <v>1097</v>
       </c>
       <c r="D47" s="224"/>
-      <c r="E47" s="223" t="str">
-        <f>PROPER('Activos fijos'!J49)</f>
-        <v>Silvia Mata</v>
-      </c>
-      <c r="F47" s="223" t="str">
-        <f>PROPER('Activos fijos'!K49)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E47" t="s">
+        <v>975</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1020</v>
       </c>
       <c r="G47" s="229" t="s">
         <v>183</v>
@@ -14930,18 +15427,16 @@
         <v>186</v>
       </c>
       <c r="C48" s="227" t="s">
-        <v>187</v>
+        <v>1098</v>
       </c>
       <c r="D48" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E48" s="223" t="str">
-        <f>PROPER('Activos fijos'!J50)</f>
-        <v>Jose Eduardo Gordillo</v>
-      </c>
-      <c r="F48" s="223" t="str">
-        <f>PROPER('Activos fijos'!K50)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E48" t="s">
+        <v>976</v>
+      </c>
+      <c r="F48" t="s">
+        <v>980</v>
       </c>
       <c r="G48" s="230" t="s">
         <v>167</v>
@@ -14955,18 +15450,16 @@
         <v>190</v>
       </c>
       <c r="C49" s="223" t="s">
-        <v>191</v>
+        <v>1099</v>
       </c>
       <c r="D49" s="224" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="223" t="str">
-        <f>PROPER('Activos fijos'!J51)</f>
-        <v>Vidales</v>
-      </c>
-      <c r="F49" s="223" t="str">
-        <f>PROPER('Activos fijos'!K51)</f>
-        <v>Jefe De Ingenieros Planta Baja</v>
+      <c r="E49" t="s">
+        <v>935</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1028</v>
       </c>
       <c r="G49" s="229" t="s">
         <v>167</v>
@@ -14980,16 +15473,14 @@
         <v>195</v>
       </c>
       <c r="C50" s="227" t="s">
-        <v>196</v>
+        <v>1100</v>
       </c>
       <c r="D50" s="228"/>
-      <c r="E50" s="223" t="str">
-        <f>PROPER('Activos fijos'!J52)</f>
-        <v>Planta Baja</v>
-      </c>
-      <c r="F50" s="223" t="str">
-        <f>PROPER('Activos fijos'!K52)</f>
-        <v/>
+      <c r="E50" t="s">
+        <v>952</v>
+      </c>
+      <c r="F50" t="s">
+        <v>958</v>
       </c>
       <c r="G50" s="242"/>
     </row>
@@ -15001,18 +15492,18 @@
         <v>198</v>
       </c>
       <c r="C51" s="223" t="s">
-        <v>199</v>
+        <v>1101</v>
       </c>
       <c r="D51" s="224"/>
-      <c r="E51" s="223" t="str">
-        <f>PROPER('Activos fijos'!J53)</f>
-        <v>En Oficina</v>
-      </c>
-      <c r="F51" s="223" t="str">
-        <f>PROPER('Activos fijos'!K53)</f>
-        <v>Jair Los Entrego El 08/4/2025</v>
-      </c>
-      <c r="G51" s="229"/>
+      <c r="E51" t="s">
+        <v>977</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1029</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
@@ -15022,16 +15513,14 @@
         <v>202</v>
       </c>
       <c r="C52" s="227" t="s">
-        <v>199</v>
+        <v>1101</v>
       </c>
       <c r="D52" s="228"/>
-      <c r="E52" s="223" t="str">
-        <f>PROPER('Activos fijos'!J54)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F52" s="223" t="str">
-        <f>PROPER('Activos fijos'!K54)</f>
-        <v/>
+      <c r="E52" t="s">
+        <v>956</v>
+      </c>
+      <c r="F52" t="s">
+        <v>958</v>
       </c>
       <c r="G52" s="230"/>
     </row>
@@ -15043,16 +15532,14 @@
         <v>203</v>
       </c>
       <c r="C53" s="223" t="s">
-        <v>199</v>
+        <v>1101</v>
       </c>
       <c r="D53" s="224"/>
-      <c r="E53" s="223" t="str">
-        <f>PROPER('Activos fijos'!J55)</f>
-        <v>Vidales</v>
-      </c>
-      <c r="F53" s="223" t="str">
-        <f>PROPER('Activos fijos'!K55)</f>
-        <v/>
+      <c r="E53" t="s">
+        <v>935</v>
+      </c>
+      <c r="F53" t="s">
+        <v>958</v>
       </c>
       <c r="G53" s="229"/>
     </row>
@@ -15064,16 +15551,14 @@
         <v>204</v>
       </c>
       <c r="C54" s="227" t="s">
-        <v>205</v>
+        <v>1102</v>
       </c>
       <c r="D54" s="228"/>
-      <c r="E54" s="223" t="str">
-        <f>PROPER('Activos fijos'!J56)</f>
-        <v/>
-      </c>
-      <c r="F54" s="223" t="str">
-        <f>PROPER('Activos fijos'!K56)</f>
-        <v/>
+      <c r="E54" t="s">
+        <v>958</v>
+      </c>
+      <c r="F54" t="s">
+        <v>958</v>
       </c>
       <c r="G54" s="41"/>
     </row>
@@ -15085,16 +15570,14 @@
         <v>206</v>
       </c>
       <c r="C55" s="223" t="s">
-        <v>205</v>
+        <v>1102</v>
       </c>
       <c r="D55" s="224"/>
-      <c r="E55" s="223" t="str">
-        <f>PROPER('Activos fijos'!J57)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F55" s="223" t="str">
-        <f>PROPER('Activos fijos'!K57)</f>
-        <v/>
+      <c r="E55" t="s">
+        <v>956</v>
+      </c>
+      <c r="F55" t="s">
+        <v>958</v>
       </c>
       <c r="G55" s="225"/>
     </row>
@@ -15106,16 +15589,14 @@
         <v>207</v>
       </c>
       <c r="C56" s="227" t="s">
-        <v>208</v>
+        <v>1103</v>
       </c>
       <c r="D56" s="228"/>
-      <c r="E56" s="223" t="str">
-        <f>PROPER('Activos fijos'!J58)</f>
-        <v>Berenice Perez</v>
-      </c>
-      <c r="F56" s="223" t="str">
-        <f>PROPER('Activos fijos'!K58)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E56" t="s">
+        <v>947</v>
+      </c>
+      <c r="F56" t="s">
+        <v>980</v>
       </c>
       <c r="G56" s="230"/>
     </row>
@@ -15127,16 +15608,14 @@
         <v>209</v>
       </c>
       <c r="C57" s="223" t="s">
-        <v>210</v>
+        <v>1104</v>
       </c>
       <c r="D57" s="224"/>
-      <c r="E57" s="223" t="str">
-        <f>PROPER('Activos fijos'!J59)</f>
-        <v>Oficina De Ingenieros</v>
-      </c>
-      <c r="F57" s="223" t="str">
-        <f>PROPER('Activos fijos'!K59)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E57" t="s">
+        <v>978</v>
+      </c>
+      <c r="F57" t="s">
+        <v>980</v>
       </c>
       <c r="G57" s="229"/>
     </row>
@@ -15148,16 +15627,14 @@
         <v>212</v>
       </c>
       <c r="C58" s="227" t="s">
-        <v>213</v>
+        <v>1105</v>
       </c>
       <c r="D58" s="228"/>
-      <c r="E58" s="223" t="str">
-        <f>PROPER('Activos fijos'!J60)</f>
-        <v>Fernando</v>
-      </c>
-      <c r="F58" s="223" t="str">
-        <f>PROPER('Activos fijos'!K60)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E58" t="s">
+        <v>968</v>
+      </c>
+      <c r="F58" t="s">
+        <v>980</v>
       </c>
       <c r="G58" s="230"/>
     </row>
@@ -15169,16 +15646,14 @@
         <v>214</v>
       </c>
       <c r="C59" s="223" t="s">
-        <v>213</v>
+        <v>1105</v>
       </c>
       <c r="D59" s="224"/>
-      <c r="E59" s="223" t="str">
-        <f>PROPER('Activos fijos'!J61)</f>
-        <v>Ricardo Saucedo</v>
-      </c>
-      <c r="F59" s="223" t="str">
-        <f>PROPER('Activos fijos'!K61)</f>
-        <v>Tzitzio</v>
+      <c r="E59" t="s">
+        <v>979</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1030</v>
       </c>
       <c r="G59" s="229"/>
     </row>
@@ -15190,16 +15665,14 @@
         <v>217</v>
       </c>
       <c r="C60" s="227" t="s">
-        <v>218</v>
+        <v>1106</v>
       </c>
       <c r="D60" s="228"/>
-      <c r="E60" s="223" t="str">
-        <f>PROPER('Activos fijos'!J62)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F60" s="223" t="str">
-        <f>PROPER('Activos fijos'!K62)</f>
-        <v>Bodega Maquinas</v>
+      <c r="E60" t="s">
+        <v>954</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1031</v>
       </c>
       <c r="G60" s="230"/>
     </row>
@@ -15211,16 +15684,14 @@
         <v>220</v>
       </c>
       <c r="C61" s="223" t="s">
-        <v>213</v>
+        <v>1105</v>
       </c>
       <c r="D61" s="224"/>
-      <c r="E61" s="223" t="str">
-        <f>PROPER('Activos fijos'!J63)</f>
-        <v>Diana Pineda</v>
-      </c>
-      <c r="F61" s="223" t="str">
-        <f>PROPER('Activos fijos'!K63)</f>
-        <v xml:space="preserve">Recepcion </v>
+      <c r="E61" t="s">
+        <v>945</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1021</v>
       </c>
       <c r="G61" s="229"/>
     </row>
@@ -15232,16 +15703,14 @@
         <v>221</v>
       </c>
       <c r="C62" s="227" t="s">
-        <v>222</v>
+        <v>1107</v>
       </c>
       <c r="D62" s="228"/>
-      <c r="E62" s="223" t="str">
-        <f>PROPER('Activos fijos'!J64)</f>
-        <v>Vidales</v>
-      </c>
-      <c r="F62" s="223" t="str">
-        <f>PROPER('Activos fijos'!K64)</f>
-        <v>Oficina Vidales</v>
+      <c r="E62" t="s">
+        <v>935</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1032</v>
       </c>
       <c r="G62" s="230"/>
     </row>
@@ -15253,16 +15722,14 @@
         <v>224</v>
       </c>
       <c r="C63" s="223" t="s">
-        <v>225</v>
+        <v>1108</v>
       </c>
       <c r="D63" s="224"/>
-      <c r="E63" s="223" t="str">
-        <f>PROPER('Activos fijos'!J65)</f>
-        <v>Ingenieros Planta Baja</v>
-      </c>
-      <c r="F63" s="223" t="str">
-        <f>PROPER('Activos fijos'!K65)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E63" t="s">
+        <v>980</v>
+      </c>
+      <c r="F63" t="s">
+        <v>980</v>
       </c>
       <c r="G63" s="229"/>
     </row>
@@ -15274,16 +15741,14 @@
         <v>226</v>
       </c>
       <c r="C64" s="227" t="s">
-        <v>227</v>
+        <v>1109</v>
       </c>
       <c r="D64" s="228"/>
-      <c r="E64" s="223" t="str">
-        <f>PROPER('Activos fijos'!J66)</f>
-        <v>Ingenieros Planta Baja</v>
-      </c>
-      <c r="F64" s="223" t="str">
-        <f>PROPER('Activos fijos'!K66)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E64" t="s">
+        <v>980</v>
+      </c>
+      <c r="F64" t="s">
+        <v>980</v>
       </c>
       <c r="G64" s="230"/>
     </row>
@@ -15292,19 +15757,17 @@
         <v>65</v>
       </c>
       <c r="B65" s="222" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C65" s="223" t="s">
-        <v>229</v>
+        <v>1110</v>
       </c>
       <c r="D65" s="224"/>
-      <c r="E65" s="223" t="str">
-        <f>PROPER('Activos fijos'!J67)</f>
-        <v>Ingenieros Planta Baja</v>
-      </c>
-      <c r="F65" s="223" t="str">
-        <f>PROPER('Activos fijos'!K67)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E65" t="s">
+        <v>980</v>
+      </c>
+      <c r="F65" t="s">
+        <v>980</v>
       </c>
       <c r="G65" s="229"/>
     </row>
@@ -15316,16 +15779,14 @@
         <v>230</v>
       </c>
       <c r="C66" s="227" t="s">
-        <v>231</v>
+        <v>1111</v>
       </c>
       <c r="D66" s="228"/>
-      <c r="E66" s="223" t="str">
-        <f>PROPER('Activos fijos'!J68)</f>
-        <v>Ingenieros Planta Baja</v>
-      </c>
-      <c r="F66" s="223" t="str">
-        <f>PROPER('Activos fijos'!K68)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E66" t="s">
+        <v>980</v>
+      </c>
+      <c r="F66" t="s">
+        <v>980</v>
       </c>
       <c r="G66" s="230"/>
     </row>
@@ -15337,16 +15798,14 @@
         <v>232</v>
       </c>
       <c r="C67" s="223" t="s">
-        <v>233</v>
+        <v>1112</v>
       </c>
       <c r="D67" s="224"/>
-      <c r="E67" s="223" t="str">
-        <f>PROPER('Activos fijos'!J69)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F67" s="223" t="str">
-        <f>PROPER('Activos fijos'!K69)</f>
-        <v>Bodega Maquinas</v>
+      <c r="E67" t="s">
+        <v>954</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1031</v>
       </c>
       <c r="G67" s="229"/>
     </row>
@@ -15358,16 +15817,14 @@
         <v>234</v>
       </c>
       <c r="C68" s="227" t="s">
-        <v>235</v>
+        <v>1113</v>
       </c>
       <c r="D68" s="228"/>
-      <c r="E68" s="223" t="str">
-        <f>PROPER('Activos fijos'!J70)</f>
-        <v>Adriana Gonzalez</v>
-      </c>
-      <c r="F68" s="223" t="str">
-        <f>PROPER('Activos fijos'!K70)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E68" t="s">
+        <v>973</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1020</v>
       </c>
       <c r="G68" s="230"/>
     </row>
@@ -15379,16 +15836,14 @@
         <v>238</v>
       </c>
       <c r="C69" s="223" t="s">
-        <v>239</v>
+        <v>1114</v>
       </c>
       <c r="D69" s="224"/>
-      <c r="E69" s="223" t="str">
-        <f>PROPER('Activos fijos'!J71)</f>
-        <v>Uso General Planta Alta</v>
-      </c>
-      <c r="F69" s="223" t="str">
-        <f>PROPER('Activos fijos'!K71)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E69" t="s">
+        <v>981</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1020</v>
       </c>
       <c r="G69" s="229"/>
     </row>
@@ -15400,16 +15855,14 @@
         <v>241</v>
       </c>
       <c r="C70" s="227" t="s">
-        <v>242</v>
+        <v>1115</v>
       </c>
       <c r="D70" s="228"/>
-      <c r="E70" s="223" t="str">
-        <f>PROPER('Activos fijos'!J72)</f>
-        <v>Citlaly Ramirez</v>
-      </c>
-      <c r="F70" s="223" t="str">
-        <f>PROPER('Activos fijos'!K72)</f>
-        <v>Administracion</v>
+      <c r="E70" t="s">
+        <v>946</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1022</v>
       </c>
       <c r="G70" s="230"/>
     </row>
@@ -15421,16 +15874,14 @@
         <v>243</v>
       </c>
       <c r="C71" s="223" t="s">
-        <v>244</v>
+        <v>1116</v>
       </c>
       <c r="D71" s="224"/>
-      <c r="E71" s="223" t="str">
-        <f>PROPER('Activos fijos'!J73)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F71" s="223" t="str">
-        <f>PROPER('Activos fijos'!K73)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E71" t="s">
+        <v>954</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1020</v>
       </c>
       <c r="G71" s="229"/>
     </row>
@@ -15442,24 +15893,22 @@
         <v>245</v>
       </c>
       <c r="C72" s="227" t="s">
-        <v>246</v>
+        <v>1117</v>
       </c>
       <c r="D72" s="41" t="s">
         <v>247</v>
       </c>
-      <c r="E72" s="223" t="str">
-        <f>PROPER('Activos fijos'!J74)</f>
-        <v>Daniela Andrea Arreola Mendoza</v>
-      </c>
-      <c r="F72" s="223" t="str">
-        <f>PROPER('Activos fijos'!K74)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E72" t="s">
+        <v>982</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1020</v>
       </c>
       <c r="G72" s="230" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -15467,20 +15916,20 @@
         <v>250</v>
       </c>
       <c r="C73" s="223" t="s">
-        <v>251</v>
+        <v>1118</v>
       </c>
       <c r="D73" s="225" t="s">
         <v>252</v>
       </c>
-      <c r="E73" s="223" t="str">
-        <f>PROPER('Activos fijos'!J75)</f>
-        <v>Netzalhualcotl Francisco</v>
-      </c>
-      <c r="F73" s="223" t="str">
-        <f>PROPER('Activos fijos'!K75)</f>
-        <v>Auxiliar Juan Eduardo</v>
-      </c>
-      <c r="G73" s="229"/>
+      <c r="E73" t="s">
+        <v>983</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G73" s="229" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
@@ -15490,18 +15939,16 @@
         <v>255</v>
       </c>
       <c r="C74" s="227" t="s">
-        <v>256</v>
+        <v>1119</v>
       </c>
       <c r="D74" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="E74" s="223" t="str">
-        <f>PROPER('Activos fijos'!J76)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F74" s="223" t="str">
-        <f>PROPER('Activos fijos'!K76)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E74" t="s">
+        <v>956</v>
+      </c>
+      <c r="F74" t="s">
+        <v>980</v>
       </c>
       <c r="G74" s="230"/>
     </row>
@@ -15513,18 +15960,16 @@
         <v>258</v>
       </c>
       <c r="C75" s="223" t="s">
-        <v>259</v>
+        <v>1120</v>
       </c>
       <c r="D75" s="225" t="s">
         <v>260</v>
       </c>
-      <c r="E75" s="223" t="str">
-        <f>PROPER('Activos fijos'!J77)</f>
-        <v>Citlaly Ramirez</v>
-      </c>
-      <c r="F75" s="223" t="str">
-        <f>PROPER('Activos fijos'!K77)</f>
-        <v>Administracion</v>
+      <c r="E75" t="s">
+        <v>946</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1022</v>
       </c>
       <c r="G75" s="229" t="s">
         <v>261</v>
@@ -15538,24 +15983,22 @@
         <v>262</v>
       </c>
       <c r="C76" s="227" t="s">
-        <v>263</v>
+        <v>1121</v>
       </c>
       <c r="D76" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="E76" s="223" t="str">
-        <f>PROPER('Activos fijos'!J78)</f>
-        <v>Arq. Alberto Soto</v>
-      </c>
-      <c r="F76" s="223" t="str">
-        <f>PROPER('Activos fijos'!K78)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E76" t="s">
+        <v>984</v>
+      </c>
+      <c r="F76" t="s">
+        <v>980</v>
       </c>
       <c r="G76" s="230" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="168.75" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -15563,21 +16006,19 @@
         <v>267</v>
       </c>
       <c r="C77" s="223" t="s">
-        <v>268</v>
+        <v>1122</v>
       </c>
       <c r="D77" s="225" t="s">
         <v>269</v>
       </c>
-      <c r="E77" s="223" t="str">
-        <f>PROPER('Activos fijos'!J79)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F77" s="223" t="str">
-        <f>PROPER('Activos fijos'!K79)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E77" t="s">
+        <v>954</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1020</v>
       </c>
       <c r="G77" s="229" t="s">
-        <v>270</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -15588,20 +16029,18 @@
         <v>271</v>
       </c>
       <c r="C78" s="227" t="s">
-        <v>272</v>
+        <v>1123</v>
       </c>
       <c r="D78" s="228"/>
-      <c r="E78" s="223" t="str">
-        <f>PROPER('Activos fijos'!J80)</f>
-        <v>Ricardo Saucedo</v>
-      </c>
-      <c r="F78" s="223" t="str">
-        <f>PROPER('Activos fijos'!K80)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E78" t="s">
+        <v>979</v>
+      </c>
+      <c r="F78" t="s">
+        <v>980</v>
       </c>
       <c r="G78" s="230"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -15609,18 +16048,18 @@
         <v>273</v>
       </c>
       <c r="C79" s="223" t="s">
-        <v>274</v>
+        <v>1124</v>
       </c>
       <c r="D79" s="224"/>
-      <c r="E79" s="223" t="str">
-        <f>PROPER('Activos fijos'!J81)</f>
-        <v>Arq. Pepe</v>
-      </c>
-      <c r="F79" s="223" t="str">
-        <f>PROPER('Activos fijos'!K81)</f>
-        <v/>
-      </c>
-      <c r="G79" s="229"/>
+      <c r="E79" t="s">
+        <v>985</v>
+      </c>
+      <c r="F79" t="s">
+        <v>958</v>
+      </c>
+      <c r="G79" s="229" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -15630,16 +16069,14 @@
         <v>276</v>
       </c>
       <c r="C80" s="227" t="s">
-        <v>277</v>
+        <v>1125</v>
       </c>
       <c r="D80" s="228"/>
-      <c r="E80" s="223" t="str">
-        <f>PROPER('Activos fijos'!J82)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F80" s="223" t="str">
-        <f>PROPER('Activos fijos'!K82)</f>
-        <v>Contabilidad</v>
+      <c r="E80" t="s">
+        <v>954</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1034</v>
       </c>
       <c r="G80" s="230"/>
     </row>
@@ -15651,16 +16088,14 @@
         <v>279</v>
       </c>
       <c r="C81" s="223" t="s">
-        <v>280</v>
+        <v>1126</v>
       </c>
       <c r="D81" s="224"/>
-      <c r="E81" s="223" t="str">
-        <f>PROPER('Activos fijos'!J83)</f>
-        <v>Gerardo Alvaro - Robaron Con La Camioneta</v>
-      </c>
-      <c r="F81" s="223" t="str">
-        <f>PROPER('Activos fijos'!K83)</f>
-        <v/>
+      <c r="E81" t="s">
+        <v>986</v>
+      </c>
+      <c r="F81" t="s">
+        <v>958</v>
       </c>
       <c r="G81" s="229"/>
     </row>
@@ -15672,18 +16107,16 @@
         <v>282</v>
       </c>
       <c r="C82" s="227" t="s">
-        <v>283</v>
+        <v>1127</v>
       </c>
       <c r="D82" s="239" t="s">
         <v>284</v>
       </c>
-      <c r="E82" s="223" t="str">
-        <f>PROPER('Activos fijos'!J84)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F82" s="223" t="str">
-        <f>PROPER('Activos fijos'!K84)</f>
-        <v>Contabilidad</v>
+      <c r="E82" t="s">
+        <v>954</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1034</v>
       </c>
       <c r="G82" s="230"/>
     </row>
@@ -15695,18 +16128,16 @@
         <v>285</v>
       </c>
       <c r="C83" s="223" t="s">
-        <v>286</v>
+        <v>1128</v>
       </c>
       <c r="D83" s="243" t="s">
         <v>287</v>
       </c>
-      <c r="E83" s="223" t="str">
-        <f>PROPER('Activos fijos'!J85)</f>
-        <v>Bruno Figueroa</v>
-      </c>
-      <c r="F83" s="223" t="str">
-        <f>PROPER('Activos fijos'!K85)</f>
-        <v>Jair Los Entrego El 08/4/2025</v>
+      <c r="E83" t="s">
+        <v>987</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1029</v>
       </c>
       <c r="G83" s="229" t="s">
         <v>289</v>
@@ -15720,16 +16151,14 @@
         <v>290</v>
       </c>
       <c r="C84" s="227" t="s">
-        <v>291</v>
+        <v>1129</v>
       </c>
       <c r="D84" s="228"/>
-      <c r="E84" s="223" t="str">
-        <f>PROPER('Activos fijos'!J86)</f>
-        <v>Oficina Gildardo Padilla</v>
-      </c>
-      <c r="F84" s="223" t="str">
-        <f>PROPER('Activos fijos'!K86)</f>
-        <v/>
+      <c r="E84" t="s">
+        <v>950</v>
+      </c>
+      <c r="F84" t="s">
+        <v>958</v>
       </c>
       <c r="G84" s="230"/>
     </row>
@@ -15741,20 +16170,18 @@
         <v>292</v>
       </c>
       <c r="C85" s="223" t="s">
-        <v>293</v>
+        <v>1130</v>
       </c>
       <c r="D85" s="224"/>
-      <c r="E85" s="223" t="str">
-        <f>PROPER('Activos fijos'!J87)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F85" s="223" t="str">
-        <f>PROPER('Activos fijos'!K87)</f>
-        <v>Administración</v>
+      <c r="E85" t="s">
+        <v>954</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1035</v>
       </c>
       <c r="G85" s="229"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -15762,18 +16189,18 @@
         <v>295</v>
       </c>
       <c r="C86" s="66" t="s">
-        <v>296</v>
+        <v>1131</v>
       </c>
       <c r="D86" s="228"/>
-      <c r="E86" s="223" t="str">
-        <f>PROPER('Activos fijos'!J88)</f>
-        <v>No Disponible</v>
-      </c>
-      <c r="F86" s="223" t="str">
-        <f>PROPER('Activos fijos'!K88)</f>
-        <v/>
-      </c>
-      <c r="G86" s="230"/>
+      <c r="E86" t="s">
+        <v>988</v>
+      </c>
+      <c r="F86" t="s">
+        <v>958</v>
+      </c>
+      <c r="G86" s="230" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="87" spans="1:7" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A87">
@@ -15783,16 +16210,14 @@
         <v>300</v>
       </c>
       <c r="C87" s="244" t="s">
-        <v>301</v>
+        <v>1132</v>
       </c>
       <c r="D87" s="224"/>
-      <c r="E87" s="223" t="str">
-        <f>PROPER('Activos fijos'!J89)</f>
-        <v/>
-      </c>
-      <c r="F87" s="223" t="str">
-        <f>PROPER('Activos fijos'!K89)</f>
-        <v/>
+      <c r="E87" t="s">
+        <v>958</v>
+      </c>
+      <c r="F87" t="s">
+        <v>958</v>
       </c>
       <c r="G87" s="225"/>
     </row>
@@ -15804,21 +16229,13 @@
         <v>302</v>
       </c>
       <c r="C88" s="227" t="s">
-        <v>303</v>
+        <v>1133</v>
       </c>
       <c r="D88" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="E88" s="223" t="str">
-        <f>PROPER('Activos fijos'!J90)</f>
-        <v>Luis Miguel</v>
-      </c>
-      <c r="F88" s="223" t="str">
-        <f>PROPER('Activos fijos'!K90)</f>
-        <v>Segmento 4</v>
-      </c>
       <c r="G88" s="41" t="s">
-        <v>306</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -15829,18 +16246,16 @@
         <v>307</v>
       </c>
       <c r="C89" s="223" t="s">
-        <v>308</v>
+        <v>1134</v>
       </c>
       <c r="D89" s="225" t="s">
         <v>309</v>
       </c>
-      <c r="E89" s="223" t="str">
-        <f>PROPER('Activos fijos'!J91)</f>
-        <v>Carolina Monse Vargas</v>
-      </c>
-      <c r="F89" s="223" t="str">
-        <f>PROPER('Activos fijos'!K91)</f>
-        <v>En Obra</v>
+      <c r="E89" t="s">
+        <v>989</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1036</v>
       </c>
       <c r="G89" s="225" t="s">
         <v>306</v>
@@ -15854,18 +16269,16 @@
         <v>312</v>
       </c>
       <c r="C90" s="227" t="s">
-        <v>313</v>
+        <v>1135</v>
       </c>
       <c r="D90" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E90" s="223" t="str">
-        <f>PROPER('Activos fijos'!J92)</f>
-        <v>Erasmo Ysaguirre Lopez</v>
-      </c>
-      <c r="F90" s="223" t="str">
-        <f>PROPER('Activos fijos'!K92)</f>
-        <v>En Obra</v>
+      <c r="E90" t="s">
+        <v>990</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1036</v>
       </c>
       <c r="G90" s="41" t="s">
         <v>306</v>
@@ -15879,18 +16292,16 @@
         <v>316</v>
       </c>
       <c r="C91" s="223" t="s">
-        <v>317</v>
+        <v>1136</v>
       </c>
       <c r="D91" s="225" t="s">
         <v>318</v>
       </c>
-      <c r="E91" s="223" t="str">
-        <f>PROPER('Activos fijos'!J93)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F91" s="223" t="str">
-        <f>PROPER('Activos fijos'!K93)</f>
-        <v/>
+      <c r="E91" t="s">
+        <v>954</v>
+      </c>
+      <c r="F91" t="s">
+        <v>958</v>
       </c>
       <c r="G91" s="225" t="s">
         <v>319</v>
@@ -15904,18 +16315,16 @@
         <v>320</v>
       </c>
       <c r="C92" s="227" t="s">
-        <v>321</v>
+        <v>1137</v>
       </c>
       <c r="D92" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="E92" s="223" t="str">
-        <f>PROPER('Activos fijos'!J94)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F92" s="223" t="str">
-        <f>PROPER('Activos fijos'!K94)</f>
-        <v/>
+      <c r="E92" t="s">
+        <v>954</v>
+      </c>
+      <c r="F92" t="s">
+        <v>958</v>
       </c>
       <c r="G92" s="41" t="s">
         <v>319</v>
@@ -15929,18 +16338,16 @@
         <v>323</v>
       </c>
       <c r="C93" s="223" t="s">
-        <v>324</v>
+        <v>1138</v>
       </c>
       <c r="D93" s="224" t="s">
         <v>325</v>
       </c>
-      <c r="E93" s="223" t="str">
-        <f>PROPER('Activos fijos'!J95)</f>
-        <v>Vidales</v>
-      </c>
-      <c r="F93" s="223" t="str">
-        <f>PROPER('Activos fijos'!K95)</f>
-        <v>En Obra</v>
+      <c r="E93" t="s">
+        <v>935</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1036</v>
       </c>
       <c r="G93" s="225"/>
     </row>
@@ -15952,16 +16359,14 @@
         <v>326</v>
       </c>
       <c r="C94" s="227" t="s">
-        <v>327</v>
+        <v>1139</v>
       </c>
       <c r="D94" s="228"/>
-      <c r="E94" s="223" t="str">
-        <f>PROPER('Activos fijos'!J96)</f>
-        <v>Sala De Juntas Planta Baja</v>
-      </c>
-      <c r="F94" s="223" t="str">
-        <f>PROPER('Activos fijos'!K96)</f>
-        <v>Sala De Juntas Planta Baja</v>
+      <c r="E94" t="s">
+        <v>991</v>
+      </c>
+      <c r="F94" t="s">
+        <v>991</v>
       </c>
       <c r="G94" s="230"/>
     </row>
@@ -15973,16 +16378,14 @@
         <v>329</v>
       </c>
       <c r="C95" s="223" t="s">
-        <v>330</v>
+        <v>1140</v>
       </c>
       <c r="D95" s="224"/>
-      <c r="E95" s="223" t="str">
-        <f>PROPER('Activos fijos'!J97)</f>
-        <v>Juan Padilla</v>
-      </c>
-      <c r="F95" s="223" t="str">
-        <f>PROPER('Activos fijos'!K97)</f>
-        <v>Oficina Juan Padilla</v>
+      <c r="E95" t="s">
+        <v>992</v>
+      </c>
+      <c r="F95" t="s">
+        <v>949</v>
       </c>
       <c r="G95" s="229"/>
     </row>
@@ -15994,20 +16397,18 @@
         <v>332</v>
       </c>
       <c r="C96" s="227" t="s">
-        <v>333</v>
+        <v>1141</v>
       </c>
       <c r="D96" s="228"/>
-      <c r="E96" s="223" t="str">
-        <f>PROPER('Activos fijos'!J98)</f>
-        <v>Planta Baja</v>
-      </c>
-      <c r="F96" s="223" t="str">
-        <f>PROPER('Activos fijos'!K98)</f>
-        <v>Planta Baja</v>
+      <c r="E96" t="s">
+        <v>952</v>
+      </c>
+      <c r="F96" t="s">
+        <v>952</v>
       </c>
       <c r="G96" s="242"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -16015,20 +16416,18 @@
         <v>334</v>
       </c>
       <c r="C97" s="223" t="s">
-        <v>335</v>
+        <v>1142</v>
       </c>
       <c r="D97" s="224"/>
-      <c r="E97" s="223" t="str">
-        <f>PROPER('Activos fijos'!J99)</f>
-        <v>Cocina Planta Alta</v>
-      </c>
-      <c r="F97" s="223" t="str">
-        <f>PROPER('Activos fijos'!K99)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E97" t="s">
+        <v>957</v>
+      </c>
+      <c r="F97" t="s">
+        <v>957</v>
       </c>
       <c r="G97" s="241"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -16036,20 +16435,18 @@
         <v>336</v>
       </c>
       <c r="C98" s="227" t="s">
-        <v>337</v>
+        <v>1143</v>
       </c>
       <c r="D98" s="228"/>
-      <c r="E98" s="223" t="str">
-        <f>PROPER('Activos fijos'!J100)</f>
-        <v>Cocina Planta Alta</v>
-      </c>
-      <c r="F98" s="223" t="str">
-        <f>PROPER('Activos fijos'!K100)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E98" t="s">
+        <v>957</v>
+      </c>
+      <c r="F98" t="s">
+        <v>957</v>
       </c>
       <c r="G98" s="242"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -16057,20 +16454,18 @@
         <v>338</v>
       </c>
       <c r="C99" s="223" t="s">
-        <v>339</v>
+        <v>1144</v>
       </c>
       <c r="D99" s="224"/>
-      <c r="E99" s="223" t="str">
-        <f>PROPER('Activos fijos'!J101)</f>
-        <v>Sala De Juntas Planta Alta</v>
-      </c>
-      <c r="F99" s="223" t="str">
-        <f>PROPER('Activos fijos'!K101)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E99" t="s">
+        <v>948</v>
+      </c>
+      <c r="F99" t="s">
+        <v>948</v>
       </c>
       <c r="G99" s="241"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -16078,20 +16473,18 @@
         <v>340</v>
       </c>
       <c r="C100" s="227" t="s">
-        <v>341</v>
+        <v>1145</v>
       </c>
       <c r="D100" s="228"/>
-      <c r="E100" s="223" t="str">
-        <f>PROPER('Activos fijos'!J102)</f>
-        <v>Cocina Planta Alta</v>
-      </c>
-      <c r="F100" s="223" t="str">
-        <f>PROPER('Activos fijos'!K102)</f>
-        <v/>
+      <c r="E100" t="s">
+        <v>957</v>
+      </c>
+      <c r="F100" t="s">
+        <v>958</v>
       </c>
       <c r="G100" s="230"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -16099,20 +16492,18 @@
         <v>342</v>
       </c>
       <c r="C101" s="223" t="s">
-        <v>343</v>
+        <v>1146</v>
       </c>
       <c r="D101" s="224"/>
-      <c r="E101" s="223" t="str">
-        <f>PROPER('Activos fijos'!J103)</f>
-        <v>Planta Baja</v>
-      </c>
-      <c r="F101" s="223" t="str">
-        <f>PROPER('Activos fijos'!K103)</f>
-        <v/>
+      <c r="E101" t="s">
+        <v>952</v>
+      </c>
+      <c r="F101" t="s">
+        <v>958</v>
       </c>
       <c r="G101" s="241"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -16120,22 +16511,20 @@
         <v>344</v>
       </c>
       <c r="C102" s="227" t="s">
-        <v>345</v>
+        <v>1147</v>
       </c>
       <c r="D102" s="228" t="s">
         <v>346</v>
       </c>
-      <c r="E102" s="223" t="str">
-        <f>PROPER('Activos fijos'!J104)</f>
-        <v>Ingenieros Planta Baja</v>
-      </c>
-      <c r="F102" s="223" t="str">
-        <f>PROPER('Activos fijos'!K104)</f>
-        <v/>
+      <c r="E102" t="s">
+        <v>980</v>
+      </c>
+      <c r="F102" t="s">
+        <v>958</v>
       </c>
       <c r="G102" s="242"/>
     </row>
-    <row r="103" spans="1:8" ht="150" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="150" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -16143,22 +16532,20 @@
         <v>347</v>
       </c>
       <c r="C103" s="223" t="s">
-        <v>348</v>
+        <v>1148</v>
       </c>
       <c r="D103" s="224"/>
-      <c r="E103" s="223" t="str">
-        <f>PROPER('Activos fijos'!J105)</f>
-        <v>Cesar Bracamonte</v>
-      </c>
-      <c r="F103" s="223" t="str">
-        <f>PROPER('Activos fijos'!K105)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E103" t="s">
+        <v>966</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1020</v>
       </c>
       <c r="G103" s="229" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -16166,20 +16553,18 @@
         <v>350</v>
       </c>
       <c r="C104" s="227" t="s">
-        <v>351</v>
+        <v>1149</v>
       </c>
       <c r="D104" s="228"/>
-      <c r="E104" s="223" t="str">
-        <f>PROPER('Activos fijos'!J106)</f>
-        <v>Alejandro</v>
-      </c>
-      <c r="F104" s="223" t="str">
-        <f>PROPER('Activos fijos'!K106)</f>
-        <v>Auxiliar De Administración</v>
+      <c r="E104" t="s">
+        <v>969</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1027</v>
       </c>
       <c r="G104" s="230"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -16187,20 +16572,18 @@
         <v>352</v>
       </c>
       <c r="C105" s="223" t="s">
-        <v>353</v>
+        <v>1150</v>
       </c>
       <c r="D105" s="224"/>
-      <c r="E105" s="223" t="str">
-        <f>PROPER('Activos fijos'!J107)</f>
-        <v>Yamileth</v>
-      </c>
-      <c r="F105" s="223" t="str">
-        <f>PROPER('Activos fijos'!K107)</f>
-        <v>Auxiliar Administracion Planta Baja</v>
+      <c r="E105" t="s">
+        <v>965</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1037</v>
       </c>
       <c r="G105" s="229"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -16208,20 +16591,18 @@
         <v>355</v>
       </c>
       <c r="C106" s="227" t="s">
-        <v>356</v>
+        <v>1151</v>
       </c>
       <c r="D106" s="228"/>
-      <c r="E106" s="223" t="str">
-        <f>PROPER('Activos fijos'!J108)</f>
-        <v>Berenice Perez</v>
-      </c>
-      <c r="F106" s="223" t="str">
-        <f>PROPER('Activos fijos'!K108)</f>
-        <v>Oficina Ingenieros Planta Alta</v>
+      <c r="E106" t="s">
+        <v>947</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1023</v>
       </c>
       <c r="G106" s="230"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -16229,20 +16610,18 @@
         <v>357</v>
       </c>
       <c r="C107" s="223" t="s">
-        <v>358</v>
+        <v>1152</v>
       </c>
       <c r="D107" s="224"/>
-      <c r="E107" s="223" t="str">
-        <f>PROPER('Activos fijos'!J109)</f>
-        <v>Berenice Perez</v>
-      </c>
-      <c r="F107" s="223" t="str">
-        <f>PROPER('Activos fijos'!K109)</f>
-        <v>Oficina Ingenieros Planta Alta</v>
+      <c r="E107" t="s">
+        <v>947</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1023</v>
       </c>
       <c r="G107" s="229"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -16250,20 +16629,18 @@
         <v>359</v>
       </c>
       <c r="C108" s="227" t="s">
-        <v>360</v>
+        <v>1153</v>
       </c>
       <c r="D108" s="228"/>
-      <c r="E108" s="223" t="str">
-        <f>PROPER('Activos fijos'!J110)</f>
-        <v>Alma Esparza</v>
-      </c>
-      <c r="F108" s="223" t="str">
-        <f>PROPER('Activos fijos'!K110)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E108" t="s">
+        <v>953</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1020</v>
       </c>
       <c r="G108" s="230"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -16271,20 +16648,18 @@
         <v>361</v>
       </c>
       <c r="C109" s="223" t="s">
-        <v>362</v>
+        <v>1154</v>
       </c>
       <c r="D109" s="224"/>
-      <c r="E109" s="223" t="str">
-        <f>PROPER('Activos fijos'!J111)</f>
-        <v>Raul</v>
-      </c>
-      <c r="F109" s="223" t="str">
-        <f>PROPER('Activos fijos'!K111)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E109" t="s">
+        <v>970</v>
+      </c>
+      <c r="F109" t="s">
+        <v>980</v>
       </c>
       <c r="G109" s="229"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -16292,22 +16667,20 @@
         <v>363</v>
       </c>
       <c r="C110" s="227" t="s">
-        <v>364</v>
+        <v>1155</v>
       </c>
       <c r="D110" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="E110" s="223" t="str">
-        <f>PROPER('Activos fijos'!J112)</f>
-        <v>Jaime Garcia Lobato</v>
-      </c>
-      <c r="F110" s="223" t="str">
-        <f>PROPER('Activos fijos'!K112)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E110" t="s">
+        <v>962</v>
+      </c>
+      <c r="F110" t="s">
+        <v>980</v>
       </c>
       <c r="G110" s="230"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -16315,25 +16688,20 @@
         <v>366</v>
       </c>
       <c r="C111" s="223" t="s">
-        <v>364</v>
+        <v>1155</v>
       </c>
       <c r="D111" s="225" t="s">
         <v>365</v>
       </c>
-      <c r="E111" s="223" t="str">
-        <f>PROPER('Activos fijos'!J113)</f>
-        <v>Fernando Gonzalez</v>
-      </c>
-      <c r="F111" s="223" t="str">
-        <f>PROPER('Activos fijos'!K113)</f>
-        <v>Segmento 4</v>
+      <c r="E111" t="s">
+        <v>993</v>
+      </c>
+      <c r="F111" t="s">
+        <v>961</v>
       </c>
       <c r="G111" s="229"/>
-      <c r="H111" s="1" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -16341,16 +16709,14 @@
         <v>368</v>
       </c>
       <c r="C112" s="234" t="s">
-        <v>369</v>
+        <v>1156</v>
       </c>
       <c r="D112" s="228"/>
-      <c r="E112" s="223" t="str">
-        <f>PROPER('Activos fijos'!J114)</f>
-        <v>Artemio</v>
-      </c>
-      <c r="F112" s="223" t="str">
-        <f>PROPER('Activos fijos'!K114)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E112" t="s">
+        <v>963</v>
+      </c>
+      <c r="F112" t="s">
+        <v>980</v>
       </c>
       <c r="G112" s="230" t="s">
         <v>370</v>
@@ -16364,16 +16730,14 @@
         <v>371</v>
       </c>
       <c r="C113" s="223" t="s">
-        <v>372</v>
+        <v>1157</v>
       </c>
       <c r="D113" s="224"/>
-      <c r="E113" s="223" t="str">
-        <f>PROPER('Activos fijos'!J115)</f>
-        <v>Indra Rodriguez Garcia</v>
-      </c>
-      <c r="F113" s="223" t="str">
-        <f>PROPER('Activos fijos'!K115)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E113" t="s">
+        <v>967</v>
+      </c>
+      <c r="F113" t="s">
+        <v>980</v>
       </c>
       <c r="G113" s="229"/>
     </row>
@@ -16385,16 +16749,14 @@
         <v>373</v>
       </c>
       <c r="C114" s="227" t="s">
-        <v>374</v>
+        <v>1158</v>
       </c>
       <c r="D114" s="228"/>
-      <c r="E114" s="223" t="str">
-        <f>PROPER('Activos fijos'!J116)</f>
-        <v>Citlaly Ramirez</v>
-      </c>
-      <c r="F114" s="223" t="str">
-        <f>PROPER('Activos fijos'!K116)</f>
-        <v>Administracion</v>
+      <c r="E114" t="s">
+        <v>946</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1022</v>
       </c>
       <c r="G114" s="230"/>
     </row>
@@ -16406,16 +16768,14 @@
         <v>375</v>
       </c>
       <c r="C115" s="223" t="s">
-        <v>376</v>
+        <v>1159</v>
       </c>
       <c r="D115" s="224"/>
-      <c r="E115" s="223" t="str">
-        <f>PROPER('Activos fijos'!J117)</f>
-        <v>Dante Garcia</v>
-      </c>
-      <c r="F115" s="223" t="str">
-        <f>PROPER('Activos fijos'!K117)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E115" t="s">
+        <v>974</v>
+      </c>
+      <c r="F115" t="s">
+        <v>980</v>
       </c>
       <c r="G115" s="229"/>
     </row>
@@ -16427,16 +16787,14 @@
         <v>377</v>
       </c>
       <c r="C116" s="227" t="s">
-        <v>378</v>
+        <v>1160</v>
       </c>
       <c r="D116" s="228"/>
-      <c r="E116" s="223" t="str">
-        <f>PROPER('Activos fijos'!J118)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F116" s="223" t="str">
-        <f>PROPER('Activos fijos'!K118)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E116" t="s">
+        <v>956</v>
+      </c>
+      <c r="F116" t="s">
+        <v>980</v>
       </c>
       <c r="G116" s="230"/>
     </row>
@@ -16448,16 +16806,14 @@
         <v>379</v>
       </c>
       <c r="C117" s="223" t="s">
-        <v>380</v>
+        <v>1161</v>
       </c>
       <c r="D117" s="224"/>
-      <c r="E117" s="223" t="str">
-        <f>PROPER('Activos fijos'!J119)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F117" s="223" t="str">
-        <f>PROPER('Activos fijos'!K119)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E117" t="s">
+        <v>954</v>
+      </c>
+      <c r="F117" t="s">
+        <v>980</v>
       </c>
       <c r="G117" s="229"/>
     </row>
@@ -16469,20 +16825,18 @@
         <v>381</v>
       </c>
       <c r="C118" s="227" t="s">
-        <v>382</v>
+        <v>1162</v>
       </c>
       <c r="D118" s="228"/>
-      <c r="E118" s="223" t="str">
-        <f>PROPER('Activos fijos'!J120)</f>
-        <v>Diana Pineda</v>
-      </c>
-      <c r="F118" s="223" t="str">
-        <f>PROPER('Activos fijos'!K120)</f>
-        <v xml:space="preserve">Recepcion </v>
+      <c r="E118" t="s">
+        <v>945</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1021</v>
       </c>
       <c r="G118" s="230"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -16490,18 +16844,18 @@
         <v>383</v>
       </c>
       <c r="C119" s="223" t="s">
-        <v>384</v>
+        <v>1163</v>
       </c>
       <c r="D119" s="224"/>
-      <c r="E119" s="223" t="str">
-        <f>PROPER('Activos fijos'!J121)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F119" s="223" t="str">
-        <f>PROPER('Activos fijos'!K121)</f>
-        <v>Ingenieros Planta Baja</v>
-      </c>
-      <c r="G119" s="229"/>
+      <c r="E119" t="s">
+        <v>954</v>
+      </c>
+      <c r="F119" t="s">
+        <v>980</v>
+      </c>
+      <c r="G119" s="229" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
@@ -16511,16 +16865,14 @@
         <v>385</v>
       </c>
       <c r="C120" s="227" t="s">
-        <v>386</v>
+        <v>1164</v>
       </c>
       <c r="D120" s="228"/>
-      <c r="E120" s="223" t="str">
-        <f>PROPER('Activos fijos'!J122)</f>
-        <v>Jose Eduardo Gordillo</v>
-      </c>
-      <c r="F120" s="223" t="str">
-        <f>PROPER('Activos fijos'!K122)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E120" t="s">
+        <v>976</v>
+      </c>
+      <c r="F120" t="s">
+        <v>980</v>
       </c>
       <c r="G120" s="242"/>
     </row>
@@ -16532,16 +16884,14 @@
         <v>387</v>
       </c>
       <c r="C121" s="223" t="s">
-        <v>388</v>
+        <v>1165</v>
       </c>
       <c r="D121" s="224"/>
-      <c r="E121" s="223" t="str">
-        <f>PROPER('Activos fijos'!J123)</f>
-        <v>Cesar Bracamonte</v>
-      </c>
-      <c r="F121" s="223" t="str">
-        <f>PROPER('Activos fijos'!K123)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E121" t="s">
+        <v>966</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1020</v>
       </c>
       <c r="G121" s="229"/>
     </row>
@@ -16553,16 +16903,14 @@
         <v>389</v>
       </c>
       <c r="C122" s="227" t="s">
-        <v>390</v>
+        <v>1166</v>
       </c>
       <c r="D122" s="228"/>
-      <c r="E122" s="223" t="str">
-        <f>PROPER('Activos fijos'!J124)</f>
-        <v>Daniela Andrea Arreola Mendoza</v>
-      </c>
-      <c r="F122" s="223" t="str">
-        <f>PROPER('Activos fijos'!K124)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E122" t="s">
+        <v>982</v>
+      </c>
+      <c r="F122" t="s">
+        <v>980</v>
       </c>
       <c r="G122" s="230" t="s">
         <v>391</v>
@@ -16576,16 +16924,14 @@
         <v>392</v>
       </c>
       <c r="C123" s="223" t="s">
-        <v>393</v>
+        <v>1167</v>
       </c>
       <c r="D123" s="224"/>
-      <c r="E123" s="223" t="str">
-        <f>PROPER('Activos fijos'!J125)</f>
-        <v>Fernando</v>
-      </c>
-      <c r="F123" s="223" t="str">
-        <f>PROPER('Activos fijos'!K125)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E123" t="s">
+        <v>968</v>
+      </c>
+      <c r="F123" t="s">
+        <v>980</v>
       </c>
       <c r="G123" s="229"/>
     </row>
@@ -16597,16 +16943,14 @@
         <v>394</v>
       </c>
       <c r="C124" s="227" t="s">
-        <v>395</v>
+        <v>1168</v>
       </c>
       <c r="D124" s="228"/>
-      <c r="E124" s="223" t="str">
-        <f>PROPER('Activos fijos'!J126)</f>
-        <v>Silvia Mata</v>
-      </c>
-      <c r="F124" s="223" t="str">
-        <f>PROPER('Activos fijos'!K126)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E124" t="s">
+        <v>975</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1020</v>
       </c>
       <c r="G124" s="230" t="s">
         <v>396</v>
@@ -16620,16 +16964,14 @@
         <v>397</v>
       </c>
       <c r="C125" s="223" t="s">
-        <v>390</v>
+        <v>1166</v>
       </c>
       <c r="D125" s="224"/>
-      <c r="E125" s="223" t="str">
-        <f>PROPER('Activos fijos'!J127)</f>
-        <v>Alan Frias</v>
-      </c>
-      <c r="F125" s="223" t="str">
-        <f>PROPER('Activos fijos'!K127)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E125" t="s">
+        <v>971</v>
+      </c>
+      <c r="F125" t="s">
+        <v>980</v>
       </c>
       <c r="G125" s="225" t="s">
         <v>398</v>
@@ -16643,16 +16985,14 @@
         <v>399</v>
       </c>
       <c r="C126" s="227" t="s">
-        <v>390</v>
+        <v>1166</v>
       </c>
       <c r="D126" s="228"/>
-      <c r="E126" s="223" t="str">
-        <f>PROPER('Activos fijos'!J128)</f>
-        <v>Efrain Morales Gutierrez</v>
-      </c>
-      <c r="F126" s="223" t="str">
-        <f>PROPER('Activos fijos'!K128)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E126" t="s">
+        <v>964</v>
+      </c>
+      <c r="F126" t="s">
+        <v>980</v>
       </c>
       <c r="G126" s="41" t="s">
         <v>398</v>
@@ -16666,16 +17006,14 @@
         <v>400</v>
       </c>
       <c r="C127" s="223" t="s">
-        <v>390</v>
+        <v>1166</v>
       </c>
       <c r="D127" s="224"/>
-      <c r="E127" s="223" t="str">
-        <f>PROPER('Activos fijos'!J129)</f>
-        <v>Adriana Gonzalez</v>
-      </c>
-      <c r="F127" s="223" t="str">
-        <f>PROPER('Activos fijos'!K129)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E127" t="s">
+        <v>973</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1020</v>
       </c>
       <c r="G127" s="229" t="s">
         <v>306</v>
@@ -16689,16 +17027,14 @@
         <v>401</v>
       </c>
       <c r="C128" s="227" t="s">
-        <v>402</v>
+        <v>1169</v>
       </c>
       <c r="D128" s="228"/>
-      <c r="E128" s="223" t="str">
-        <f>PROPER('Activos fijos'!J130)</f>
-        <v>Indra Rodriguez Garcia</v>
-      </c>
-      <c r="F128" s="223" t="str">
-        <f>PROPER('Activos fijos'!K130)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E128" t="s">
+        <v>967</v>
+      </c>
+      <c r="F128" t="s">
+        <v>980</v>
       </c>
       <c r="G128" s="230" t="s">
         <v>403</v>
@@ -16712,16 +17048,14 @@
         <v>404</v>
       </c>
       <c r="C129" s="223" t="s">
-        <v>405</v>
+        <v>1170</v>
       </c>
       <c r="D129" s="224"/>
-      <c r="E129" s="223" t="str">
-        <f>PROPER('Activos fijos'!J131)</f>
-        <v>Vidales</v>
-      </c>
-      <c r="F129" s="223" t="str">
-        <f>PROPER('Activos fijos'!K131)</f>
-        <v>Jefe De Ingenieros</v>
+      <c r="E129" t="s">
+        <v>935</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1038</v>
       </c>
       <c r="G129" s="229"/>
     </row>
@@ -16733,16 +17067,14 @@
         <v>407</v>
       </c>
       <c r="C130" s="227" t="s">
-        <v>408</v>
+        <v>1171</v>
       </c>
       <c r="D130" s="228"/>
-      <c r="E130" s="223" t="str">
-        <f>PROPER('Activos fijos'!J132)</f>
-        <v>Cocina Planta Alta</v>
-      </c>
-      <c r="F130" s="223" t="str">
-        <f>PROPER('Activos fijos'!K132)</f>
-        <v/>
+      <c r="E130" t="s">
+        <v>957</v>
+      </c>
+      <c r="F130" t="s">
+        <v>958</v>
       </c>
       <c r="G130" s="230"/>
     </row>
@@ -16754,16 +17086,14 @@
         <v>409</v>
       </c>
       <c r="C131" s="223" t="s">
-        <v>410</v>
+        <v>1172</v>
       </c>
       <c r="D131" s="224"/>
-      <c r="E131" s="223" t="str">
-        <f>PROPER('Activos fijos'!J133)</f>
-        <v/>
-      </c>
-      <c r="F131" s="223" t="str">
-        <f>PROPER('Activos fijos'!K133)</f>
-        <v/>
+      <c r="E131" t="s">
+        <v>958</v>
+      </c>
+      <c r="F131" t="s">
+        <v>958</v>
       </c>
       <c r="G131" s="229"/>
     </row>
@@ -16775,20 +17105,18 @@
         <v>411</v>
       </c>
       <c r="C132" s="227" t="s">
-        <v>412</v>
+        <v>1173</v>
       </c>
       <c r="D132" s="228"/>
-      <c r="E132" s="223" t="str">
-        <f>PROPER('Activos fijos'!J134)</f>
-        <v>Cocina Planta Baja</v>
-      </c>
-      <c r="F132" s="223" t="str">
-        <f>PROPER('Activos fijos'!K134)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E132" t="s">
+        <v>994</v>
+      </c>
+      <c r="F132" t="s">
+        <v>980</v>
       </c>
       <c r="G132" s="230"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -16796,18 +17124,18 @@
         <v>414</v>
       </c>
       <c r="C133" s="223" t="s">
-        <v>415</v>
+        <v>1174</v>
       </c>
       <c r="D133" s="224"/>
-      <c r="E133" s="223" t="str">
-        <f>PROPER('Activos fijos'!J135)</f>
-        <v>Bodega De Ingenieros Planta Baja</v>
-      </c>
-      <c r="F133" s="223" t="str">
-        <f>PROPER('Activos fijos'!K135)</f>
-        <v/>
-      </c>
-      <c r="G133" s="229"/>
+      <c r="E133" t="s">
+        <v>995</v>
+      </c>
+      <c r="F133" t="s">
+        <v>958</v>
+      </c>
+      <c r="G133" s="229" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
@@ -16817,16 +17145,14 @@
         <v>417</v>
       </c>
       <c r="C134" s="227" t="s">
-        <v>415</v>
+        <v>1174</v>
       </c>
       <c r="D134" s="228"/>
-      <c r="E134" s="223" t="str">
-        <f>PROPER('Activos fijos'!J136)</f>
-        <v>Luis - El Zarco</v>
-      </c>
-      <c r="F134" s="223" t="str">
-        <f>PROPER('Activos fijos'!K136)</f>
-        <v/>
+      <c r="E134" t="s">
+        <v>996</v>
+      </c>
+      <c r="F134" t="s">
+        <v>958</v>
       </c>
       <c r="G134" s="230"/>
     </row>
@@ -16838,16 +17164,14 @@
         <v>419</v>
       </c>
       <c r="C135" s="223" t="s">
-        <v>420</v>
+        <v>1175</v>
       </c>
       <c r="D135" s="224"/>
-      <c r="E135" s="223" t="str">
-        <f>PROPER('Activos fijos'!J137)</f>
-        <v>Sala De Juntas Planta Alta</v>
-      </c>
-      <c r="F135" s="223" t="str">
-        <f>PROPER('Activos fijos'!K137)</f>
-        <v/>
+      <c r="E135" t="s">
+        <v>948</v>
+      </c>
+      <c r="F135" t="s">
+        <v>958</v>
       </c>
       <c r="G135" s="229"/>
     </row>
@@ -16859,16 +17183,14 @@
         <v>421</v>
       </c>
       <c r="C136" s="227" t="s">
-        <v>422</v>
+        <v>1176</v>
       </c>
       <c r="D136" s="228"/>
-      <c r="E136" s="223" t="str">
-        <f>PROPER('Activos fijos'!J138)</f>
-        <v>Adriana Gonzalez</v>
-      </c>
-      <c r="F136" s="223" t="str">
-        <f>PROPER('Activos fijos'!K138)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E136" t="s">
+        <v>973</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1020</v>
       </c>
       <c r="G136" s="230" t="s">
         <v>423</v>
@@ -16882,16 +17204,14 @@
         <v>424</v>
       </c>
       <c r="C137" s="223" t="s">
-        <v>422</v>
+        <v>1176</v>
       </c>
       <c r="D137" s="224"/>
-      <c r="E137" s="223" t="str">
-        <f>PROPER('Activos fijos'!J139)</f>
-        <v>Citlaly Ramirez</v>
-      </c>
-      <c r="F137" s="223" t="str">
-        <f>PROPER('Activos fijos'!K139)</f>
-        <v>Administracion</v>
+      <c r="E137" t="s">
+        <v>946</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1022</v>
       </c>
       <c r="G137" s="229" t="s">
         <v>423</v>
@@ -16905,16 +17225,14 @@
         <v>425</v>
       </c>
       <c r="C138" s="227" t="s">
-        <v>422</v>
+        <v>1176</v>
       </c>
       <c r="D138" s="228"/>
-      <c r="E138" s="223" t="str">
-        <f>PROPER('Activos fijos'!J140)</f>
-        <v>Alma Esparza</v>
-      </c>
-      <c r="F138" s="223" t="str">
-        <f>PROPER('Activos fijos'!K140)</f>
-        <v xml:space="preserve">Contabilidad </v>
+      <c r="E138" t="s">
+        <v>953</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1020</v>
       </c>
       <c r="G138" s="230" t="s">
         <v>423</v>
@@ -16928,16 +17246,14 @@
         <v>426</v>
       </c>
       <c r="C139" s="223" t="s">
-        <v>422</v>
+        <v>1176</v>
       </c>
       <c r="D139" s="224"/>
-      <c r="E139" s="223" t="str">
-        <f>PROPER('Activos fijos'!J141)</f>
-        <v>Raul</v>
-      </c>
-      <c r="F139" s="223" t="str">
-        <f>PROPER('Activos fijos'!K141)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E139" t="s">
+        <v>970</v>
+      </c>
+      <c r="F139" t="s">
+        <v>980</v>
       </c>
       <c r="G139" s="229" t="s">
         <v>423</v>
@@ -16947,20 +17263,18 @@
       <c r="A140">
         <v>140</v>
       </c>
-      <c r="B140" s="83" t="s">
+      <c r="B140" s="254" t="s">
         <v>427</v>
       </c>
       <c r="C140" s="227" t="s">
-        <v>428</v>
+        <v>1177</v>
       </c>
       <c r="D140" s="228"/>
-      <c r="E140" s="223" t="str">
-        <f>PROPER('Activos fijos'!J142)</f>
-        <v>En Obra Tocumo</v>
-      </c>
-      <c r="F140" s="223" t="str">
-        <f>PROPER('Activos fijos'!K142)</f>
-        <v>Jair Firmo Hoja De Información Donde Están</v>
+      <c r="E140" t="s">
+        <v>997</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1039</v>
       </c>
       <c r="G140" s="235">
         <v>45736</v>
@@ -16974,16 +17288,14 @@
         <v>431</v>
       </c>
       <c r="C141" s="223" t="s">
-        <v>428</v>
+        <v>1177</v>
       </c>
       <c r="D141" s="224"/>
-      <c r="E141" s="223" t="str">
-        <f>PROPER('Activos fijos'!J143)</f>
-        <v>Jose Ivan Romero</v>
-      </c>
-      <c r="F141" s="223" t="str">
-        <f>PROPER('Activos fijos'!K143)</f>
-        <v/>
+      <c r="E141" t="s">
+        <v>955</v>
+      </c>
+      <c r="F141" t="s">
+        <v>958</v>
       </c>
       <c r="G141" s="236">
         <v>45736</v>
@@ -16997,16 +17309,14 @@
         <v>432</v>
       </c>
       <c r="C142" s="227" t="s">
-        <v>433</v>
+        <v>1178</v>
       </c>
       <c r="D142" s="228"/>
-      <c r="E142" s="223" t="str">
-        <f>PROPER('Activos fijos'!J144)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F142" s="223" t="str">
-        <f>PROPER('Activos fijos'!K144)</f>
-        <v>Campo</v>
+      <c r="E142" t="s">
+        <v>956</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1025</v>
       </c>
       <c r="G142" s="237">
         <v>45762</v>
@@ -17016,20 +17326,18 @@
       <c r="A143">
         <v>143</v>
       </c>
-      <c r="B143" s="83" t="s">
+      <c r="B143" s="254" t="s">
         <v>434</v>
       </c>
       <c r="C143" s="223" t="s">
-        <v>435</v>
+        <v>1179</v>
       </c>
       <c r="D143" s="224"/>
-      <c r="E143" s="223" t="str">
-        <f>PROPER('Activos fijos'!J145)</f>
-        <v>En Oficina</v>
-      </c>
-      <c r="F143" s="223" t="str">
-        <f>PROPER('Activos fijos'!K145)</f>
-        <v>Jair Los Entrego El 08/4/2025</v>
+      <c r="E143" t="s">
+        <v>977</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1029</v>
       </c>
       <c r="G143" s="229" t="s">
         <v>436</v>
@@ -17043,16 +17351,14 @@
         <v>437</v>
       </c>
       <c r="C144" s="227" t="s">
-        <v>435</v>
+        <v>1179</v>
       </c>
       <c r="D144" s="228"/>
-      <c r="E144" s="223" t="str">
-        <f>PROPER('Activos fijos'!J146)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F144" s="223" t="str">
-        <f>PROPER('Activos fijos'!K146)</f>
-        <v/>
+      <c r="E144" t="s">
+        <v>956</v>
+      </c>
+      <c r="F144" t="s">
+        <v>958</v>
       </c>
       <c r="G144" s="41"/>
     </row>
@@ -17064,16 +17370,14 @@
         <v>438</v>
       </c>
       <c r="C145" s="223" t="s">
-        <v>435</v>
+        <v>1179</v>
       </c>
       <c r="D145" s="224"/>
-      <c r="E145" s="223" t="str">
-        <f>PROPER('Activos fijos'!J147)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F145" s="223" t="str">
-        <f>PROPER('Activos fijos'!K147)</f>
-        <v/>
+      <c r="E145" t="s">
+        <v>956</v>
+      </c>
+      <c r="F145" t="s">
+        <v>958</v>
       </c>
       <c r="G145" s="225"/>
     </row>
@@ -17085,16 +17389,14 @@
         <v>439</v>
       </c>
       <c r="C146" s="227" t="s">
-        <v>435</v>
+        <v>1179</v>
       </c>
       <c r="D146" s="228"/>
-      <c r="E146" s="223" t="str">
-        <f>PROPER('Activos fijos'!J148)</f>
-        <v>Octavio Vidales</v>
-      </c>
-      <c r="F146" s="223" t="str">
-        <f>PROPER('Activos fijos'!K148)</f>
-        <v>Segmento 4</v>
+      <c r="E146" t="s">
+        <v>998</v>
+      </c>
+      <c r="F146" t="s">
+        <v>961</v>
       </c>
       <c r="G146" s="41"/>
     </row>
@@ -17106,16 +17408,14 @@
         <v>441</v>
       </c>
       <c r="C147" s="223" t="s">
-        <v>435</v>
+        <v>1179</v>
       </c>
       <c r="D147" s="224"/>
-      <c r="E147" s="223" t="str">
-        <f>PROPER('Activos fijos'!J149)</f>
-        <v>Octavio Vidales</v>
-      </c>
-      <c r="F147" s="223" t="str">
-        <f>PROPER('Activos fijos'!K149)</f>
-        <v>Segmento 4</v>
+      <c r="E147" t="s">
+        <v>998</v>
+      </c>
+      <c r="F147" t="s">
+        <v>961</v>
       </c>
       <c r="G147" s="225"/>
     </row>
@@ -17127,16 +17427,14 @@
         <v>442</v>
       </c>
       <c r="C148" s="227" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D148" s="228"/>
-      <c r="E148" s="223" t="str">
-        <f>PROPER('Activos fijos'!J150)</f>
-        <v>Octavio Vidales</v>
-      </c>
-      <c r="F148" s="223" t="str">
-        <f>PROPER('Activos fijos'!K150)</f>
-        <v>Segmento 4</v>
+      <c r="E148" t="s">
+        <v>998</v>
+      </c>
+      <c r="F148" t="s">
+        <v>961</v>
       </c>
       <c r="G148" s="41"/>
     </row>
@@ -17148,16 +17446,14 @@
         <v>444</v>
       </c>
       <c r="C149" s="223" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D149" s="224"/>
-      <c r="E149" s="223" t="str">
-        <f>PROPER('Activos fijos'!J151)</f>
-        <v>Octavio Vidales</v>
-      </c>
-      <c r="F149" s="223" t="str">
-        <f>PROPER('Activos fijos'!K151)</f>
-        <v>Segmento 4</v>
+      <c r="E149" t="s">
+        <v>998</v>
+      </c>
+      <c r="F149" t="s">
+        <v>961</v>
       </c>
       <c r="G149" s="225"/>
     </row>
@@ -17169,16 +17465,14 @@
         <v>445</v>
       </c>
       <c r="C150" s="227" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D150" s="228"/>
-      <c r="E150" s="223" t="str">
-        <f>PROPER('Activos fijos'!J152)</f>
-        <v>Diana En Resguardo</v>
-      </c>
-      <c r="F150" s="223" t="str">
-        <f>PROPER('Activos fijos'!K152)</f>
-        <v/>
+      <c r="E150" t="s">
+        <v>999</v>
+      </c>
+      <c r="F150" t="s">
+        <v>958</v>
       </c>
       <c r="G150" s="41"/>
     </row>
@@ -17190,16 +17484,14 @@
         <v>447</v>
       </c>
       <c r="C151" s="223" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D151" s="224"/>
-      <c r="E151" s="223" t="str">
-        <f>PROPER('Activos fijos'!J153)</f>
-        <v>Diana En Resguardo</v>
-      </c>
-      <c r="F151" s="223" t="str">
-        <f>PROPER('Activos fijos'!K153)</f>
-        <v/>
+      <c r="E151" t="s">
+        <v>999</v>
+      </c>
+      <c r="F151" t="s">
+        <v>958</v>
       </c>
       <c r="G151" s="225"/>
     </row>
@@ -17211,16 +17503,14 @@
         <v>448</v>
       </c>
       <c r="C152" s="227" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D152" s="228"/>
-      <c r="E152" s="223" t="str">
-        <f>PROPER('Activos fijos'!J154)</f>
-        <v>Diana En Resguardo</v>
-      </c>
-      <c r="F152" s="223" t="str">
-        <f>PROPER('Activos fijos'!K154)</f>
-        <v/>
+      <c r="E152" t="s">
+        <v>999</v>
+      </c>
+      <c r="F152" t="s">
+        <v>958</v>
       </c>
       <c r="G152" s="41"/>
     </row>
@@ -17232,16 +17522,14 @@
         <v>449</v>
       </c>
       <c r="C153" s="223" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D153" s="224"/>
-      <c r="E153" s="223" t="str">
-        <f>PROPER('Activos fijos'!J155)</f>
-        <v>Diana En Resguardo</v>
-      </c>
-      <c r="F153" s="223" t="str">
-        <f>PROPER('Activos fijos'!K155)</f>
-        <v/>
+      <c r="E153" t="s">
+        <v>999</v>
+      </c>
+      <c r="F153" t="s">
+        <v>958</v>
       </c>
       <c r="G153" s="225"/>
     </row>
@@ -17253,16 +17541,14 @@
         <v>450</v>
       </c>
       <c r="C154" s="227" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D154" s="228"/>
-      <c r="E154" s="223" t="str">
-        <f>PROPER('Activos fijos'!J156)</f>
-        <v>Diana En Resguardo</v>
-      </c>
-      <c r="F154" s="223" t="str">
-        <f>PROPER('Activos fijos'!K156)</f>
-        <v/>
+      <c r="E154" t="s">
+        <v>999</v>
+      </c>
+      <c r="F154" t="s">
+        <v>958</v>
       </c>
       <c r="G154" s="41"/>
     </row>
@@ -17274,16 +17560,14 @@
         <v>451</v>
       </c>
       <c r="C155" s="223" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D155" s="224"/>
-      <c r="E155" s="223" t="str">
-        <f>PROPER('Activos fijos'!J157)</f>
-        <v>Diana En Resguardo</v>
-      </c>
-      <c r="F155" s="223" t="str">
-        <f>PROPER('Activos fijos'!K157)</f>
-        <v/>
+      <c r="E155" t="s">
+        <v>999</v>
+      </c>
+      <c r="F155" t="s">
+        <v>958</v>
       </c>
       <c r="G155" s="225"/>
     </row>
@@ -17295,16 +17579,14 @@
         <v>452</v>
       </c>
       <c r="C156" s="227" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D156" s="228"/>
-      <c r="E156" s="223" t="str">
-        <f>PROPER('Activos fijos'!J158)</f>
-        <v>Diana En Resguardo</v>
-      </c>
-      <c r="F156" s="223" t="str">
-        <f>PROPER('Activos fijos'!K158)</f>
-        <v/>
+      <c r="E156" t="s">
+        <v>999</v>
+      </c>
+      <c r="F156" t="s">
+        <v>958</v>
       </c>
       <c r="G156" s="41"/>
     </row>
@@ -17316,16 +17598,14 @@
         <v>453</v>
       </c>
       <c r="C157" s="223" t="s">
-        <v>443</v>
+        <v>1180</v>
       </c>
       <c r="D157" s="224"/>
-      <c r="E157" s="223" t="str">
-        <f>PROPER('Activos fijos'!J159)</f>
-        <v>Diana En Resguardo</v>
-      </c>
-      <c r="F157" s="223" t="str">
-        <f>PROPER('Activos fijos'!K159)</f>
-        <v/>
+      <c r="E157" t="s">
+        <v>999</v>
+      </c>
+      <c r="F157" t="s">
+        <v>958</v>
       </c>
       <c r="G157" s="225"/>
     </row>
@@ -17337,16 +17617,14 @@
         <v>459</v>
       </c>
       <c r="C158" s="227" t="s">
-        <v>460</v>
+        <v>1181</v>
       </c>
       <c r="D158" s="228"/>
-      <c r="E158" s="223" t="str">
-        <f>PROPER('Activos fijos'!J160)</f>
-        <v/>
-      </c>
-      <c r="F158" s="223" t="str">
-        <f>PROPER('Activos fijos'!K160)</f>
-        <v/>
+      <c r="E158" t="s">
+        <v>958</v>
+      </c>
+      <c r="F158" t="s">
+        <v>958</v>
       </c>
       <c r="G158" s="230"/>
     </row>
@@ -17358,16 +17636,14 @@
         <v>461</v>
       </c>
       <c r="C159" s="223" t="s">
-        <v>460</v>
+        <v>1181</v>
       </c>
       <c r="D159" s="224"/>
-      <c r="E159" s="223" t="str">
-        <f>PROPER('Activos fijos'!J161)</f>
-        <v/>
-      </c>
-      <c r="F159" s="223" t="str">
-        <f>PROPER('Activos fijos'!K161)</f>
-        <v/>
+      <c r="E159" t="s">
+        <v>958</v>
+      </c>
+      <c r="F159" t="s">
+        <v>958</v>
       </c>
       <c r="G159" s="229"/>
     </row>
@@ -17379,16 +17655,14 @@
         <v>462</v>
       </c>
       <c r="C160" s="227" t="s">
-        <v>460</v>
+        <v>1181</v>
       </c>
       <c r="D160" s="228"/>
-      <c r="E160" s="223" t="str">
-        <f>PROPER('Activos fijos'!J162)</f>
-        <v>Diana Pineda</v>
-      </c>
-      <c r="F160" s="223" t="str">
-        <f>PROPER('Activos fijos'!K162)</f>
-        <v xml:space="preserve">Recepcion </v>
+      <c r="E160" t="s">
+        <v>945</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1021</v>
       </c>
       <c r="G160" s="230"/>
     </row>
@@ -17400,16 +17674,14 @@
         <v>463</v>
       </c>
       <c r="C161" s="223" t="s">
-        <v>464</v>
+        <v>1182</v>
       </c>
       <c r="D161" s="224"/>
-      <c r="E161" s="223" t="str">
-        <f>PROPER('Activos fijos'!J163)</f>
-        <v>Adriana Gonzalez</v>
-      </c>
-      <c r="F161" s="223" t="str">
-        <f>PROPER('Activos fijos'!K163)</f>
-        <v>Contabilidad</v>
+      <c r="E161" t="s">
+        <v>973</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1034</v>
       </c>
       <c r="G161" s="229"/>
     </row>
@@ -17421,16 +17693,14 @@
         <v>466</v>
       </c>
       <c r="C162" s="227" t="s">
-        <v>467</v>
+        <v>1183</v>
       </c>
       <c r="D162" s="228"/>
-      <c r="E162" s="223" t="str">
-        <f>PROPER('Activos fijos'!J164)</f>
-        <v>Berenice Perez</v>
-      </c>
-      <c r="F162" s="223" t="str">
-        <f>PROPER('Activos fijos'!K164)</f>
-        <v/>
+      <c r="E162" t="s">
+        <v>947</v>
+      </c>
+      <c r="F162" t="s">
+        <v>958</v>
       </c>
       <c r="G162" s="230"/>
     </row>
@@ -17442,16 +17712,14 @@
         <v>468</v>
       </c>
       <c r="C163" s="223" t="s">
-        <v>469</v>
+        <v>1184</v>
       </c>
       <c r="D163" s="224"/>
-      <c r="E163" s="223" t="str">
-        <f>PROPER('Activos fijos'!J165)</f>
-        <v>Citlaly</v>
-      </c>
-      <c r="F163" s="223" t="str">
-        <f>PROPER('Activos fijos'!K165)</f>
-        <v>Administración</v>
+      <c r="E163" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1035</v>
       </c>
       <c r="G163" s="229"/>
     </row>
@@ -17463,16 +17731,14 @@
         <v>470</v>
       </c>
       <c r="C164" s="227" t="s">
-        <v>469</v>
+        <v>1184</v>
       </c>
       <c r="D164" s="228"/>
-      <c r="E164" s="223" t="str">
-        <f>PROPER('Activos fijos'!J166)</f>
-        <v>Cesar Bracamonte</v>
-      </c>
-      <c r="F164" s="223" t="str">
-        <f>PROPER('Activos fijos'!K166)</f>
-        <v>Contabilidad</v>
+      <c r="E164" t="s">
+        <v>966</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1034</v>
       </c>
       <c r="G164" s="230"/>
     </row>
@@ -17484,16 +17750,14 @@
         <v>472</v>
       </c>
       <c r="C165" s="223" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D165" s="224"/>
-      <c r="E165" s="223" t="str">
-        <f>PROPER('Activos fijos'!J167)</f>
-        <v>Citlaly Ramirez</v>
-      </c>
-      <c r="F165" s="223" t="str">
-        <f>PROPER('Activos fijos'!K167)</f>
-        <v>Administracion</v>
+      <c r="E165" t="s">
+        <v>946</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1022</v>
       </c>
       <c r="G165" s="229"/>
     </row>
@@ -17505,16 +17769,14 @@
         <v>474</v>
       </c>
       <c r="C166" s="227" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D166" s="228"/>
-      <c r="E166" s="223" t="str">
-        <f>PROPER('Activos fijos'!J168)</f>
-        <v xml:space="preserve">Citlaly Ramirez </v>
-      </c>
-      <c r="F166" s="223" t="str">
-        <f>PROPER('Activos fijos'!K168)</f>
-        <v>Administracion</v>
+      <c r="E166" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1022</v>
       </c>
       <c r="G166" s="230"/>
     </row>
@@ -17526,16 +17788,14 @@
         <v>475</v>
       </c>
       <c r="C167" s="223" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D167" s="224"/>
-      <c r="E167" s="223" t="str">
-        <f>PROPER('Activos fijos'!J169)</f>
-        <v/>
-      </c>
-      <c r="F167" s="223" t="str">
-        <f>PROPER('Activos fijos'!K169)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E167" t="s">
+        <v>958</v>
+      </c>
+      <c r="F167" t="s">
+        <v>948</v>
       </c>
       <c r="G167" s="229"/>
     </row>
@@ -17547,16 +17807,14 @@
         <v>476</v>
       </c>
       <c r="C168" s="227" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D168" s="228"/>
-      <c r="E168" s="223" t="str">
-        <f>PROPER('Activos fijos'!J170)</f>
-        <v/>
-      </c>
-      <c r="F168" s="223" t="str">
-        <f>PROPER('Activos fijos'!K170)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E168" t="s">
+        <v>958</v>
+      </c>
+      <c r="F168" t="s">
+        <v>948</v>
       </c>
       <c r="G168" s="230"/>
     </row>
@@ -17568,16 +17826,14 @@
         <v>477</v>
       </c>
       <c r="C169" s="223" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D169" s="224"/>
-      <c r="E169" s="223" t="str">
-        <f>PROPER('Activos fijos'!J171)</f>
-        <v/>
-      </c>
-      <c r="F169" s="223" t="str">
-        <f>PROPER('Activos fijos'!K171)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E169" t="s">
+        <v>958</v>
+      </c>
+      <c r="F169" t="s">
+        <v>948</v>
       </c>
       <c r="G169" s="229"/>
     </row>
@@ -17589,16 +17845,14 @@
         <v>478</v>
       </c>
       <c r="C170" s="227" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D170" s="228"/>
-      <c r="E170" s="223" t="str">
-        <f>PROPER('Activos fijos'!J172)</f>
-        <v/>
-      </c>
-      <c r="F170" s="223" t="str">
-        <f>PROPER('Activos fijos'!K172)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E170" t="s">
+        <v>958</v>
+      </c>
+      <c r="F170" t="s">
+        <v>948</v>
       </c>
       <c r="G170" s="230"/>
     </row>
@@ -17610,16 +17864,14 @@
         <v>479</v>
       </c>
       <c r="C171" s="223" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D171" s="224"/>
-      <c r="E171" s="223" t="str">
-        <f>PROPER('Activos fijos'!J173)</f>
-        <v/>
-      </c>
-      <c r="F171" s="223" t="str">
-        <f>PROPER('Activos fijos'!K173)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E171" t="s">
+        <v>958</v>
+      </c>
+      <c r="F171" t="s">
+        <v>948</v>
       </c>
       <c r="G171" s="229"/>
     </row>
@@ -17631,16 +17883,14 @@
         <v>480</v>
       </c>
       <c r="C172" s="227" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D172" s="228"/>
-      <c r="E172" s="223" t="str">
-        <f>PROPER('Activos fijos'!J174)</f>
-        <v/>
-      </c>
-      <c r="F172" s="223" t="str">
-        <f>PROPER('Activos fijos'!K174)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E172" t="s">
+        <v>958</v>
+      </c>
+      <c r="F172" t="s">
+        <v>948</v>
       </c>
       <c r="G172" s="230"/>
     </row>
@@ -17652,16 +17902,14 @@
         <v>481</v>
       </c>
       <c r="C173" s="223" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D173" s="224"/>
-      <c r="E173" s="223" t="str">
-        <f>PROPER('Activos fijos'!J175)</f>
-        <v/>
-      </c>
-      <c r="F173" s="223" t="str">
-        <f>PROPER('Activos fijos'!K175)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E173" t="s">
+        <v>958</v>
+      </c>
+      <c r="F173" t="s">
+        <v>948</v>
       </c>
       <c r="G173" s="229"/>
     </row>
@@ -17673,16 +17921,14 @@
         <v>482</v>
       </c>
       <c r="C174" s="227" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D174" s="228"/>
-      <c r="E174" s="223" t="str">
-        <f>PROPER('Activos fijos'!J176)</f>
-        <v/>
-      </c>
-      <c r="F174" s="223" t="str">
-        <f>PROPER('Activos fijos'!K176)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E174" t="s">
+        <v>958</v>
+      </c>
+      <c r="F174" t="s">
+        <v>948</v>
       </c>
       <c r="G174" s="230"/>
     </row>
@@ -17694,16 +17940,14 @@
         <v>483</v>
       </c>
       <c r="C175" s="240" t="s">
-        <v>484</v>
+        <v>1186</v>
       </c>
       <c r="D175" s="224"/>
-      <c r="E175" s="223" t="str">
-        <f>PROPER('Activos fijos'!J177)</f>
-        <v/>
-      </c>
-      <c r="F175" s="223" t="str">
-        <f>PROPER('Activos fijos'!K177)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E175" t="s">
+        <v>958</v>
+      </c>
+      <c r="F175" t="s">
+        <v>948</v>
       </c>
       <c r="G175" s="229"/>
     </row>
@@ -17715,16 +17959,14 @@
         <v>485</v>
       </c>
       <c r="C176" s="227" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D176" s="228"/>
-      <c r="E176" s="223" t="str">
-        <f>PROPER('Activos fijos'!J178)</f>
-        <v/>
-      </c>
-      <c r="F176" s="223" t="str">
-        <f>PROPER('Activos fijos'!K178)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E176" t="s">
+        <v>958</v>
+      </c>
+      <c r="F176" t="s">
+        <v>948</v>
       </c>
       <c r="G176" s="230"/>
     </row>
@@ -17736,16 +17978,14 @@
         <v>486</v>
       </c>
       <c r="C177" s="223" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D177" s="224"/>
-      <c r="E177" s="223" t="str">
-        <f>PROPER('Activos fijos'!J179)</f>
-        <v>Diana Pineda</v>
-      </c>
-      <c r="F177" s="223" t="str">
-        <f>PROPER('Activos fijos'!K179)</f>
-        <v xml:space="preserve">Recepcion </v>
+      <c r="E177" t="s">
+        <v>945</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1021</v>
       </c>
       <c r="G177" s="229"/>
     </row>
@@ -17757,16 +17997,14 @@
         <v>487</v>
       </c>
       <c r="C178" s="227" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D178" s="228"/>
-      <c r="E178" s="223" t="str">
-        <f>PROPER('Activos fijos'!J180)</f>
-        <v>Alan Frias</v>
-      </c>
-      <c r="F178" s="223" t="str">
-        <f>PROPER('Activos fijos'!K180)</f>
-        <v>Planta Baja</v>
+      <c r="E178" t="s">
+        <v>971</v>
+      </c>
+      <c r="F178" t="s">
+        <v>952</v>
       </c>
       <c r="G178" s="230"/>
     </row>
@@ -17778,16 +18016,14 @@
         <v>488</v>
       </c>
       <c r="C179" s="223" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D179" s="224"/>
-      <c r="E179" s="223" t="str">
-        <f>PROPER('Activos fijos'!J181)</f>
-        <v/>
-      </c>
-      <c r="F179" s="223" t="str">
-        <f>PROPER('Activos fijos'!K181)</f>
-        <v>Sala De Juntas Planta Baja</v>
+      <c r="E179" t="s">
+        <v>958</v>
+      </c>
+      <c r="F179" t="s">
+        <v>991</v>
       </c>
       <c r="G179" s="229"/>
     </row>
@@ -17799,16 +18035,14 @@
         <v>489</v>
       </c>
       <c r="C180" s="227" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D180" s="228"/>
-      <c r="E180" s="223" t="str">
-        <f>PROPER('Activos fijos'!J182)</f>
-        <v/>
-      </c>
-      <c r="F180" s="223" t="str">
-        <f>PROPER('Activos fijos'!K182)</f>
-        <v>Sala De Juntas Planta Baja</v>
+      <c r="E180" t="s">
+        <v>958</v>
+      </c>
+      <c r="F180" t="s">
+        <v>991</v>
       </c>
       <c r="G180" s="230"/>
     </row>
@@ -17820,16 +18054,14 @@
         <v>490</v>
       </c>
       <c r="C181" s="223" t="s">
-        <v>491</v>
+        <v>1187</v>
       </c>
       <c r="D181" s="224"/>
-      <c r="E181" s="223" t="str">
-        <f>PROPER('Activos fijos'!J183)</f>
-        <v/>
-      </c>
-      <c r="F181" s="223" t="str">
-        <f>PROPER('Activos fijos'!K183)</f>
-        <v>Sala De Juntas Planta Baja</v>
+      <c r="E181" t="s">
+        <v>958</v>
+      </c>
+      <c r="F181" t="s">
+        <v>991</v>
       </c>
       <c r="G181" s="229"/>
     </row>
@@ -17841,16 +18073,14 @@
         <v>492</v>
       </c>
       <c r="C182" s="227" t="s">
-        <v>491</v>
+        <v>1187</v>
       </c>
       <c r="D182" s="228"/>
-      <c r="E182" s="223" t="str">
-        <f>PROPER('Activos fijos'!J184)</f>
-        <v/>
-      </c>
-      <c r="F182" s="223" t="str">
-        <f>PROPER('Activos fijos'!K184)</f>
-        <v>Sala De Juntas Planta Baja</v>
+      <c r="E182" t="s">
+        <v>958</v>
+      </c>
+      <c r="F182" t="s">
+        <v>991</v>
       </c>
       <c r="G182" s="230"/>
     </row>
@@ -17862,16 +18092,14 @@
         <v>493</v>
       </c>
       <c r="C183" s="223" t="s">
-        <v>491</v>
+        <v>1187</v>
       </c>
       <c r="D183" s="224"/>
-      <c r="E183" s="223" t="str">
-        <f>PROPER('Activos fijos'!J185)</f>
-        <v/>
-      </c>
-      <c r="F183" s="223" t="str">
-        <f>PROPER('Activos fijos'!K185)</f>
-        <v>Planta Baja</v>
+      <c r="E183" t="s">
+        <v>958</v>
+      </c>
+      <c r="F183" t="s">
+        <v>952</v>
       </c>
       <c r="G183" s="229"/>
     </row>
@@ -17883,16 +18111,14 @@
         <v>494</v>
       </c>
       <c r="C184" s="227" t="s">
-        <v>491</v>
+        <v>1187</v>
       </c>
       <c r="D184" s="228"/>
-      <c r="E184" s="223" t="str">
-        <f>PROPER('Activos fijos'!J186)</f>
-        <v/>
-      </c>
-      <c r="F184" s="223" t="str">
-        <f>PROPER('Activos fijos'!K186)</f>
-        <v>Planta Baja</v>
+      <c r="E184" t="s">
+        <v>958</v>
+      </c>
+      <c r="F184" t="s">
+        <v>952</v>
       </c>
       <c r="G184" s="230"/>
     </row>
@@ -17904,16 +18130,14 @@
         <v>495</v>
       </c>
       <c r="C185" s="223" t="s">
-        <v>496</v>
+        <v>1188</v>
       </c>
       <c r="D185" s="224"/>
-      <c r="E185" s="223" t="str">
-        <f>PROPER('Activos fijos'!J187)</f>
-        <v/>
-      </c>
-      <c r="F185" s="223" t="str">
-        <f>PROPER('Activos fijos'!K187)</f>
-        <v>Planta Baja</v>
+      <c r="E185" t="s">
+        <v>958</v>
+      </c>
+      <c r="F185" t="s">
+        <v>952</v>
       </c>
       <c r="G185" s="229"/>
     </row>
@@ -17925,16 +18149,14 @@
         <v>498</v>
       </c>
       <c r="C186" s="227" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D186" s="228"/>
-      <c r="E186" s="223" t="str">
-        <f>PROPER('Activos fijos'!J188)</f>
-        <v/>
-      </c>
-      <c r="F186" s="223" t="str">
-        <f>PROPER('Activos fijos'!K188)</f>
-        <v>Planta Baja</v>
+      <c r="E186" t="s">
+        <v>958</v>
+      </c>
+      <c r="F186" t="s">
+        <v>952</v>
       </c>
       <c r="G186" s="230"/>
     </row>
@@ -17946,16 +18168,14 @@
         <v>499</v>
       </c>
       <c r="C187" s="223" t="s">
-        <v>500</v>
+        <v>1189</v>
       </c>
       <c r="D187" s="224"/>
-      <c r="E187" s="223" t="str">
-        <f>PROPER('Activos fijos'!J189)</f>
-        <v>Fernando</v>
-      </c>
-      <c r="F187" s="223" t="str">
-        <f>PROPER('Activos fijos'!K189)</f>
-        <v>Estimaciones</v>
+      <c r="E187" t="s">
+        <v>968</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1040</v>
       </c>
       <c r="G187" s="229"/>
     </row>
@@ -17967,16 +18187,14 @@
         <v>501</v>
       </c>
       <c r="C188" s="227" t="s">
-        <v>500</v>
+        <v>1189</v>
       </c>
       <c r="D188" s="228"/>
-      <c r="E188" s="223" t="str">
-        <f>PROPER('Activos fijos'!J190)</f>
-        <v>Alma Esparza</v>
-      </c>
-      <c r="F188" s="223" t="str">
-        <f>PROPER('Activos fijos'!K190)</f>
-        <v>Contabilidad</v>
+      <c r="E188" t="s">
+        <v>953</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1034</v>
       </c>
       <c r="G188" s="230"/>
     </row>
@@ -17988,16 +18206,14 @@
         <v>502</v>
       </c>
       <c r="C189" s="223" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D189" s="224"/>
-      <c r="E189" s="223" t="str">
-        <f>PROPER('Activos fijos'!J191)</f>
-        <v>Vidales</v>
-      </c>
-      <c r="F189" s="223" t="str">
-        <f>PROPER('Activos fijos'!K191)</f>
-        <v>Jefe De Ingenieros</v>
+      <c r="E189" t="s">
+        <v>935</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1038</v>
       </c>
       <c r="G189" s="229"/>
     </row>
@@ -18009,16 +18225,14 @@
         <v>504</v>
       </c>
       <c r="C190" s="227" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D190" s="228"/>
-      <c r="E190" s="223" t="str">
-        <f>PROPER('Activos fijos'!J192)</f>
-        <v>Vidales</v>
-      </c>
-      <c r="F190" s="223" t="str">
-        <f>PROPER('Activos fijos'!K192)</f>
-        <v>Jefe De Ingenieros</v>
+      <c r="E190" t="s">
+        <v>935</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1038</v>
       </c>
       <c r="G190" s="230"/>
     </row>
@@ -18030,16 +18244,14 @@
         <v>507</v>
       </c>
       <c r="C191" s="223" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D191" s="224"/>
-      <c r="E191" s="223" t="str">
-        <f>PROPER('Activos fijos'!J193)</f>
-        <v>Vidales</v>
-      </c>
-      <c r="F191" s="223" t="str">
-        <f>PROPER('Activos fijos'!K193)</f>
-        <v>Jefe De Ingenieros</v>
+      <c r="E191" t="s">
+        <v>935</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1038</v>
       </c>
       <c r="G191" s="229"/>
     </row>
@@ -18051,16 +18263,14 @@
         <v>508</v>
       </c>
       <c r="C192" s="227" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D192" s="228"/>
-      <c r="E192" s="223" t="str">
-        <f>PROPER('Activos fijos'!J194)</f>
-        <v>Ingenieros</v>
-      </c>
-      <c r="F192" s="223" t="str">
-        <f>PROPER('Activos fijos'!K194)</f>
-        <v>Cocina Planta Baja</v>
+      <c r="E192" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F192" t="s">
+        <v>994</v>
       </c>
       <c r="G192" s="230"/>
     </row>
@@ -18072,16 +18282,14 @@
         <v>509</v>
       </c>
       <c r="C193" s="223" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D193" s="224"/>
-      <c r="E193" s="223" t="str">
-        <f>PROPER('Activos fijos'!J195)</f>
-        <v>Ingenieros</v>
-      </c>
-      <c r="F193" s="223" t="str">
-        <f>PROPER('Activos fijos'!K195)</f>
-        <v>Cocina Planta Baja</v>
+      <c r="E193" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F193" t="s">
+        <v>994</v>
       </c>
       <c r="G193" s="229"/>
     </row>
@@ -18093,16 +18301,14 @@
         <v>510</v>
       </c>
       <c r="C194" s="227" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D194" s="228"/>
-      <c r="E194" s="223" t="str">
-        <f>PROPER('Activos fijos'!J196)</f>
-        <v>Ingenieros</v>
-      </c>
-      <c r="F194" s="223" t="str">
-        <f>PROPER('Activos fijos'!K196)</f>
-        <v>Cocina Planta Baja</v>
+      <c r="E194" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F194" t="s">
+        <v>994</v>
       </c>
       <c r="G194" s="230"/>
     </row>
@@ -18114,16 +18320,14 @@
         <v>511</v>
       </c>
       <c r="C195" s="223" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D195" s="224"/>
-      <c r="E195" s="223" t="str">
-        <f>PROPER('Activos fijos'!J197)</f>
-        <v>Ingenieros</v>
-      </c>
-      <c r="F195" s="223" t="str">
-        <f>PROPER('Activos fijos'!K197)</f>
-        <v>Cocina Planta Baja</v>
+      <c r="E195" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F195" t="s">
+        <v>994</v>
       </c>
       <c r="G195" s="229"/>
     </row>
@@ -18135,16 +18339,14 @@
         <v>512</v>
       </c>
       <c r="C196" s="227" t="s">
-        <v>513</v>
+        <v>1192</v>
       </c>
       <c r="D196" s="228"/>
-      <c r="E196" s="223" t="str">
-        <f>PROPER('Activos fijos'!J198)</f>
-        <v>Ingenieros</v>
-      </c>
-      <c r="F196" s="223" t="str">
-        <f>PROPER('Activos fijos'!K198)</f>
-        <v>Cocina Planta Baja</v>
+      <c r="E196" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F196" t="s">
+        <v>994</v>
       </c>
       <c r="G196" s="230"/>
     </row>
@@ -18156,16 +18358,14 @@
         <v>514</v>
       </c>
       <c r="C197" s="223" t="s">
-        <v>515</v>
+        <v>1193</v>
       </c>
       <c r="D197" s="224"/>
-      <c r="E197" s="223" t="str">
-        <f>PROPER('Activos fijos'!J199)</f>
-        <v>Ingenieros</v>
-      </c>
-      <c r="F197" s="223" t="str">
-        <f>PROPER('Activos fijos'!K199)</f>
-        <v>Cocina Planta Baja</v>
+      <c r="E197" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F197" t="s">
+        <v>994</v>
       </c>
       <c r="G197" s="229"/>
     </row>
@@ -18177,16 +18377,14 @@
         <v>517</v>
       </c>
       <c r="C198" s="227" t="s">
-        <v>518</v>
+        <v>1194</v>
       </c>
       <c r="D198" s="228"/>
-      <c r="E198" s="223" t="str">
-        <f>PROPER('Activos fijos'!J200)</f>
-        <v>Citlaly Ramirez</v>
-      </c>
-      <c r="F198" s="223" t="str">
-        <f>PROPER('Activos fijos'!K200)</f>
-        <v>Administracion</v>
+      <c r="E198" t="s">
+        <v>946</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1022</v>
       </c>
       <c r="G198" s="230"/>
     </row>
@@ -18198,16 +18396,14 @@
         <v>520</v>
       </c>
       <c r="C199" s="223" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D199" s="224"/>
-      <c r="E199" s="223" t="str">
-        <f>PROPER('Activos fijos'!J201)</f>
-        <v>Jaime</v>
-      </c>
-      <c r="F199" s="223" t="str">
-        <f>PROPER('Activos fijos'!K201)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E199" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F199" t="s">
+        <v>980</v>
       </c>
       <c r="G199" s="229"/>
     </row>
@@ -18219,16 +18415,14 @@
         <v>522</v>
       </c>
       <c r="C200" s="227" t="s">
-        <v>523</v>
+        <v>1195</v>
       </c>
       <c r="D200" s="228"/>
-      <c r="E200" s="223" t="str">
-        <f>PROPER('Activos fijos'!J202)</f>
-        <v>Indra Rodriguez</v>
-      </c>
-      <c r="F200" s="223" t="str">
-        <f>PROPER('Activos fijos'!K202)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E200" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F200" t="s">
+        <v>980</v>
       </c>
       <c r="G200" s="230"/>
     </row>
@@ -18240,16 +18434,14 @@
         <v>524</v>
       </c>
       <c r="C201" s="223" t="s">
-        <v>523</v>
+        <v>1195</v>
       </c>
       <c r="D201" s="224"/>
-      <c r="E201" s="223" t="str">
-        <f>PROPER('Activos fijos'!J203)</f>
-        <v>Yamileth Barajas</v>
-      </c>
-      <c r="F201" s="223" t="str">
-        <f>PROPER('Activos fijos'!K203)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E201" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F201" t="s">
+        <v>980</v>
       </c>
       <c r="G201" s="229"/>
     </row>
@@ -18261,16 +18453,14 @@
         <v>525</v>
       </c>
       <c r="C202" s="227" t="s">
-        <v>523</v>
+        <v>1195</v>
       </c>
       <c r="D202" s="228"/>
-      <c r="E202" s="223" t="str">
-        <f>PROPER('Activos fijos'!J204)</f>
-        <v/>
-      </c>
-      <c r="F202" s="223" t="str">
-        <f>PROPER('Activos fijos'!K204)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E202" t="s">
+        <v>958</v>
+      </c>
+      <c r="F202" t="s">
+        <v>980</v>
       </c>
       <c r="G202" s="230"/>
     </row>
@@ -18282,16 +18472,14 @@
         <v>526</v>
       </c>
       <c r="C203" s="223" t="s">
-        <v>523</v>
+        <v>1195</v>
       </c>
       <c r="D203" s="224"/>
-      <c r="E203" s="223" t="str">
-        <f>PROPER('Activos fijos'!J205)</f>
-        <v/>
-      </c>
-      <c r="F203" s="223" t="str">
-        <f>PROPER('Activos fijos'!K205)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E203" t="s">
+        <v>958</v>
+      </c>
+      <c r="F203" t="s">
+        <v>980</v>
       </c>
       <c r="G203" s="229"/>
     </row>
@@ -18303,16 +18491,14 @@
         <v>527</v>
       </c>
       <c r="C204" s="227" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D204" s="228"/>
-      <c r="E204" s="223" t="str">
-        <f>PROPER('Activos fijos'!J206)</f>
-        <v/>
-      </c>
-      <c r="F204" s="223" t="str">
-        <f>PROPER('Activos fijos'!K206)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E204" t="s">
+        <v>958</v>
+      </c>
+      <c r="F204" t="s">
+        <v>980</v>
       </c>
       <c r="G204" s="230"/>
     </row>
@@ -18324,16 +18510,14 @@
         <v>528</v>
       </c>
       <c r="C205" s="223" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D205" s="224"/>
-      <c r="E205" s="223" t="str">
-        <f>PROPER('Activos fijos'!J207)</f>
-        <v/>
-      </c>
-      <c r="F205" s="223" t="str">
-        <f>PROPER('Activos fijos'!K207)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E205" t="s">
+        <v>958</v>
+      </c>
+      <c r="F205" t="s">
+        <v>980</v>
       </c>
       <c r="G205" s="229"/>
     </row>
@@ -18345,16 +18529,14 @@
         <v>530</v>
       </c>
       <c r="C206" s="227" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D206" s="228"/>
-      <c r="E206" s="223" t="str">
-        <f>PROPER('Activos fijos'!J208)</f>
-        <v>Ricardo Saucedo</v>
-      </c>
-      <c r="F206" s="223" t="str">
-        <f>PROPER('Activos fijos'!K208)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E206" t="s">
+        <v>979</v>
+      </c>
+      <c r="F206" t="s">
+        <v>980</v>
       </c>
       <c r="G206" s="230"/>
     </row>
@@ -18366,16 +18548,14 @@
         <v>532</v>
       </c>
       <c r="C207" s="223" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D207" s="224"/>
-      <c r="E207" s="223" t="str">
-        <f>PROPER('Activos fijos'!J209)</f>
-        <v>Mariana Pérez</v>
-      </c>
-      <c r="F207" s="223" t="str">
-        <f>PROPER('Activos fijos'!K209)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E207" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F207" t="s">
+        <v>980</v>
       </c>
       <c r="G207" s="229"/>
     </row>
@@ -18387,16 +18567,14 @@
         <v>533</v>
       </c>
       <c r="C208" s="227" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D208" s="228"/>
-      <c r="E208" s="223" t="str">
-        <f>PROPER('Activos fijos'!J210)</f>
-        <v>Jhony</v>
-      </c>
-      <c r="F208" s="223" t="str">
-        <f>PROPER('Activos fijos'!K210)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E208" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F208" t="s">
+        <v>980</v>
       </c>
       <c r="G208" s="230"/>
     </row>
@@ -18408,16 +18586,14 @@
         <v>535</v>
       </c>
       <c r="C209" s="223" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D209" s="224"/>
-      <c r="E209" s="223" t="str">
-        <f>PROPER('Activos fijos'!J211)</f>
-        <v>Artemio</v>
-      </c>
-      <c r="F209" s="223" t="str">
-        <f>PROPER('Activos fijos'!K211)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E209" t="s">
+        <v>963</v>
+      </c>
+      <c r="F209" t="s">
+        <v>980</v>
       </c>
       <c r="G209" s="229"/>
     </row>
@@ -18429,16 +18605,14 @@
         <v>536</v>
       </c>
       <c r="C210" s="227" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D210" s="228"/>
-      <c r="E210" s="223" t="str">
-        <f>PROPER('Activos fijos'!J212)</f>
-        <v>Eduardo Gordillo</v>
-      </c>
-      <c r="F210" s="223" t="str">
-        <f>PROPER('Activos fijos'!K212)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E210" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F210" t="s">
+        <v>980</v>
       </c>
       <c r="G210" s="230"/>
     </row>
@@ -18450,16 +18624,14 @@
         <v>538</v>
       </c>
       <c r="C211" s="223" t="s">
-        <v>539</v>
+        <v>1196</v>
       </c>
       <c r="D211" s="224"/>
-      <c r="E211" s="223" t="str">
-        <f>PROPER('Activos fijos'!J213)</f>
-        <v>Bruno Figueroa</v>
-      </c>
-      <c r="F211" s="223" t="str">
-        <f>PROPER('Activos fijos'!K213)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E211" t="s">
+        <v>987</v>
+      </c>
+      <c r="F211" t="s">
+        <v>980</v>
       </c>
       <c r="G211" s="229"/>
     </row>
@@ -18471,16 +18643,14 @@
         <v>541</v>
       </c>
       <c r="C212" s="227" t="s">
-        <v>469</v>
+        <v>1184</v>
       </c>
       <c r="D212" s="228"/>
-      <c r="E212" s="223" t="str">
-        <f>PROPER('Activos fijos'!J214)</f>
-        <v>Efrain Morales</v>
-      </c>
-      <c r="F212" s="223" t="str">
-        <f>PROPER('Activos fijos'!K214)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E212" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F212" t="s">
+        <v>980</v>
       </c>
       <c r="G212" s="230"/>
     </row>
@@ -18492,16 +18662,14 @@
         <v>543</v>
       </c>
       <c r="C213" s="223" t="s">
-        <v>467</v>
+        <v>1183</v>
       </c>
       <c r="D213" s="224"/>
-      <c r="E213" s="223" t="str">
-        <f>PROPER('Activos fijos'!J215)</f>
-        <v>Juan Padilla</v>
-      </c>
-      <c r="F213" s="223" t="str">
-        <f>PROPER('Activos fijos'!K215)</f>
-        <v>Oficina Juan Padilla Visita 1</v>
+      <c r="E213" t="s">
+        <v>992</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1041</v>
       </c>
       <c r="G213" s="229"/>
     </row>
@@ -18513,16 +18681,14 @@
         <v>544</v>
       </c>
       <c r="C214" s="227" t="s">
-        <v>469</v>
+        <v>1184</v>
       </c>
       <c r="D214" s="228"/>
-      <c r="E214" s="223" t="str">
-        <f>PROPER('Activos fijos'!J216)</f>
-        <v>Juan Padilla</v>
-      </c>
-      <c r="F214" s="223" t="str">
-        <f>PROPER('Activos fijos'!K216)</f>
-        <v>Oficina Juan Padilla Visita 2</v>
+      <c r="E214" t="s">
+        <v>992</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1042</v>
       </c>
       <c r="G214" s="230"/>
     </row>
@@ -18534,16 +18700,14 @@
         <v>547</v>
       </c>
       <c r="C215" s="223" t="s">
-        <v>469</v>
+        <v>1184</v>
       </c>
       <c r="D215" s="224"/>
-      <c r="E215" s="223" t="str">
-        <f>PROPER('Activos fijos'!J217)</f>
-        <v>Juan Padilla</v>
-      </c>
-      <c r="F215" s="223" t="str">
-        <f>PROPER('Activos fijos'!K217)</f>
-        <v>Oficina Juan Padilla</v>
+      <c r="E215" t="s">
+        <v>992</v>
+      </c>
+      <c r="F215" t="s">
+        <v>949</v>
       </c>
       <c r="G215" s="229"/>
     </row>
@@ -18555,16 +18719,14 @@
         <v>549</v>
       </c>
       <c r="C216" s="227" t="s">
-        <v>550</v>
+        <v>1197</v>
       </c>
       <c r="D216" s="228"/>
-      <c r="E216" s="223" t="str">
-        <f>PROPER('Activos fijos'!J218)</f>
-        <v>Gildardo Padilla</v>
-      </c>
-      <c r="F216" s="223" t="str">
-        <f>PROPER('Activos fijos'!K218)</f>
-        <v>Oficina Gildardo Padilla Visita 1</v>
+      <c r="E216" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1043</v>
       </c>
       <c r="G216" s="230"/>
     </row>
@@ -18576,16 +18738,14 @@
         <v>551</v>
       </c>
       <c r="C217" s="223" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D217" s="224"/>
-      <c r="E217" s="223" t="str">
-        <f>PROPER('Activos fijos'!J219)</f>
-        <v>Gildardo Padilla</v>
-      </c>
-      <c r="F217" s="223" t="str">
-        <f>PROPER('Activos fijos'!K219)</f>
-        <v>Oficina Gildardo Padilla Visita 2</v>
+      <c r="E217" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1044</v>
       </c>
       <c r="G217" s="229"/>
     </row>
@@ -18597,16 +18757,14 @@
         <v>552</v>
       </c>
       <c r="C218" s="227" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D218" s="228"/>
-      <c r="E218" s="223" t="str">
-        <f>PROPER('Activos fijos'!J220)</f>
-        <v>Gildardo Padilla</v>
-      </c>
-      <c r="F218" s="223" t="str">
-        <f>PROPER('Activos fijos'!K220)</f>
-        <v>Oficina Gildardo Padilla</v>
+      <c r="E218" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F218" t="s">
+        <v>950</v>
       </c>
       <c r="G218" s="230"/>
     </row>
@@ -18618,16 +18776,14 @@
         <v>553</v>
       </c>
       <c r="C219" s="223" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D219" s="224"/>
-      <c r="E219" s="223" t="str">
-        <f>PROPER('Activos fijos'!J221)</f>
-        <v/>
-      </c>
-      <c r="F219" s="223" t="str">
-        <f>PROPER('Activos fijos'!K221)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E219" t="s">
+        <v>958</v>
+      </c>
+      <c r="F219" t="s">
+        <v>957</v>
       </c>
       <c r="G219" s="229"/>
     </row>
@@ -18639,16 +18795,14 @@
         <v>554</v>
       </c>
       <c r="C220" s="227" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D220" s="228"/>
-      <c r="E220" s="223" t="str">
-        <f>PROPER('Activos fijos'!J222)</f>
-        <v/>
-      </c>
-      <c r="F220" s="223" t="str">
-        <f>PROPER('Activos fijos'!K222)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E220" t="s">
+        <v>958</v>
+      </c>
+      <c r="F220" t="s">
+        <v>957</v>
       </c>
       <c r="G220" s="230"/>
     </row>
@@ -18660,16 +18814,14 @@
         <v>555</v>
       </c>
       <c r="C221" s="223" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D221" s="224"/>
-      <c r="E221" s="223" t="str">
-        <f>PROPER('Activos fijos'!J223)</f>
-        <v/>
-      </c>
-      <c r="F221" s="223" t="str">
-        <f>PROPER('Activos fijos'!K223)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E221" t="s">
+        <v>958</v>
+      </c>
+      <c r="F221" t="s">
+        <v>957</v>
       </c>
       <c r="G221" s="229"/>
     </row>
@@ -18681,16 +18833,14 @@
         <v>556</v>
       </c>
       <c r="C222" s="227" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D222" s="228"/>
-      <c r="E222" s="223" t="str">
-        <f>PROPER('Activos fijos'!J224)</f>
-        <v/>
-      </c>
-      <c r="F222" s="223" t="str">
-        <f>PROPER('Activos fijos'!K224)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E222" t="s">
+        <v>958</v>
+      </c>
+      <c r="F222" t="s">
+        <v>957</v>
       </c>
       <c r="G222" s="230"/>
     </row>
@@ -18702,16 +18852,14 @@
         <v>557</v>
       </c>
       <c r="C223" s="223" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D223" s="224"/>
-      <c r="E223" s="223" t="str">
-        <f>PROPER('Activos fijos'!J225)</f>
-        <v/>
-      </c>
-      <c r="F223" s="223" t="str">
-        <f>PROPER('Activos fijos'!K225)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E223" t="s">
+        <v>958</v>
+      </c>
+      <c r="F223" t="s">
+        <v>957</v>
       </c>
       <c r="G223" s="241"/>
     </row>
@@ -18723,16 +18871,14 @@
         <v>558</v>
       </c>
       <c r="C224" s="227" t="s">
-        <v>505</v>
+        <v>1191</v>
       </c>
       <c r="D224" s="228"/>
-      <c r="E224" s="223" t="str">
-        <f>PROPER('Activos fijos'!J226)</f>
-        <v/>
-      </c>
-      <c r="F224" s="223" t="str">
-        <f>PROPER('Activos fijos'!K226)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E224" t="s">
+        <v>958</v>
+      </c>
+      <c r="F224" t="s">
+        <v>957</v>
       </c>
       <c r="G224" s="242"/>
     </row>
@@ -18744,16 +18890,14 @@
         <v>559</v>
       </c>
       <c r="C225" s="223" t="s">
-        <v>491</v>
+        <v>1187</v>
       </c>
       <c r="D225" s="224"/>
-      <c r="E225" s="223" t="str">
-        <f>PROPER('Activos fijos'!J227)</f>
-        <v/>
-      </c>
-      <c r="F225" s="223" t="str">
-        <f>PROPER('Activos fijos'!K227)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E225" t="s">
+        <v>958</v>
+      </c>
+      <c r="F225" t="s">
+        <v>957</v>
       </c>
       <c r="G225" s="241"/>
     </row>
@@ -18765,16 +18909,14 @@
         <v>560</v>
       </c>
       <c r="C226" s="227" t="s">
-        <v>513</v>
+        <v>1192</v>
       </c>
       <c r="D226" s="228"/>
-      <c r="E226" s="223" t="str">
-        <f>PROPER('Activos fijos'!J228)</f>
-        <v/>
-      </c>
-      <c r="F226" s="223" t="str">
-        <f>PROPER('Activos fijos'!K228)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E226" t="s">
+        <v>958</v>
+      </c>
+      <c r="F226" t="s">
+        <v>957</v>
       </c>
       <c r="G226" s="242"/>
     </row>
@@ -18786,16 +18928,14 @@
         <v>561</v>
       </c>
       <c r="C227" s="232" t="s">
-        <v>562</v>
+        <v>1198</v>
       </c>
       <c r="D227" s="224"/>
-      <c r="E227" s="223" t="str">
-        <f>PROPER('Activos fijos'!J229)</f>
-        <v>Citlaly Ramirez</v>
-      </c>
-      <c r="F227" s="223" t="str">
-        <f>PROPER('Activos fijos'!K229)</f>
-        <v>Administracion</v>
+      <c r="E227" t="s">
+        <v>946</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1022</v>
       </c>
       <c r="G227" s="225"/>
     </row>
@@ -18807,16 +18947,14 @@
         <v>563</v>
       </c>
       <c r="C228" s="234" t="s">
-        <v>562</v>
+        <v>1198</v>
       </c>
       <c r="D228" s="228"/>
-      <c r="E228" s="223" t="str">
-        <f>PROPER('Activos fijos'!J230)</f>
-        <v>Silvia Mata</v>
-      </c>
-      <c r="F228" s="223" t="str">
-        <f>PROPER('Activos fijos'!K230)</f>
-        <v>Contabilidad</v>
+      <c r="E228" t="s">
+        <v>975</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1034</v>
       </c>
       <c r="G228" s="41"/>
     </row>
@@ -18828,16 +18966,14 @@
         <v>564</v>
       </c>
       <c r="C229" s="232" t="s">
-        <v>562</v>
+        <v>1198</v>
       </c>
       <c r="D229" s="224"/>
-      <c r="E229" s="223" t="str">
-        <f>PROPER('Activos fijos'!J231)</f>
-        <v/>
-      </c>
-      <c r="F229" s="223" t="str">
-        <f>PROPER('Activos fijos'!K231)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E229" t="s">
+        <v>958</v>
+      </c>
+      <c r="F229" t="s">
+        <v>957</v>
       </c>
       <c r="G229" s="225"/>
     </row>
@@ -18849,16 +18985,14 @@
         <v>565</v>
       </c>
       <c r="C230" s="234" t="s">
-        <v>562</v>
+        <v>1198</v>
       </c>
       <c r="D230" s="228"/>
-      <c r="E230" s="223" t="str">
-        <f>PROPER('Activos fijos'!J232)</f>
-        <v/>
-      </c>
-      <c r="F230" s="223" t="str">
-        <f>PROPER('Activos fijos'!K232)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E230" t="s">
+        <v>958</v>
+      </c>
+      <c r="F230" t="s">
+        <v>957</v>
       </c>
       <c r="G230" s="41"/>
     </row>
@@ -18870,16 +19004,14 @@
         <v>566</v>
       </c>
       <c r="C231" s="232" t="s">
-        <v>523</v>
+        <v>1195</v>
       </c>
       <c r="D231" s="224"/>
-      <c r="E231" s="223" t="str">
-        <f>PROPER('Activos fijos'!J233)</f>
-        <v/>
-      </c>
-      <c r="F231" s="223" t="str">
-        <f>PROPER('Activos fijos'!K233)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E231" t="s">
+        <v>958</v>
+      </c>
+      <c r="F231" t="s">
+        <v>957</v>
       </c>
       <c r="G231" s="225"/>
     </row>
@@ -18891,16 +19023,14 @@
         <v>567</v>
       </c>
       <c r="C232" s="234" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D232" s="228"/>
-      <c r="E232" s="223" t="str">
-        <f>PROPER('Activos fijos'!J234)</f>
-        <v/>
-      </c>
-      <c r="F232" s="223" t="str">
-        <f>PROPER('Activos fijos'!K234)</f>
-        <v>Cocina Planta Alta</v>
+      <c r="E232" t="s">
+        <v>958</v>
+      </c>
+      <c r="F232" t="s">
+        <v>957</v>
       </c>
       <c r="G232" s="41"/>
     </row>
@@ -18912,16 +19042,14 @@
         <v>569</v>
       </c>
       <c r="C233" s="232" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D233" s="224"/>
-      <c r="E233" s="223" t="str">
-        <f>PROPER('Activos fijos'!J235)</f>
-        <v/>
-      </c>
-      <c r="F233" s="223" t="str">
-        <f>PROPER('Activos fijos'!K235)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E233" t="s">
+        <v>958</v>
+      </c>
+      <c r="F233" t="s">
+        <v>980</v>
       </c>
       <c r="G233" s="225"/>
     </row>
@@ -18933,16 +19061,14 @@
         <v>571</v>
       </c>
       <c r="C234" s="234" t="s">
-        <v>503</v>
+        <v>1190</v>
       </c>
       <c r="D234" s="228"/>
-      <c r="E234" s="223" t="str">
-        <f>PROPER('Activos fijos'!J236)</f>
-        <v>Raúl</v>
-      </c>
-      <c r="F234" s="223" t="str">
-        <f>PROPER('Activos fijos'!K236)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E234" t="s">
+        <v>943</v>
+      </c>
+      <c r="F234" t="s">
+        <v>980</v>
       </c>
       <c r="G234" s="41"/>
     </row>
@@ -18954,16 +19080,14 @@
         <v>572</v>
       </c>
       <c r="C235" s="232" t="s">
-        <v>473</v>
+        <v>1185</v>
       </c>
       <c r="D235" s="224"/>
-      <c r="E235" s="223" t="str">
-        <f>PROPER('Activos fijos'!J237)</f>
-        <v>Dante García</v>
-      </c>
-      <c r="F235" s="223" t="str">
-        <f>PROPER('Activos fijos'!K237)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E235" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F235" t="s">
+        <v>980</v>
       </c>
       <c r="G235" s="225"/>
     </row>
@@ -18975,16 +19099,14 @@
         <v>574</v>
       </c>
       <c r="C236" s="234" t="s">
-        <v>523</v>
+        <v>1195</v>
       </c>
       <c r="D236" s="228"/>
-      <c r="E236" s="223" t="str">
-        <f>PROPER('Activos fijos'!J238)</f>
-        <v/>
-      </c>
-      <c r="F236" s="223" t="str">
-        <f>PROPER('Activos fijos'!K238)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E236" t="s">
+        <v>958</v>
+      </c>
+      <c r="F236" t="s">
+        <v>980</v>
       </c>
       <c r="G236" s="41"/>
     </row>
@@ -18996,16 +19118,14 @@
         <v>575</v>
       </c>
       <c r="C237" s="223" t="s">
-        <v>576</v>
+        <v>1199</v>
       </c>
       <c r="D237" s="224"/>
-      <c r="E237" s="223" t="str">
-        <f>PROPER('Activos fijos'!J239)</f>
-        <v>Andrea Arreola</v>
-      </c>
-      <c r="F237" s="223" t="str">
-        <f>PROPER('Activos fijos'!K239)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E237" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F237" t="s">
+        <v>980</v>
       </c>
       <c r="G237" s="229"/>
     </row>
@@ -19017,16 +19137,14 @@
         <v>577</v>
       </c>
       <c r="C238" s="227" t="s">
-        <v>578</v>
+        <v>1200</v>
       </c>
       <c r="D238" s="228"/>
-      <c r="E238" s="223" t="str">
-        <f>PROPER('Activos fijos'!J240)</f>
-        <v/>
-      </c>
-      <c r="F238" s="223" t="str">
-        <f>PROPER('Activos fijos'!K240)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E238" t="s">
+        <v>958</v>
+      </c>
+      <c r="F238" t="s">
+        <v>980</v>
       </c>
       <c r="G238" s="230"/>
     </row>
@@ -19038,16 +19156,14 @@
         <v>581</v>
       </c>
       <c r="C239" s="223" t="s">
-        <v>582</v>
+        <v>1201</v>
       </c>
       <c r="D239" s="224"/>
-      <c r="E239" s="223" t="str">
-        <f>PROPER('Activos fijos'!J241)</f>
-        <v>Oficina Juan Padilla</v>
-      </c>
-      <c r="F239" s="223" t="str">
-        <f>PROPER('Activos fijos'!K241)</f>
-        <v/>
+      <c r="E239" t="s">
+        <v>949</v>
+      </c>
+      <c r="F239" t="s">
+        <v>958</v>
       </c>
       <c r="G239" s="225"/>
     </row>
@@ -19059,16 +19175,14 @@
         <v>583</v>
       </c>
       <c r="C240" s="227" t="s">
-        <v>584</v>
+        <v>1202</v>
       </c>
       <c r="D240" s="228"/>
-      <c r="E240" s="223" t="str">
-        <f>PROPER('Activos fijos'!J242)</f>
-        <v>Rifado</v>
-      </c>
-      <c r="F240" s="223" t="str">
-        <f>PROPER('Activos fijos'!K242)</f>
-        <v>Sala De Juntas Planta Alta - Rifado - (Yamilet)</v>
+      <c r="E240" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1045</v>
       </c>
       <c r="G240" s="41"/>
     </row>
@@ -19080,16 +19194,14 @@
         <v>585</v>
       </c>
       <c r="C241" s="223" t="s">
-        <v>584</v>
+        <v>1202</v>
       </c>
       <c r="D241" s="224"/>
-      <c r="E241" s="223" t="str">
-        <f>PROPER('Activos fijos'!J243)</f>
-        <v>Sala De Juntas Planta Alta</v>
-      </c>
-      <c r="F241" s="223" t="str">
-        <f>PROPER('Activos fijos'!K243)</f>
-        <v>Sala De Juntas Planta Alta</v>
+      <c r="E241" t="s">
+        <v>948</v>
+      </c>
+      <c r="F241" t="s">
+        <v>948</v>
       </c>
       <c r="G241" s="225"/>
     </row>
@@ -19101,16 +19213,14 @@
         <v>586</v>
       </c>
       <c r="C242" s="227" t="s">
-        <v>587</v>
+        <v>1203</v>
       </c>
       <c r="D242" s="228"/>
-      <c r="E242" s="223" t="str">
-        <f>PROPER('Activos fijos'!J244)</f>
-        <v>Gildardo Padilla</v>
-      </c>
-      <c r="F242" s="223" t="str">
-        <f>PROPER('Activos fijos'!K244)</f>
-        <v>Oficina Gildardo Padilla</v>
+      <c r="E242" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F242" t="s">
+        <v>950</v>
       </c>
       <c r="G242" s="230"/>
     </row>
@@ -19122,16 +19232,14 @@
         <v>590</v>
       </c>
       <c r="C243" s="223" t="s">
-        <v>591</v>
+        <v>1204</v>
       </c>
       <c r="D243" s="224"/>
-      <c r="E243" s="223" t="str">
-        <f>PROPER('Activos fijos'!J245)</f>
-        <v>Ingenieros Planta Baja</v>
-      </c>
-      <c r="F243" s="223" t="str">
-        <f>PROPER('Activos fijos'!K245)</f>
-        <v>Sala De Juntas Planta Baja</v>
+      <c r="E243" t="s">
+        <v>980</v>
+      </c>
+      <c r="F243" t="s">
+        <v>991</v>
       </c>
       <c r="G243" s="223"/>
     </row>
@@ -19143,16 +19251,14 @@
         <v>593</v>
       </c>
       <c r="C244" s="227" t="s">
-        <v>594</v>
+        <v>1205</v>
       </c>
       <c r="D244" s="228"/>
-      <c r="E244" s="223" t="str">
-        <f>PROPER('Activos fijos'!J246)</f>
-        <v>Daniel Torres</v>
-      </c>
-      <c r="F244" s="223" t="str">
-        <f>PROPER('Activos fijos'!K246)</f>
-        <v>En Campo</v>
+      <c r="E244" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F244" t="s">
+        <v>1046</v>
       </c>
       <c r="G244" s="230"/>
     </row>
@@ -19164,16 +19270,14 @@
         <v>595</v>
       </c>
       <c r="C245" s="223" t="s">
-        <v>596</v>
+        <v>1206</v>
       </c>
       <c r="D245" s="224"/>
-      <c r="E245" s="223" t="str">
-        <f>PROPER('Activos fijos'!J247)</f>
-        <v>Jaime Mendoza</v>
-      </c>
-      <c r="F245" s="223" t="str">
-        <f>PROPER('Activos fijos'!K247)</f>
-        <v>En Campo</v>
+      <c r="E245" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1046</v>
       </c>
       <c r="G245" s="229"/>
     </row>
@@ -19185,16 +19289,14 @@
         <v>598</v>
       </c>
       <c r="C246" s="227" t="s">
-        <v>599</v>
+        <v>1207</v>
       </c>
       <c r="D246" s="228"/>
-      <c r="E246" s="223" t="str">
-        <f>PROPER('Activos fijos'!J248)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F246" s="223" t="str">
-        <f>PROPER('Activos fijos'!K248)</f>
-        <v>En Campo</v>
+      <c r="E246" t="s">
+        <v>956</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1046</v>
       </c>
       <c r="G246" s="237">
         <v>45762</v>
@@ -19208,16 +19310,14 @@
         <v>601</v>
       </c>
       <c r="C247" s="223" t="s">
-        <v>602</v>
+        <v>1208</v>
       </c>
       <c r="D247" s="224"/>
-      <c r="E247" s="223" t="str">
-        <f>PROPER('Activos fijos'!J249)</f>
-        <v>En Calibracion Con Eco Topografica</v>
-      </c>
-      <c r="F247" s="223" t="str">
-        <f>PROPER('Activos fijos'!K249)</f>
-        <v>En Campo</v>
+      <c r="E247" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1046</v>
       </c>
       <c r="G247" s="245"/>
     </row>
@@ -19229,16 +19329,14 @@
         <v>603</v>
       </c>
       <c r="C248" s="227" t="s">
-        <v>604</v>
+        <v>1209</v>
       </c>
       <c r="D248" s="228"/>
-      <c r="E248" s="223" t="str">
-        <f>PROPER('Activos fijos'!J250)</f>
-        <v>Ivan Romero</v>
-      </c>
-      <c r="F248" s="223" t="str">
-        <f>PROPER('Activos fijos'!K250)</f>
-        <v>En Campo</v>
+      <c r="E248" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1046</v>
       </c>
       <c r="G248" s="237"/>
     </row>
@@ -19250,16 +19348,14 @@
         <v>606</v>
       </c>
       <c r="C249" s="223" t="s">
-        <v>607</v>
+        <v>1210</v>
       </c>
       <c r="D249" s="224"/>
-      <c r="E249" s="223" t="str">
-        <f>PROPER('Activos fijos'!J251)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F249" s="223" t="str">
-        <f>PROPER('Activos fijos'!K251)</f>
-        <v>Ingenieros Planta Baja</v>
+      <c r="E249" t="s">
+        <v>954</v>
+      </c>
+      <c r="F249" t="s">
+        <v>980</v>
       </c>
       <c r="G249" s="229"/>
     </row>
@@ -19271,16 +19367,14 @@
         <v>609</v>
       </c>
       <c r="C250" s="227" t="s">
-        <v>610</v>
+        <v>1211</v>
       </c>
       <c r="D250" s="228"/>
-      <c r="E250" s="223" t="str">
-        <f>PROPER('Activos fijos'!J252)</f>
-        <v>Myriam Hernandez</v>
-      </c>
-      <c r="F250" s="223" t="str">
-        <f>PROPER('Activos fijos'!K252)</f>
-        <v>En Campo</v>
+      <c r="E250" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1046</v>
       </c>
       <c r="G250" s="41"/>
     </row>
@@ -19292,16 +19386,14 @@
         <v>611</v>
       </c>
       <c r="C251" s="223" t="s">
-        <v>610</v>
+        <v>1211</v>
       </c>
       <c r="D251" s="224"/>
-      <c r="E251" s="223" t="str">
-        <f>PROPER('Activos fijos'!J253)</f>
-        <v>Topografos</v>
-      </c>
-      <c r="F251" s="223" t="str">
-        <f>PROPER('Activos fijos'!K253)</f>
-        <v>En Campo</v>
+      <c r="E251" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1046</v>
       </c>
       <c r="G251" s="229"/>
     </row>
@@ -19313,16 +19405,14 @@
         <v>612</v>
       </c>
       <c r="C252" s="227" t="s">
-        <v>613</v>
+        <v>1212</v>
       </c>
       <c r="D252" s="228"/>
-      <c r="E252" s="223" t="str">
-        <f>PROPER('Activos fijos'!J254)</f>
-        <v>Sin Asignar</v>
-      </c>
-      <c r="F252" s="223" t="str">
-        <f>PROPER('Activos fijos'!K254)</f>
-        <v>Jair Firmo Hoja De Información Que Estan En Tocumbo</v>
+      <c r="E252" t="s">
+        <v>954</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1024</v>
       </c>
       <c r="G252" s="237">
         <v>45762</v>
@@ -19336,16 +19426,14 @@
         <v>614</v>
       </c>
       <c r="C253" s="223" t="s">
-        <v>615</v>
+        <v>1213</v>
       </c>
       <c r="D253" s="224"/>
-      <c r="E253" s="223" t="str">
-        <f>PROPER('Activos fijos'!J255)</f>
-        <v>Jose Ivan Romero</v>
-      </c>
-      <c r="F253" s="223" t="str">
-        <f>PROPER('Activos fijos'!K255)</f>
-        <v/>
+      <c r="E253" t="s">
+        <v>955</v>
+      </c>
+      <c r="F253" t="s">
+        <v>958</v>
       </c>
       <c r="G253" s="229"/>
     </row>
@@ -19357,16 +19445,14 @@
         <v>616</v>
       </c>
       <c r="C254" s="227" t="s">
-        <v>617</v>
+        <v>1214</v>
       </c>
       <c r="D254" s="228"/>
-      <c r="E254" s="223" t="str">
-        <f>PROPER('Activos fijos'!J256)</f>
-        <v>Juan Jose Vila Jhony</v>
-      </c>
-      <c r="F254" s="223" t="str">
-        <f>PROPER('Activos fijos'!K256)</f>
-        <v>Campo</v>
+      <c r="E254" t="s">
+        <v>956</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1025</v>
       </c>
       <c r="G254" s="230"/>
     </row>
@@ -19378,18 +19464,16 @@
         <v>618</v>
       </c>
       <c r="C255" s="223" t="s">
-        <v>619</v>
+        <v>1215</v>
       </c>
       <c r="D255" s="224" t="s">
         <v>620</v>
       </c>
-      <c r="E255" s="223" t="str">
-        <f>PROPER('Activos fijos'!J257)</f>
-        <v>Planta Baja</v>
-      </c>
-      <c r="F255" s="223" t="str">
-        <f>PROPER('Activos fijos'!K257)</f>
-        <v/>
+      <c r="E255" t="s">
+        <v>952</v>
+      </c>
+      <c r="F255" t="s">
+        <v>958</v>
       </c>
       <c r="G255" s="229"/>
     </row>
@@ -19401,18 +19485,16 @@
         <v>622</v>
       </c>
       <c r="C256" s="227" t="s">
-        <v>623</v>
+        <v>1216</v>
       </c>
       <c r="D256" s="228" t="s">
         <v>624</v>
       </c>
-      <c r="E256" s="223" t="str">
-        <f>PROPER('Activos fijos'!J258)</f>
-        <v>Planta Baja</v>
-      </c>
-      <c r="F256" s="223" t="str">
-        <f>PROPER('Activos fijos'!K258)</f>
-        <v/>
+      <c r="E256" t="s">
+        <v>952</v>
+      </c>
+      <c r="F256" t="s">
+        <v>958</v>
       </c>
       <c r="G256" s="230"/>
     </row>
@@ -20116,7 +20198,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="222" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="0"/>
